--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E1298E-02C3-43E8-90F9-12C58E1ACC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D98A8-E272-4770-879C-0C3FE4CF96C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <sheet name="Рулевая_зад_Томск Все параметры" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11663,7 +11662,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11686,6 +11685,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFD7"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -11731,20 +11736,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -11777,6 +11770,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -12207,7 +12213,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -12302,64 +12308,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D3">
@@ -12368,15 +12374,15 @@
       <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D4">
@@ -12386,15 +12392,15 @@
       <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D5">
@@ -12404,15 +12410,15 @@
       <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D6">
@@ -12422,15 +12428,15 @@
       <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E7">
@@ -12439,15 +12445,15 @@
       <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E8">
@@ -12456,12 +12462,12 @@
       <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
@@ -12473,12 +12479,12 @@
       <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
@@ -12490,17 +12496,17 @@
       <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -12509,12 +12515,12 @@
       <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B13" t="s">
@@ -12523,12 +12529,12 @@
       <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B14" t="s">
@@ -12537,12 +12543,12 @@
       <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B15" t="s">
@@ -12551,7 +12557,7 @@
       <c r="F15" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12578,7 +12584,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -12759,7 +12765,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -12885,7 +12891,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12990,7 +12996,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13178,34 +13184,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -15087,7 +15093,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="5.21875" customWidth="1"/>
@@ -15103,23 +15109,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>401</v>
       </c>
       <c r="B2" t="s">
@@ -15133,7 +15139,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>404</v>
       </c>
       <c r="B3" t="s">
@@ -15144,7 +15150,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>407</v>
       </c>
       <c r="B4" t="s">
@@ -15155,7 +15161,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>409</v>
       </c>
       <c r="B5" t="s">
@@ -15169,7 +15175,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>411</v>
       </c>
       <c r="B6" t="s">
@@ -15183,7 +15189,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>413</v>
       </c>
       <c r="B7" t="s">
@@ -15197,7 +15203,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>415</v>
       </c>
       <c r="B8" t="s">
@@ -15211,7 +15217,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>417</v>
       </c>
       <c r="B9" t="s">
@@ -15225,7 +15231,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>419</v>
       </c>
       <c r="B10" t="s">
@@ -15239,7 +15245,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>421</v>
       </c>
       <c r="B11" t="s">
@@ -15253,7 +15259,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>423</v>
       </c>
       <c r="B12" t="s">
@@ -15267,7 +15273,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>425</v>
       </c>
       <c r="B13" t="s">
@@ -15281,7 +15287,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>427</v>
       </c>
       <c r="B14" t="s">
@@ -15295,7 +15301,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>430</v>
       </c>
       <c r="B15" t="s">
@@ -15309,7 +15315,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B16" t="s">
@@ -15323,7 +15329,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>434</v>
       </c>
       <c r="B17" t="s">
@@ -15337,7 +15343,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>436</v>
       </c>
       <c r="B18" t="s">
@@ -15351,7 +15357,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>438</v>
       </c>
       <c r="B19" t="s">
@@ -15365,7 +15371,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>440</v>
       </c>
       <c r="B20" t="s">
@@ -15379,7 +15385,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="4" t="s">
         <v>442</v>
       </c>
       <c r="B21" t="s">
@@ -15393,7 +15399,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="4" t="s">
         <v>445</v>
       </c>
       <c r="B22" t="s">
@@ -15407,7 +15413,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B23" t="s">
@@ -15421,7 +15427,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="4" t="s">
         <v>451</v>
       </c>
       <c r="B24" t="s">
@@ -15435,7 +15441,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="4" t="s">
         <v>453</v>
       </c>
       <c r="B25" t="s">
@@ -15446,7 +15452,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="4" t="s">
         <v>456</v>
       </c>
       <c r="B26" t="s">
@@ -15457,7 +15463,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="4" t="s">
         <v>458</v>
       </c>
       <c r="B27" t="s">
@@ -15468,21 +15474,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="4" t="s">
         <v>461</v>
       </c>
       <c r="B29" t="s">
@@ -15490,7 +15496,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="4" t="s">
         <v>463</v>
       </c>
       <c r="B30" t="s">
@@ -15498,7 +15504,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="4" t="s">
         <v>465</v>
       </c>
       <c r="B31" t="s">
@@ -15506,7 +15512,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="4" t="s">
         <v>467</v>
       </c>
       <c r="B32" t="s">
@@ -15514,7 +15520,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="4" t="s">
         <v>469</v>
       </c>
       <c r="B33" t="s">
@@ -15522,7 +15528,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="4" t="s">
         <v>471</v>
       </c>
       <c r="B34" t="s">
@@ -15530,7 +15536,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="4" t="s">
         <v>473</v>
       </c>
       <c r="B35" t="s">
@@ -15538,33 +15544,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="F37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="11" t="s">
+      <c r="C38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J38" t="s">
@@ -15572,12 +15578,12 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="11" t="s">
+      <c r="C39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J39" t="s">
@@ -15585,12 +15591,12 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="11" t="s">
+      <c r="C40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J40" t="s">
@@ -15598,12 +15604,12 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="11" t="s">
+      <c r="C41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J41" t="s">
@@ -15611,127 +15617,127 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="7" t="s">
         <v>481</v>
       </c>
       <c r="B43" t="s">
         <v>482</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="J43" s="7" t="s">
+      <c r="F43" s="1"/>
+      <c r="J43" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="7" t="s">
         <v>483</v>
       </c>
       <c r="B44" t="s">
         <v>270</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="1"/>
       <c r="J44" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="7" t="s">
         <v>484</v>
       </c>
       <c r="B45" t="s">
         <v>485</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="1"/>
       <c r="J45" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="7" t="s">
         <v>486</v>
       </c>
       <c r="B46" t="s">
         <v>487</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="1"/>
       <c r="J46" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="7" t="s">
         <v>488</v>
       </c>
       <c r="B47" t="s">
         <v>489</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="1"/>
       <c r="J47" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="7" t="s">
         <v>490</v>
       </c>
       <c r="B48" t="s">
         <v>491</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="1"/>
       <c r="J48" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="7" t="s">
         <v>492</v>
       </c>
       <c r="B49" t="s">
         <v>493</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="1"/>
       <c r="J49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B50" t="s">
         <v>495</v>
       </c>
-      <c r="F50" s="5"/>
+      <c r="F50" s="1"/>
       <c r="J50" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="7" t="s">
         <v>496</v>
       </c>
       <c r="B51" t="s">
         <v>497</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="1"/>
       <c r="J51" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="7" t="s">
         <v>498</v>
       </c>
       <c r="B52" t="s">
         <v>499</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J52" t="s">
@@ -15739,13 +15745,13 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="7" t="s">
         <v>500</v>
       </c>
       <c r="B53" t="s">
         <v>501</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J53" t="s">
@@ -15753,13 +15759,13 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="7" t="s">
         <v>502</v>
       </c>
       <c r="B54" t="s">
         <v>503</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J54" t="s">
@@ -15767,13 +15773,13 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="7" t="s">
         <v>504</v>
       </c>
       <c r="B55" t="s">
         <v>505</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="7" t="s">
         <v>447</v>
       </c>
       <c r="J55" t="s">
@@ -15781,13 +15787,13 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="7" t="s">
         <v>506</v>
       </c>
       <c r="B56" t="s">
         <v>507</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="7" t="s">
         <v>447</v>
       </c>
       <c r="J56" t="s">
@@ -15795,13 +15801,13 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="7" t="s">
         <v>508</v>
       </c>
       <c r="B57" t="s">
         <v>509</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="7" t="s">
         <v>510</v>
       </c>
       <c r="J57" t="s">
@@ -15809,37 +15815,37 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="7" t="s">
         <v>511</v>
       </c>
       <c r="B58" t="s">
         <v>512</v>
       </c>
-      <c r="F58" s="5"/>
+      <c r="F58" s="1"/>
       <c r="J58" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="7" t="s">
         <v>513</v>
       </c>
       <c r="B59" t="s">
         <v>514</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="1"/>
       <c r="J59" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="7" t="s">
         <v>515</v>
       </c>
       <c r="B60" t="s">
         <v>516</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J60" t="s">
@@ -15847,19 +15853,19 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="F61" s="5"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J62" t="s">
@@ -15867,13 +15873,13 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J63" t="s">
@@ -15881,13 +15887,13 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J64" t="s">
@@ -15895,13 +15901,13 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J65" t="s">
@@ -15909,13 +15915,13 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J66" t="s">
@@ -15923,13 +15929,13 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J67" t="s">
@@ -15937,13 +15943,13 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J68" t="s">
@@ -15951,13 +15957,13 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J69" t="s">
@@ -15965,20 +15971,20 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="B70" s="1"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J71" t="s">
@@ -15986,13 +15992,13 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="7" t="s">
         <v>94</v>
       </c>
       <c r="J72" t="s">
@@ -16000,13 +16006,13 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="7" t="s">
         <v>94</v>
       </c>
       <c r="J73" t="s">
@@ -16014,13 +16020,13 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J74" t="s">
@@ -16028,13 +16034,13 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="7" t="s">
         <v>94</v>
       </c>
       <c r="J75" t="s">
@@ -16071,58 +16077,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -16410,284 +16416,284 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="11" t="s">
+      <c r="C24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J24" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="11" t="s">
+      <c r="C25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J25" t="s">
         <v>232</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="11" t="s">
+      <c r="C26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J26" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="11" t="s">
+      <c r="C27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J27" t="s">
         <v>167</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J28" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J29" t="s">
         <v>167</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J30" t="s">
         <v>167</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J31" t="s">
         <v>167</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J32" t="s">
         <v>167</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J33" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J34" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J35" t="s">
         <v>167</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J36" t="s">
         <v>167</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="7" t="s">
         <v>94</v>
       </c>
       <c r="J37" t="s">
         <v>58</v>
       </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="7" t="s">
         <v>94</v>
       </c>
       <c r="J38" t="s">
         <v>58</v>
       </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J39" t="s">
         <v>167</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="7" t="s">
         <v>94</v>
       </c>
       <c r="J40" t="s">
         <v>58</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -16695,121 +16701,121 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="7" t="s">
         <v>481</v>
       </c>
       <c r="B42" t="s">
         <v>482</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="J42" s="7" t="s">
+      <c r="F42" s="1"/>
+      <c r="J42" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="7" t="s">
         <v>483</v>
       </c>
       <c r="B43" t="s">
         <v>270</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="1"/>
       <c r="J43" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="7" t="s">
         <v>484</v>
       </c>
       <c r="B44" t="s">
         <v>485</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="1"/>
       <c r="J44" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="7" t="s">
         <v>486</v>
       </c>
       <c r="B45" t="s">
         <v>487</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="1"/>
       <c r="J45" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="7" t="s">
         <v>488</v>
       </c>
       <c r="B46" t="s">
         <v>489</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="1"/>
       <c r="J46" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="7" t="s">
         <v>490</v>
       </c>
       <c r="B47" t="s">
         <v>491</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="1"/>
       <c r="J47" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="7" t="s">
         <v>492</v>
       </c>
       <c r="B48" t="s">
         <v>493</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="1"/>
       <c r="J48" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B49" t="s">
         <v>495</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="1"/>
       <c r="J49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="7" t="s">
         <v>496</v>
       </c>
       <c r="B50" t="s">
         <v>497</v>
       </c>
-      <c r="F50" s="5"/>
+      <c r="F50" s="1"/>
       <c r="J50" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="7" t="s">
         <v>498</v>
       </c>
       <c r="B51" t="s">
         <v>499</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J51" t="s">
@@ -16817,13 +16823,13 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="7" t="s">
         <v>500</v>
       </c>
       <c r="B52" t="s">
         <v>501</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J52" t="s">
@@ -16831,13 +16837,13 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="7" t="s">
         <v>502</v>
       </c>
       <c r="B53" t="s">
         <v>503</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J53" t="s">
@@ -16845,13 +16851,13 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="7" t="s">
         <v>504</v>
       </c>
       <c r="B54" t="s">
         <v>505</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="7" t="s">
         <v>447</v>
       </c>
       <c r="J54" t="s">
@@ -16859,13 +16865,13 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="7" t="s">
         <v>506</v>
       </c>
       <c r="B55" t="s">
         <v>507</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="7" t="s">
         <v>447</v>
       </c>
       <c r="J55" t="s">
@@ -16873,13 +16879,13 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="7" t="s">
         <v>508</v>
       </c>
       <c r="B56" t="s">
         <v>509</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="7" t="s">
         <v>510</v>
       </c>
       <c r="J56" t="s">
@@ -16887,37 +16893,37 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="7" t="s">
         <v>511</v>
       </c>
       <c r="B57" t="s">
         <v>512</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="1"/>
       <c r="J57" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="7" t="s">
         <v>513</v>
       </c>
       <c r="B58" t="s">
         <v>514</v>
       </c>
-      <c r="F58" s="5"/>
+      <c r="F58" s="1"/>
       <c r="J58" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="7" t="s">
         <v>515</v>
       </c>
       <c r="B59" t="s">
         <v>516</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J59" t="s">
@@ -16934,8 +16940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B649" sqref="B649"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M671" sqref="M671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16956,43 +16963,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="14" t="s">
         <v>550</v>
       </c>
     </row>
@@ -36302,7 +36309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1618</v>
       </c>
@@ -36334,7 +36341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1621</v>
       </c>
@@ -36366,7 +36373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1623</v>
       </c>
@@ -36398,7 +36405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1626</v>
       </c>
@@ -36430,7 +36437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1629</v>
       </c>
@@ -36462,7 +36469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1632</v>
       </c>
@@ -36494,7 +36501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1635</v>
       </c>
@@ -36523,7 +36530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1637</v>
       </c>
@@ -36552,7 +36559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1639</v>
       </c>
@@ -36581,7 +36588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1639</v>
       </c>
@@ -36610,12 +36617,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A635" t="s">
+    <row r="635" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="19" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1643</v>
       </c>
@@ -36646,8 +36653,11 @@
       <c r="L636">
         <v>22</v>
       </c>
-    </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M636">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1543</v>
       </c>
@@ -36678,8 +36688,11 @@
       <c r="L637">
         <v>22</v>
       </c>
-    </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M637">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1550</v>
       </c>
@@ -36711,7 +36724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1648</v>
       </c>
@@ -36742,8 +36755,11 @@
       <c r="L639">
         <v>22</v>
       </c>
-    </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M639">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1651</v>
       </c>
@@ -36775,7 +36791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1553</v>
       </c>
@@ -36804,7 +36820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1655</v>
       </c>
@@ -36836,7 +36852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>415</v>
       </c>
@@ -36868,7 +36884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1606</v>
       </c>
@@ -36899,8 +36915,11 @@
       <c r="L644">
         <v>22</v>
       </c>
-    </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M644">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1603</v>
       </c>
@@ -36931,8 +36950,11 @@
       <c r="L645">
         <v>22</v>
       </c>
-    </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M645">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1621</v>
       </c>
@@ -36964,7 +36986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1635</v>
       </c>
@@ -36993,7 +37015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1663</v>
       </c>
@@ -37025,7 +37047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1665</v>
       </c>
@@ -37053,8 +37075,11 @@
       <c r="L649">
         <v>22</v>
       </c>
-    </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M649">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1668</v>
       </c>
@@ -37082,8 +37107,11 @@
       <c r="L650">
         <v>22</v>
       </c>
-    </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M650">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1670</v>
       </c>
@@ -37111,8 +37139,11 @@
       <c r="L651">
         <v>22</v>
       </c>
-    </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M651">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1672</v>
       </c>
@@ -37143,8 +37174,11 @@
       <c r="L652">
         <v>22</v>
       </c>
-    </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M652">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1675</v>
       </c>
@@ -37175,8 +37209,11 @@
       <c r="L653">
         <v>22</v>
       </c>
-    </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M653">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1543</v>
       </c>
@@ -37207,8 +37244,11 @@
       <c r="L654">
         <v>22</v>
       </c>
-    </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M654">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1550</v>
       </c>
@@ -37240,7 +37280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1648</v>
       </c>
@@ -37271,8 +37311,11 @@
       <c r="L656">
         <v>22</v>
       </c>
-    </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M656">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1651</v>
       </c>
@@ -37304,7 +37347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1553</v>
       </c>
@@ -37333,7 +37376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1655</v>
       </c>
@@ -37365,7 +37408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>415</v>
       </c>
@@ -37397,7 +37440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1606</v>
       </c>
@@ -37428,8 +37471,11 @@
       <c r="L661">
         <v>22</v>
       </c>
-    </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M661">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1603</v>
       </c>
@@ -37460,8 +37506,11 @@
       <c r="L662">
         <v>22</v>
       </c>
-    </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M662">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1621</v>
       </c>
@@ -37493,7 +37542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1635</v>
       </c>
@@ -37522,7 +37571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1663</v>
       </c>
@@ -37554,7 +37603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1665</v>
       </c>
@@ -37582,8 +37631,11 @@
       <c r="L666">
         <v>22</v>
       </c>
-    </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M666">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1668</v>
       </c>
@@ -37611,8 +37663,11 @@
       <c r="L667">
         <v>22</v>
       </c>
-    </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M667">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1670</v>
       </c>
@@ -37640,8 +37695,11 @@
       <c r="L668">
         <v>22</v>
       </c>
-    </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M668">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1672</v>
       </c>
@@ -37672,8 +37730,11 @@
       <c r="L669">
         <v>22</v>
       </c>
-    </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M669">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1675</v>
       </c>
@@ -37704,13 +37765,16 @@
       <c r="L670">
         <v>22</v>
       </c>
-    </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A671" t="s">
+      <c r="M670">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="671" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A671" s="19" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1696</v>
       </c>
@@ -44324,43 +44388,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="14" t="s">
         <v>550</v>
       </c>
     </row>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A00CC46-C614-497E-A5BD-01043EF6D6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B9B972-16AC-47B1-936B-65034B0EAC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8916" tabRatio="500" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -11619,63 +11619,42 @@
     <t xml:space="preserve">A0.0 Alarms </t>
   </si>
   <si>
-    <t>0x0</t>
-  </si>
-  <si>
     <t>АВАРИИ</t>
   </si>
   <si>
     <t xml:space="preserve">A0.1 Status </t>
   </si>
   <si>
-    <t>0x1</t>
-  </si>
-  <si>
     <t>СТАТУС РАБОТЫ</t>
   </si>
   <si>
     <t>A0.2 SetSteerPos</t>
   </si>
   <si>
-    <t>0x2</t>
-  </si>
-  <si>
     <t>Задание реечной позиции -1000...+1000</t>
   </si>
   <si>
     <t>A0.3 ActSteerPos</t>
   </si>
   <si>
-    <t>0x3</t>
-  </si>
-  <si>
     <t>Актуальная реечная позиция -1000...+1000</t>
   </si>
   <si>
     <t>A0.4 PositionAbs</t>
   </si>
   <si>
-    <t>0x4</t>
-  </si>
-  <si>
     <t>ТЕКУЩЕЕ ПОЛОЖЕНИЕ В МЕТКАХ ДАТЧИКА РУЛЕВОЙ РЕЙКИ</t>
   </si>
   <si>
     <t>A0.6 SetPositAbs</t>
   </si>
   <si>
-    <t>0x6</t>
-  </si>
-  <si>
     <t>ЗАДАННОЕ ПОЛОЖЕНИЕ В МЕТКАХ ДАТЧИКА РУЛЕВОЙ РЕЙКИ</t>
   </si>
   <si>
     <t>A0.8 ErrPositAbs</t>
   </si>
   <si>
-    <t>0x8</t>
-  </si>
-  <si>
     <t>ОШИБКА ПО ПОЛОЖЕНИЮ В МЕТКАХ ДАТЧИКА РУЛЕВОЙ РЕЙКИ</t>
   </si>
   <si>
@@ -11685,9 +11664,6 @@
     <t>A1.6 SpeedRPM</t>
   </si>
   <si>
-    <t>0x11</t>
-  </si>
-  <si>
     <t>СКОРОСТЬ ОБ/МИН * 10</t>
   </si>
   <si>
@@ -11697,18 +11673,12 @@
     <t>A1.7 CurrentRMS</t>
   </si>
   <si>
-    <t>0x12</t>
-  </si>
-  <si>
     <t>ТОК А * 100</t>
   </si>
   <si>
     <t>A1.8 Torque</t>
   </si>
   <si>
-    <t>0x13</t>
-  </si>
-  <si>
     <t>МОМЕНТ Нм * 100</t>
   </si>
   <si>
@@ -11718,9 +11688,6 @@
     <t>A1.9 OutVoltage</t>
   </si>
   <si>
-    <t>0x14</t>
-  </si>
-  <si>
     <t>НАПРЯЖЕНИЕ В 100</t>
   </si>
   <si>
@@ -11733,54 +11700,36 @@
     <t>A2.0 Uin</t>
   </si>
   <si>
-    <t>0x15</t>
-  </si>
-  <si>
     <t>Входное напряжение</t>
   </si>
   <si>
     <t>A2.1 Temp rad</t>
   </si>
   <si>
-    <t>0x16</t>
-  </si>
-  <si>
     <t>deg</t>
   </si>
   <si>
     <t>A2.3 Temp STM</t>
   </si>
   <si>
-    <t>0x18</t>
-  </si>
-  <si>
     <t>Температура STM</t>
   </si>
   <si>
     <t>A2.4 Inputs</t>
   </si>
   <si>
-    <t>0x19</t>
-  </si>
-  <si>
     <t>Цифровые входа</t>
   </si>
   <si>
     <t>A2.5 Inputs_invert</t>
   </si>
   <si>
-    <t>0x1a</t>
-  </si>
-  <si>
     <t>Цифровые входа (вкл инверс)</t>
   </si>
   <si>
     <t>A2.8 Outputs</t>
   </si>
   <si>
-    <t>0x1e</t>
-  </si>
-  <si>
     <t>Дискретные выходы</t>
   </si>
   <si>
@@ -11790,159 +11739,99 @@
     <t>A3.1 WheelTyp</t>
   </si>
   <si>
-    <t>0x20</t>
-  </si>
-  <si>
     <t>Текущая ось по итогам А3.4</t>
   </si>
   <si>
     <t>A3.2 ADC_Regs0_I1</t>
   </si>
   <si>
-    <t>0x21</t>
-  </si>
-  <si>
     <t>A3.3 ADC_Regs0_I2</t>
   </si>
   <si>
-    <t>0x22</t>
-  </si>
-  <si>
     <t>A3.4 WheelTypeSet</t>
   </si>
   <si>
-    <t>0x23</t>
-  </si>
-  <si>
     <t>Выбор типа оси ТС: 0-по SN (чёт/нечёт), 1-по DIP_SW1, 2-передний, 3-задний</t>
   </si>
   <si>
     <t>A3.7 Pila_main</t>
   </si>
   <si>
-    <t>0x26</t>
-  </si>
-  <si>
     <t>A3.9 Pila_main_long</t>
   </si>
   <si>
-    <t>0x28</t>
-  </si>
-  <si>
     <t xml:space="preserve">A3.11.VER_PO </t>
   </si>
   <si>
-    <t>0x2a</t>
-  </si>
-  <si>
     <t>A3.13 ADC I1</t>
   </si>
   <si>
-    <t>0x2c</t>
-  </si>
-  <si>
     <t>АЦП I1</t>
   </si>
   <si>
     <t>A3.14 ADC I2</t>
   </si>
   <si>
-    <t>0x2d</t>
-  </si>
-  <si>
     <t>АЦП I2</t>
   </si>
   <si>
     <t>A3.19 pilaA_orig</t>
   </si>
   <si>
-    <t>0x32</t>
-  </si>
-  <si>
     <t>РЕЗЕРВ</t>
   </si>
   <si>
     <t>A3.21 pilaB_orig</t>
   </si>
   <si>
-    <t>0x34</t>
-  </si>
-  <si>
     <t>A3.23 pilaA_Q24</t>
   </si>
   <si>
-    <t>0x36</t>
-  </si>
-  <si>
     <t>A3.25 pilaB_Q24</t>
   </si>
   <si>
-    <t>0x38</t>
-  </si>
-  <si>
     <t>group B0.Global configuration</t>
   </si>
   <si>
     <t>B0.0 PWM_Period_Scale</t>
   </si>
   <si>
-    <t>0x3c</t>
-  </si>
-  <si>
     <t>Коэффициент масштабирования ШИМ относительно 20 кГц</t>
   </si>
   <si>
     <t>B0.3 FREQ_Motor_nom</t>
   </si>
   <si>
-    <t>0x3f</t>
-  </si>
-  <si>
     <t>номинальная скорость об/мин</t>
   </si>
   <si>
     <t>B0.9 Serial_Number</t>
   </si>
   <si>
-    <t>0x45</t>
-  </si>
-  <si>
     <t>Серийный номер блока</t>
   </si>
   <si>
     <t>B0.10 Product_Date</t>
   </si>
   <si>
-    <t>0x46</t>
-  </si>
-  <si>
     <t>Дата выпуска</t>
   </si>
   <si>
     <t>B0.12 CPU_Number</t>
   </si>
   <si>
-    <t>0x48</t>
-  </si>
-  <si>
     <t>Номер платы управления</t>
   </si>
   <si>
     <t>B0.13 PWR_Number</t>
   </si>
   <si>
-    <t>0x49</t>
-  </si>
-  <si>
     <t>Номер силовой платы</t>
   </si>
   <si>
     <t>B0.14 temperTF</t>
   </si>
   <si>
-    <t>0x4a</t>
-  </si>
-  <si>
     <t>Постоянная времени датчиков температуры</t>
   </si>
   <si>
@@ -11952,18 +11841,12 @@
     <t>B1.0 REQ_SPD_CALC</t>
   </si>
   <si>
-    <t>0x4b</t>
-  </si>
-  <si>
     <t>Частота обработки контура скорости</t>
   </si>
   <si>
     <t>B1.1 REQ_POS_CALC</t>
   </si>
   <si>
-    <t>0x4c</t>
-  </si>
-  <si>
     <t>Частота обработки контура положения</t>
   </si>
   <si>
@@ -11973,168 +11856,111 @@
     <t>B2.4 rxCommand</t>
   </si>
   <si>
-    <t>0x59</t>
-  </si>
-  <si>
     <t>Принятая по CAN команда</t>
   </si>
   <si>
     <t>B2.5 rxSetPos1</t>
   </si>
   <si>
-    <t>0x5a</t>
-  </si>
-  <si>
     <t>Принятая по CAN позиция для Передней рейки</t>
   </si>
   <si>
     <t>B2.6 rxSetPos2</t>
   </si>
   <si>
-    <t>0x5b</t>
-  </si>
-  <si>
     <t>Принятая по CAN позиция для Задней рейки</t>
   </si>
   <si>
     <t>B2.7 rxRSVD3</t>
   </si>
   <si>
-    <t>0x5c</t>
-  </si>
-  <si>
     <t>Принятый по CAN Резерв_3</t>
   </si>
   <si>
     <t>B2.8 rxRSVD4</t>
   </si>
   <si>
-    <t>0x5d</t>
-  </si>
-  <si>
     <t>Принятый по CAN Резерв_4</t>
   </si>
   <si>
     <t>B2.9 txStatus</t>
   </si>
   <si>
-    <t>0x5e</t>
-  </si>
-  <si>
     <t>Отправка по CAN Статусного регистра блока</t>
   </si>
   <si>
     <t>B2.10 txPosition</t>
   </si>
   <si>
-    <t>0x5f</t>
-  </si>
-  <si>
     <t>Отправка по CAN позиции блока -1000...+1000</t>
   </si>
   <si>
     <t>B2.11 txCurrent</t>
   </si>
   <si>
-    <t>0x60</t>
-  </si>
-  <si>
     <t>Отправка по CAN тока двигателя ??? ХХХ ???</t>
   </si>
   <si>
     <t>B2.12 txTempMot</t>
   </si>
   <si>
-    <t>0x61</t>
-  </si>
-  <si>
     <t>Отправка по CAN температуры двигателя (резерв на будущее)</t>
   </si>
   <si>
     <t>B2.13 txTempRad</t>
   </si>
   <si>
-    <t>0x62</t>
-  </si>
-  <si>
     <t>Отправка по CAN температуры радиатора блока</t>
   </si>
   <si>
     <t>B2.14 txRSVD5</t>
   </si>
   <si>
-    <t>0x63</t>
-  </si>
-  <si>
     <t>B2.15 ZeroPosAbs</t>
   </si>
   <si>
-    <t>0x64</t>
-  </si>
-  <si>
     <t>Значение в метках рейки, соответствующее центрольному положению = 0</t>
   </si>
   <si>
     <t>B2.17 MAX_POS</t>
   </si>
   <si>
-    <t>0x66</t>
-  </si>
-  <si>
     <t>Величина рабочей зоны перемещения рейки +- в % относительно всего допустимого хода</t>
   </si>
   <si>
     <t>B2.18 ZONE</t>
   </si>
   <si>
-    <t>0x67</t>
-  </si>
-  <si>
     <t>Величина зоны нечувствительности для стабилизации рейки, Х,ХХ %</t>
   </si>
   <si>
     <t>B2.19 OvHeatWarnLev</t>
   </si>
   <si>
-    <t>0x68</t>
-  </si>
-  <si>
     <t>Уровень температуры для предупреждения о перегреве блока</t>
   </si>
   <si>
     <t>B2.20 OvCurrWarnLev</t>
   </si>
   <si>
-    <t>0x69</t>
-  </si>
-  <si>
     <t>Уровень тока для выдачи предупреждения</t>
   </si>
   <si>
     <t>B2.21 UnVoltWarnLev</t>
   </si>
   <si>
-    <t>0x6a</t>
-  </si>
-  <si>
     <t>Уровень низкого напряжения для выдачи предупреждения</t>
   </si>
   <si>
     <t>B2.22 OvVoltWarnLev</t>
   </si>
   <si>
-    <t>0x6b</t>
-  </si>
-  <si>
     <t>Уровень высокого напряжения для выдачи предупреждения</t>
   </si>
   <si>
     <t>B2.23 CAN_lost</t>
   </si>
   <si>
-    <t>0x6c</t>
-  </si>
-  <si>
     <t>Интервал времени регистрации потери связи по CAN</t>
   </si>
   <si>
@@ -12144,63 +11970,42 @@
     <t>B2.24 CANPDO_ByteOrder</t>
   </si>
   <si>
-    <t>0x6d</t>
-  </si>
-  <si>
     <t>Порядок следования байт при передаче по CAN: 0 - прямой, 1 - обратный</t>
   </si>
   <si>
     <t>B2.25 OvCurrAlarmTime</t>
   </si>
   <si>
-    <t>0x6e</t>
-  </si>
-  <si>
     <t>Интервал времени для срабатывания защиты по длительному превышению тока</t>
   </si>
   <si>
     <t>B2.26 OvCurrAlarmCnt</t>
   </si>
   <si>
-    <t>0x6f</t>
-  </si>
-  <si>
     <t>Таймер интервала времени непрерывной перегрузки по длительному току</t>
   </si>
   <si>
     <t>B2.30 OvHeatWarnTime</t>
   </si>
   <si>
-    <t>0x73</t>
-  </si>
-  <si>
     <t>Время выставления предупреждения о перегреве</t>
   </si>
   <si>
     <t>B2.31 OvCurrWarnTime</t>
   </si>
   <si>
-    <t>0x74</t>
-  </si>
-  <si>
     <t>Время выставления предупреждения о превышении тока</t>
   </si>
   <si>
     <t>B2.32 UnVoltWarnTime</t>
   </si>
   <si>
-    <t>0x75</t>
-  </si>
-  <si>
     <t>Время выставления предупреждения о низком напряжении</t>
   </si>
   <si>
     <t>B2.33 OvVoltWarnTime</t>
   </si>
   <si>
-    <t>0x76</t>
-  </si>
-  <si>
     <t>Время выставления предупреждения о высоком напряжении</t>
   </si>
   <si>
@@ -12210,63 +12015,42 @@
     <t>B3.0 SecOutInd</t>
   </si>
   <si>
-    <t>0x78</t>
-  </si>
-  <si>
     <t>Индикация секундных импульсов на внешнем светодиоде "Связь"</t>
   </si>
   <si>
     <t>B3.1 SecCorr4Day</t>
   </si>
   <si>
-    <t>0x79</t>
-  </si>
-  <si>
     <t>Коррекция суточного хода встроенных часов</t>
   </si>
   <si>
     <t>B3.5 WDays</t>
   </si>
   <si>
-    <t>0x7d</t>
-  </si>
-  <si>
     <t>Работа в днях</t>
   </si>
   <si>
     <t>B3.6 WHours</t>
   </si>
   <si>
-    <t>0x7e</t>
-  </si>
-  <si>
     <t>Работа в часах</t>
   </si>
   <si>
     <t>B3.7 WMins</t>
   </si>
   <si>
-    <t>0x7f</t>
-  </si>
-  <si>
     <t>Работа в минутах</t>
   </si>
   <si>
     <t>B3.8 WSecs</t>
   </si>
   <si>
-    <t>0x80</t>
-  </si>
-  <si>
     <t>Работа в секундах</t>
   </si>
   <si>
     <t>B3.9 Reset</t>
   </si>
   <si>
-    <t>0x81</t>
-  </si>
-  <si>
     <t>Сброс счётчика</t>
   </si>
   <si>
@@ -12276,123 +12060,72 @@
     <t>C0.0 MB Select M(1)/S(0)</t>
   </si>
   <si>
-    <t>0x96</t>
-  </si>
-  <si>
     <t>Переключение MB master/slave</t>
   </si>
   <si>
     <t>C0.1 MB addr</t>
   </si>
   <si>
-    <t>0x97</t>
-  </si>
-  <si>
     <t>Адрес MB</t>
   </si>
   <si>
     <t>C0.2 MB baude rate</t>
   </si>
   <si>
-    <t>0x98</t>
-  </si>
-  <si>
     <t>Скорость MB</t>
   </si>
   <si>
     <t>C0.3 Reset Modbus</t>
   </si>
   <si>
-    <t>0x99</t>
-  </si>
-  <si>
     <t>Команда сброс связи</t>
   </si>
   <si>
     <t>C0.4 ConnTimeOut</t>
   </si>
   <si>
-    <t>0x9a</t>
-  </si>
-  <si>
     <t>Таймаут соединения по последовательному интерфейсу</t>
   </si>
   <si>
     <t>C0.5 CAN1RestartMode</t>
   </si>
   <si>
-    <t>0x9b</t>
-  </si>
-  <si>
     <t>C0.6 CAN1State</t>
   </si>
   <si>
-    <t>0x9c</t>
-  </si>
-  <si>
     <t>C0.7 CAN1Reset</t>
   </si>
   <si>
-    <t>0x9d</t>
-  </si>
-  <si>
     <t>C0.8 CAN1RestTimer</t>
   </si>
   <si>
-    <t>0x9e</t>
-  </si>
-  <si>
     <t>C0.9 CAN1RestTimeOut</t>
   </si>
   <si>
-    <t>0x9f</t>
-  </si>
-  <si>
     <t>C0.10 CAN1ReInitCnt</t>
   </si>
   <si>
-    <t>0xa0</t>
-  </si>
-  <si>
     <t>C0.11 CAN1ErrCnt</t>
   </si>
   <si>
-    <t>0xa1</t>
-  </si>
-  <si>
     <t>C0.12 CAN1ErrCode</t>
   </si>
   <si>
-    <t>0xa2</t>
-  </si>
-  <si>
     <t>C0.13 CanConnStatus 8</t>
   </si>
   <si>
-    <t>0xa3</t>
-  </si>
-  <si>
     <t>C0.14 CanConnFaultTimer 9</t>
   </si>
   <si>
-    <t>0xa4</t>
-  </si>
-  <si>
     <t>C0.17 CanReset</t>
   </si>
   <si>
-    <t>0xa7</t>
-  </si>
-  <si>
     <t>количество пересбросов по CAN</t>
   </si>
   <si>
     <t>C0.18 CanSpeed</t>
   </si>
   <si>
-    <t>0xa8</t>
-  </si>
-  <si>
     <t>скорость CAN: 0-125, 1-250, 2-500</t>
   </si>
   <si>
@@ -12402,45 +12135,30 @@
     <t>C1.8 RefFiltrTime</t>
   </si>
   <si>
-    <t>0xd0</t>
-  </si>
-  <si>
     <t>Постоянная времени фильтра ЗИ по положению</t>
   </si>
   <si>
     <t>C1.20 PwmDir</t>
   </si>
   <si>
-    <t>0xdc</t>
-  </si>
-  <si>
     <t>Реверсирование работы ШИМ 0, 1</t>
   </si>
   <si>
     <t>C1.40 AutoTestMode</t>
   </si>
   <si>
-    <t>0xf0</t>
-  </si>
-  <si>
     <t>Включение/выключение режима Авто-Тест</t>
   </si>
   <si>
     <t>C1.41 TestHiPos</t>
   </si>
   <si>
-    <t>0xf1</t>
-  </si>
-  <si>
     <t>Верхний предел для режима Авто-Тест</t>
   </si>
   <si>
     <t>C1.42 TestLowPos</t>
   </si>
   <si>
-    <t>0xf2</t>
-  </si>
-  <si>
     <t>Нижний предел для режима Авто-Тест</t>
   </si>
   <si>
@@ -12450,339 +12168,201 @@
     <t>C2.0 SpdFB_Time3F</t>
   </si>
   <si>
-    <t>0xfa</t>
-  </si>
-  <si>
     <t>Постоянная времени в ОС по скорости от магнитного датчика</t>
   </si>
   <si>
     <t>C2.1 SpdReg_Kp</t>
   </si>
   <si>
-    <t>0xfb</t>
-  </si>
-  <si>
     <t>C2.2 SpdReg_Ti</t>
   </si>
   <si>
-    <t>0xfc</t>
-  </si>
-  <si>
     <t>C2.3 SpdReg_Rez</t>
   </si>
   <si>
-    <t>0xfd</t>
-  </si>
-  <si>
     <t>C2.4 SpdReg_Kc</t>
   </si>
   <si>
-    <t>0xfe</t>
-  </si>
-  <si>
     <t>C2.5 SpdReg_OutMax</t>
   </si>
   <si>
-    <t>0xff</t>
-  </si>
-  <si>
     <t>C2.6 SpdReg_OutMin</t>
   </si>
   <si>
-    <t>0x100</t>
-  </si>
-  <si>
     <t>C2.7 CurrReg_Kp</t>
   </si>
   <si>
-    <t>0x101</t>
-  </si>
-  <si>
     <t>C2.8 CurrReg_Ti</t>
   </si>
   <si>
-    <t>0x102</t>
-  </si>
-  <si>
     <t>C2.9 CurrReg_Rez</t>
   </si>
   <si>
-    <t>0x103</t>
-  </si>
-  <si>
     <t>C2.10 CurrReg_Kc</t>
   </si>
   <si>
-    <t>0x104</t>
-  </si>
-  <si>
     <t>C2.11 CurrReg_OutMax</t>
   </si>
   <si>
-    <t>0x105</t>
-  </si>
-  <si>
     <t>C2.12 CurrReg_OutMin</t>
   </si>
   <si>
-    <t>0x106</t>
-  </si>
-  <si>
     <t>C2.13 P_PosReg_Kp</t>
   </si>
   <si>
-    <t>0x107</t>
-  </si>
-  <si>
     <t>Коэфф. усиления П-РП</t>
   </si>
   <si>
     <t>C2.14 P_PosReg_ErrLim</t>
   </si>
   <si>
-    <t>0x108</t>
-  </si>
-  <si>
     <t>Ограничение ошибки П-РП</t>
   </si>
   <si>
     <t>C2.15 P_PosReg_OutMax</t>
   </si>
   <si>
-    <t>0x109</t>
-  </si>
-  <si>
     <t>Макс. выход П-РП</t>
   </si>
   <si>
     <t>C2.16 P_PosReg_OutMin</t>
   </si>
   <si>
-    <t>0x10a</t>
-  </si>
-  <si>
     <t>Мин. выход П-РП</t>
   </si>
   <si>
     <t>C2.31 PI_PosReg_Kp</t>
   </si>
   <si>
-    <t>0x119</t>
-  </si>
-  <si>
     <t>C2.32 PI_PosReg_Ti</t>
   </si>
   <si>
-    <t>0x11a</t>
-  </si>
-  <si>
     <t>C2.33 PI_PosReg_Rez</t>
   </si>
   <si>
-    <t>0x11b</t>
-  </si>
-  <si>
     <t>C2.34 PI_PosReg_Kc</t>
   </si>
   <si>
-    <t>0x11c</t>
-  </si>
-  <si>
     <t>C2.35 PI_PosReg_OutMax</t>
   </si>
   <si>
-    <t>0x11d</t>
-  </si>
-  <si>
     <t>C2.36 PI_PosReg_OutMin</t>
   </si>
   <si>
-    <t>0x11e</t>
-  </si>
-  <si>
     <t>group C3.FBSensors</t>
   </si>
   <si>
     <t>C3.0 Curr1_Gain</t>
   </si>
   <si>
-    <t>0x12c</t>
-  </si>
-  <si>
     <t>Коэффициент усиления сигнала АЦП ко каналу I1</t>
   </si>
   <si>
     <t>C3.1 Curr1_Offs</t>
   </si>
   <si>
-    <t>0x12d</t>
-  </si>
-  <si>
     <t>Коэффициент смещения сигнала АЦП ко каналу I1</t>
   </si>
   <si>
     <t>C3.2 Curr2_Gain</t>
   </si>
   <si>
-    <t>0x12e</t>
-  </si>
-  <si>
     <t>Коэффициент усиления сигнала АЦП ко каналу I2</t>
   </si>
   <si>
     <t>C3.3 Curr2_Offs</t>
   </si>
   <si>
-    <t>0x12f</t>
-  </si>
-  <si>
     <t>Коэффициент смещения сигнала АЦП ко каналу I2</t>
   </si>
   <si>
     <t xml:space="preserve">C3.4 CurrTimeF </t>
   </si>
   <si>
-    <t>0x130</t>
-  </si>
-  <si>
     <t>Постоянная времени входного фильтра токов</t>
   </si>
   <si>
     <t>C3.10 Curr2TorqGain</t>
   </si>
   <si>
-    <t>0x136</t>
-  </si>
-  <si>
     <t>Коэффициент пересчёта токов в момент</t>
   </si>
   <si>
     <t>C3.11 Tf indic</t>
   </si>
   <si>
-    <t>0x137</t>
-  </si>
-  <si>
     <t>Постоянная времени фильтров индикации</t>
   </si>
   <si>
     <t>C3.12 Uin_Gain</t>
   </si>
   <si>
-    <t>0x138</t>
-  </si>
-  <si>
     <t>Коэффициент усиления сигнала АЦП по каналу Uin</t>
   </si>
   <si>
     <t>C3.13 Uin_Offs</t>
   </si>
   <si>
-    <t>0x139</t>
-  </si>
-  <si>
     <t>Коэффициент смещения сигнала АЦП по каналу Uin</t>
   </si>
   <si>
     <t>C3.14 I1</t>
   </si>
   <si>
-    <t>0x13a</t>
-  </si>
-  <si>
     <t>ток первой стойки</t>
   </si>
   <si>
     <t>C3.15 I2</t>
   </si>
   <si>
-    <t>0x13b</t>
-  </si>
-  <si>
     <t>ток второй стойки</t>
   </si>
   <si>
     <t>C3.16 CAPA_max</t>
   </si>
   <si>
-    <t>0x13c</t>
-  </si>
-  <si>
     <t>C3.18 CAPB_max</t>
   </si>
   <si>
-    <t>0x13e</t>
-  </si>
-  <si>
     <t>C3.20 CAPA_min</t>
   </si>
   <si>
-    <t>0x140</t>
-  </si>
-  <si>
     <t>C3.22 CAPB_min</t>
   </si>
   <si>
-    <t>0x142</t>
-  </si>
-  <si>
     <t>C3.26 Temp_ADC_Test</t>
   </si>
   <si>
-    <t>0x148</t>
-  </si>
-  <si>
     <t>C3.27 Temp_ADC</t>
   </si>
   <si>
-    <t>0x149</t>
-  </si>
-  <si>
     <t>C3.28 RadTemp</t>
   </si>
   <si>
-    <t>0x14a</t>
-  </si>
-  <si>
     <t>C3.44 InitPSWRD</t>
   </si>
   <si>
-    <t>0x158</t>
-  </si>
-  <si>
     <t>Пароль для записи идентификационных данных</t>
   </si>
   <si>
     <t>C3.45 SystemSN</t>
   </si>
   <si>
-    <t>0x159</t>
-  </si>
-  <si>
     <t>Задание серийного номера БУРР-30</t>
   </si>
   <si>
     <t>C3.46 SystemDT</t>
   </si>
   <si>
-    <t>0x15a</t>
-  </si>
-  <si>
     <t>C3.47 SystemCPUN</t>
   </si>
   <si>
-    <t>0x15c</t>
-  </si>
-  <si>
     <t>Задание серийного номера для платы CPU</t>
   </si>
   <si>
     <t>C3.48 SystemPWRN</t>
   </si>
   <si>
-    <t>0x15d</t>
-  </si>
-  <si>
     <t>Задание серийного номера для платы POWER</t>
   </si>
   <si>
@@ -12792,75 +12372,39 @@
     <t>C4.0 Enable</t>
   </si>
   <si>
-    <t>0x15e</t>
-  </si>
-  <si>
     <t>C4.2 SC_Level</t>
   </si>
   <si>
-    <t>0x160</t>
-  </si>
-  <si>
     <t>C4.4 NoMoveSpdErr</t>
   </si>
   <si>
-    <t>0x162</t>
-  </si>
-  <si>
     <t>C4.5 RadOverHeat</t>
   </si>
   <si>
-    <t>0x163</t>
-  </si>
-  <si>
     <t>C4.7 RevErrLevel</t>
   </si>
   <si>
-    <t>0x165</t>
-  </si>
-  <si>
     <t>C4.17 ModFltDelay</t>
   </si>
   <si>
-    <t>0x16f</t>
-  </si>
-  <si>
     <t>C4.18 SCFltDelay</t>
   </si>
   <si>
-    <t>0x170</t>
-  </si>
-  <si>
     <t>C4.20 NoMoveFltDelay</t>
   </si>
   <si>
-    <t>0x172</t>
-  </si>
-  <si>
     <t>C4.21 RadOverHeatDel</t>
   </si>
   <si>
-    <t>0x173</t>
-  </si>
-  <si>
     <t>C4.23 RevErrFltDelay</t>
   </si>
   <si>
-    <t>0x175</t>
-  </si>
-  <si>
     <t>C4.33 SetTestCurr</t>
   </si>
   <si>
-    <t>0x17f</t>
-  </si>
-  <si>
     <t>C4.34 MaxDelt4LoosPos</t>
   </si>
   <si>
-    <t>0x180</t>
-  </si>
-  <si>
     <t>POS</t>
   </si>
   <si>
@@ -12870,159 +12414,87 @@
     <t>C5.3 rxSetCurr</t>
   </si>
   <si>
-    <t>0x193</t>
-  </si>
-  <si>
     <t>group C6.Options 6</t>
   </si>
   <si>
     <t>C6.0 StdID_Rx</t>
   </si>
   <si>
-    <t>0x1cc</t>
-  </si>
-  <si>
     <t>C6.1 DLC_Rx</t>
   </si>
   <si>
-    <t>0x1cd</t>
-  </si>
-  <si>
     <t>C6.2 Byte0_Rx</t>
   </si>
   <si>
-    <t>0x1ce</t>
-  </si>
-  <si>
     <t>C6.3 Byte1_Rx</t>
   </si>
   <si>
-    <t>0x1cf</t>
-  </si>
-  <si>
     <t>C6.4 Byte2_Rx</t>
   </si>
   <si>
-    <t>0x1d0</t>
-  </si>
-  <si>
     <t>C6.5 Byte3_Rx</t>
   </si>
   <si>
-    <t>0x1d1</t>
-  </si>
-  <si>
     <t>C6.6 Byte4_Rx</t>
   </si>
   <si>
-    <t>0x1d2</t>
-  </si>
-  <si>
     <t>C6.7 Byte5_Rx</t>
   </si>
   <si>
-    <t>0x1d3</t>
-  </si>
-  <si>
     <t>C6.8 Byte6_Rx</t>
   </si>
   <si>
-    <t>0x1d4</t>
-  </si>
-  <si>
     <t>C6.9 Byte7_Rx</t>
   </si>
   <si>
-    <t>0x1d5</t>
-  </si>
-  <si>
     <t>C6.10 StdID_Tx</t>
   </si>
   <si>
-    <t>0x1d6</t>
-  </si>
-  <si>
     <t>C6.11 DLC_Tx</t>
   </si>
   <si>
-    <t>0x1d7</t>
-  </si>
-  <si>
     <t>C6.12 Byte0_Tx</t>
   </si>
   <si>
-    <t>0x1d8</t>
-  </si>
-  <si>
     <t>C6.13 Byte1_Tx</t>
   </si>
   <si>
-    <t>0x1d9</t>
-  </si>
-  <si>
     <t>C6.14 Byte2_Tx</t>
   </si>
   <si>
-    <t>0x1da</t>
-  </si>
-  <si>
     <t>C6.15 Byte3_Tx</t>
   </si>
   <si>
-    <t>0x1db</t>
-  </si>
-  <si>
     <t>C6.16 Byte4_Tx</t>
   </si>
   <si>
-    <t>0x1dc</t>
-  </si>
-  <si>
     <t>C6.17 Byte5_Tx</t>
   </si>
   <si>
-    <t>0x1dd</t>
-  </si>
-  <si>
     <t>C6.18 Byte6_Tx</t>
   </si>
   <si>
-    <t>0x1de</t>
-  </si>
-  <si>
     <t>C6.19 Byte7_Tx</t>
   </si>
   <si>
-    <t>0x1df</t>
-  </si>
-  <si>
     <t>group D0.Device control</t>
   </si>
   <si>
     <t xml:space="preserve">D0.0 ComandSet </t>
   </si>
   <si>
-    <t>0x1f4</t>
-  </si>
-  <si>
     <t>КОМАНДЫ</t>
   </si>
   <si>
     <t xml:space="preserve">D0.1 ModeSet </t>
   </si>
   <si>
-    <t>0x1f5</t>
-  </si>
-  <si>
     <t>РЕЖИМ</t>
   </si>
   <si>
     <t>D0.2 FreqSet/SpeedSet</t>
   </si>
   <si>
-    <t>0x1f6</t>
-  </si>
-  <si>
     <t>ЗАДАНИЕ ЧАСТОТЫ</t>
   </si>
   <si>
@@ -13032,40 +12504,568 @@
     <t>D0.3 Voltage</t>
   </si>
   <si>
-    <t>0x1f7</t>
-  </si>
-  <si>
     <t>ЗАДАНИЕ НАПРЯЖЕНИЯ</t>
   </si>
   <si>
     <t>D0.4 Id Set</t>
   </si>
   <si>
-    <t>0x1f8</t>
-  </si>
-  <si>
     <t>ЗАДАНИЕ ТОКА ID</t>
   </si>
   <si>
     <t>D0.5 Iq Set</t>
   </si>
   <si>
-    <t>0x1f9</t>
-  </si>
-  <si>
     <t>ЗАДАНИЕ ТОКА IQ</t>
   </si>
   <si>
     <t>D0.6 CAN_Control</t>
   </si>
   <si>
-    <t>0x1fa</t>
-  </si>
-  <si>
     <t>Режим управления 0-Модбас, 1-CAN</t>
   </si>
   <si>
     <t>degree</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+  </si>
+  <si>
+    <t>0x0001</t>
+  </si>
+  <si>
+    <t>0x0002</t>
+  </si>
+  <si>
+    <t>0x0003</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>0x0006</t>
+  </si>
+  <si>
+    <t>0x0008</t>
+  </si>
+  <si>
+    <t>0x0011</t>
+  </si>
+  <si>
+    <t>0x0012</t>
+  </si>
+  <si>
+    <t>0x0013</t>
+  </si>
+  <si>
+    <t>0x0014</t>
+  </si>
+  <si>
+    <t>0x0015</t>
+  </si>
+  <si>
+    <t>0x0016</t>
+  </si>
+  <si>
+    <t>0x0018</t>
+  </si>
+  <si>
+    <t>0x0019</t>
+  </si>
+  <si>
+    <t>0x001a</t>
+  </si>
+  <si>
+    <t>0x001e</t>
+  </si>
+  <si>
+    <t>0x0020</t>
+  </si>
+  <si>
+    <t>0x0021</t>
+  </si>
+  <si>
+    <t>0x0022</t>
+  </si>
+  <si>
+    <t>0x0023</t>
+  </si>
+  <si>
+    <t>0x0026</t>
+  </si>
+  <si>
+    <t>0x0028</t>
+  </si>
+  <si>
+    <t>0x002a</t>
+  </si>
+  <si>
+    <t>0x002c</t>
+  </si>
+  <si>
+    <t>0x002d</t>
+  </si>
+  <si>
+    <t>0x0032</t>
+  </si>
+  <si>
+    <t>0x0034</t>
+  </si>
+  <si>
+    <t>0x0036</t>
+  </si>
+  <si>
+    <t>0x0038</t>
+  </si>
+  <si>
+    <t>0x003c</t>
+  </si>
+  <si>
+    <t>0x003f</t>
+  </si>
+  <si>
+    <t>0x0045</t>
+  </si>
+  <si>
+    <t>0x0046</t>
+  </si>
+  <si>
+    <t>0x0048</t>
+  </si>
+  <si>
+    <t>0x0049</t>
+  </si>
+  <si>
+    <t>0x004a</t>
+  </si>
+  <si>
+    <t>0x004b</t>
+  </si>
+  <si>
+    <t>0x004c</t>
+  </si>
+  <si>
+    <t>0x0059</t>
+  </si>
+  <si>
+    <t>0x005a</t>
+  </si>
+  <si>
+    <t>0x005b</t>
+  </si>
+  <si>
+    <t>0x005c</t>
+  </si>
+  <si>
+    <t>0x005d</t>
+  </si>
+  <si>
+    <t>0x005e</t>
+  </si>
+  <si>
+    <t>0x005f</t>
+  </si>
+  <si>
+    <t>0x0060</t>
+  </si>
+  <si>
+    <t>0x0061</t>
+  </si>
+  <si>
+    <t>0x0062</t>
+  </si>
+  <si>
+    <t>0x0063</t>
+  </si>
+  <si>
+    <t>0x0064</t>
+  </si>
+  <si>
+    <t>0x0066</t>
+  </si>
+  <si>
+    <t>0x0067</t>
+  </si>
+  <si>
+    <t>0x0068</t>
+  </si>
+  <si>
+    <t>0x0069</t>
+  </si>
+  <si>
+    <t>0x006a</t>
+  </si>
+  <si>
+    <t>0x006b</t>
+  </si>
+  <si>
+    <t>0x006c</t>
+  </si>
+  <si>
+    <t>0x006d</t>
+  </si>
+  <si>
+    <t>0x006e</t>
+  </si>
+  <si>
+    <t>0x006f</t>
+  </si>
+  <si>
+    <t>0x0073</t>
+  </si>
+  <si>
+    <t>0x0074</t>
+  </si>
+  <si>
+    <t>0x0075</t>
+  </si>
+  <si>
+    <t>0x0076</t>
+  </si>
+  <si>
+    <t>0x0078</t>
+  </si>
+  <si>
+    <t>0x0079</t>
+  </si>
+  <si>
+    <t>0x007d</t>
+  </si>
+  <si>
+    <t>0x007e</t>
+  </si>
+  <si>
+    <t>0x007f</t>
+  </si>
+  <si>
+    <t>0x0080</t>
+  </si>
+  <si>
+    <t>0x0081</t>
+  </si>
+  <si>
+    <t>0x0096</t>
+  </si>
+  <si>
+    <t>0x0097</t>
+  </si>
+  <si>
+    <t>0x0098</t>
+  </si>
+  <si>
+    <t>0x0099</t>
+  </si>
+  <si>
+    <t>0x009a</t>
+  </si>
+  <si>
+    <t>0x009b</t>
+  </si>
+  <si>
+    <t>0x009c</t>
+  </si>
+  <si>
+    <t>0x009d</t>
+  </si>
+  <si>
+    <t>0x009e</t>
+  </si>
+  <si>
+    <t>0x009f</t>
+  </si>
+  <si>
+    <t>0x00a0</t>
+  </si>
+  <si>
+    <t>0x00a1</t>
+  </si>
+  <si>
+    <t>0x00a2</t>
+  </si>
+  <si>
+    <t>0x00a3</t>
+  </si>
+  <si>
+    <t>0x00a4</t>
+  </si>
+  <si>
+    <t>0x00a7</t>
+  </si>
+  <si>
+    <t>0x00a8</t>
+  </si>
+  <si>
+    <t>0x00d0</t>
+  </si>
+  <si>
+    <t>0x00dc</t>
+  </si>
+  <si>
+    <t>0x00f0</t>
+  </si>
+  <si>
+    <t>0x00f1</t>
+  </si>
+  <si>
+    <t>0x00f2</t>
+  </si>
+  <si>
+    <t>0x00fa</t>
+  </si>
+  <si>
+    <t>0x00fb</t>
+  </si>
+  <si>
+    <t>0x00fc</t>
+  </si>
+  <si>
+    <t>0x00fd</t>
+  </si>
+  <si>
+    <t>0x00fe</t>
+  </si>
+  <si>
+    <t>0x00ff</t>
+  </si>
+  <si>
+    <t>0x0100</t>
+  </si>
+  <si>
+    <t>0x0101</t>
+  </si>
+  <si>
+    <t>0x0102</t>
+  </si>
+  <si>
+    <t>0x0103</t>
+  </si>
+  <si>
+    <t>0x0104</t>
+  </si>
+  <si>
+    <t>0x0105</t>
+  </si>
+  <si>
+    <t>0x0106</t>
+  </si>
+  <si>
+    <t>0x0107</t>
+  </si>
+  <si>
+    <t>0x0108</t>
+  </si>
+  <si>
+    <t>0x0109</t>
+  </si>
+  <si>
+    <t>0x010a</t>
+  </si>
+  <si>
+    <t>0x0119</t>
+  </si>
+  <si>
+    <t>0x011a</t>
+  </si>
+  <si>
+    <t>0x011b</t>
+  </si>
+  <si>
+    <t>0x011c</t>
+  </si>
+  <si>
+    <t>0x011d</t>
+  </si>
+  <si>
+    <t>0x011e</t>
+  </si>
+  <si>
+    <t>0x012c</t>
+  </si>
+  <si>
+    <t>0x012d</t>
+  </si>
+  <si>
+    <t>0x012e</t>
+  </si>
+  <si>
+    <t>0x012f</t>
+  </si>
+  <si>
+    <t>0x0130</t>
+  </si>
+  <si>
+    <t>0x0136</t>
+  </si>
+  <si>
+    <t>0x0137</t>
+  </si>
+  <si>
+    <t>0x0138</t>
+  </si>
+  <si>
+    <t>0x0139</t>
+  </si>
+  <si>
+    <t>0x013a</t>
+  </si>
+  <si>
+    <t>0x013b</t>
+  </si>
+  <si>
+    <t>0x013c</t>
+  </si>
+  <si>
+    <t>0x013e</t>
+  </si>
+  <si>
+    <t>0x0140</t>
+  </si>
+  <si>
+    <t>0x0142</t>
+  </si>
+  <si>
+    <t>0x0148</t>
+  </si>
+  <si>
+    <t>0x0149</t>
+  </si>
+  <si>
+    <t>0x014a</t>
+  </si>
+  <si>
+    <t>0x0158</t>
+  </si>
+  <si>
+    <t>0x0159</t>
+  </si>
+  <si>
+    <t>0x015a</t>
+  </si>
+  <si>
+    <t>0x015c</t>
+  </si>
+  <si>
+    <t>0x015d</t>
+  </si>
+  <si>
+    <t>0x015e</t>
+  </si>
+  <si>
+    <t>0x0160</t>
+  </si>
+  <si>
+    <t>0x0162</t>
+  </si>
+  <si>
+    <t>0x0163</t>
+  </si>
+  <si>
+    <t>0x0165</t>
+  </si>
+  <si>
+    <t>0x016f</t>
+  </si>
+  <si>
+    <t>0x0170</t>
+  </si>
+  <si>
+    <t>0x0172</t>
+  </si>
+  <si>
+    <t>0x0173</t>
+  </si>
+  <si>
+    <t>0x0175</t>
+  </si>
+  <si>
+    <t>0x017f</t>
+  </si>
+  <si>
+    <t>0x0180</t>
+  </si>
+  <si>
+    <t>0x0193</t>
+  </si>
+  <si>
+    <t>0x01cc</t>
+  </si>
+  <si>
+    <t>0x01cd</t>
+  </si>
+  <si>
+    <t>0x01ce</t>
+  </si>
+  <si>
+    <t>0x01cf</t>
+  </si>
+  <si>
+    <t>0x01d0</t>
+  </si>
+  <si>
+    <t>0x01d1</t>
+  </si>
+  <si>
+    <t>0x01d2</t>
+  </si>
+  <si>
+    <t>0x01d3</t>
+  </si>
+  <si>
+    <t>0x01d4</t>
+  </si>
+  <si>
+    <t>0x01d5</t>
+  </si>
+  <si>
+    <t>0x01d6</t>
+  </si>
+  <si>
+    <t>0x01d7</t>
+  </si>
+  <si>
+    <t>0x01d8</t>
+  </si>
+  <si>
+    <t>0x01d9</t>
+  </si>
+  <si>
+    <t>0x01da</t>
+  </si>
+  <si>
+    <t>0x01db</t>
+  </si>
+  <si>
+    <t>0x01dc</t>
+  </si>
+  <si>
+    <t>0x01dd</t>
+  </si>
+  <si>
+    <t>0x01de</t>
+  </si>
+  <si>
+    <t>0x01df</t>
+  </si>
+  <si>
+    <t>0x01f4</t>
+  </si>
+  <si>
+    <t>0x01f5</t>
+  </si>
+  <si>
+    <t>0x01f6</t>
+  </si>
+  <si>
+    <t>0x01f7</t>
+  </si>
+  <si>
+    <t>0x01f8</t>
+  </si>
+  <si>
+    <t>0x01f9</t>
+  </si>
+  <si>
+    <t>0x01fa</t>
   </si>
 </sst>
 </file>
@@ -18432,9 +18432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M891"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M671" sqref="M671"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -81796,8 +81796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="A172" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -81842,7 +81842,7 @@
         <v>31</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>4340</v>
+        <v>4160</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>549</v>
@@ -81867,10 +81867,10 @@
         <v>3857</v>
       </c>
       <c r="B3" t="s">
+        <v>4161</v>
+      </c>
+      <c r="D3" t="s">
         <v>3858</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3859</v>
       </c>
       <c r="H3" t="s">
         <v>42</v>
@@ -81884,13 +81884,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D4" t="s">
         <v>3860</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3861</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3862</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
@@ -81904,16 +81904,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="B5" t="s">
-        <v>3864</v>
+        <v>4163</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>3865</v>
+        <v>3862</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
@@ -81927,16 +81927,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3866</v>
+        <v>3863</v>
       </c>
       <c r="B6" t="s">
-        <v>3867</v>
+        <v>4164</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>3868</v>
+        <v>3864</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
@@ -81950,13 +81950,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
       <c r="B7" t="s">
-        <v>3870</v>
+        <v>4165</v>
       </c>
       <c r="D7" t="s">
-        <v>3871</v>
+        <v>3866</v>
       </c>
       <c r="H7" t="s">
         <v>866</v>
@@ -81970,16 +81970,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3872</v>
+        <v>3867</v>
       </c>
       <c r="B8" t="s">
-        <v>3873</v>
+        <v>4166</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>3874</v>
+        <v>3868</v>
       </c>
       <c r="H8" t="s">
         <v>866</v>
@@ -81993,13 +81993,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3875</v>
+        <v>3869</v>
       </c>
       <c r="B9" t="s">
-        <v>3876</v>
+        <v>4167</v>
       </c>
       <c r="D9" t="s">
-        <v>3877</v>
+        <v>3870</v>
       </c>
       <c r="H9" t="s">
         <v>866</v>
@@ -82013,7 +82013,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>3878</v>
+        <v>3871</v>
       </c>
       <c r="H10" t="s">
         <v>866</v>
@@ -82024,16 +82024,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3879</v>
+        <v>3872</v>
       </c>
       <c r="B11" t="s">
-        <v>3880</v>
+        <v>4168</v>
       </c>
       <c r="D11" t="s">
-        <v>3881</v>
+        <v>3873</v>
       </c>
       <c r="F11" t="s">
-        <v>3882</v>
+        <v>3874</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -82050,13 +82050,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3883</v>
+        <v>3875</v>
       </c>
       <c r="B12" t="s">
-        <v>3884</v>
+        <v>4169</v>
       </c>
       <c r="D12" t="s">
-        <v>3885</v>
+        <v>3876</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -82076,16 +82076,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3886</v>
+        <v>3877</v>
       </c>
       <c r="B13" t="s">
-        <v>3887</v>
+        <v>4170</v>
       </c>
       <c r="D13" t="s">
-        <v>3888</v>
+        <v>3878</v>
       </c>
       <c r="F13" t="s">
-        <v>3889</v>
+        <v>3879</v>
       </c>
       <c r="H13" t="s">
         <v>42</v>
@@ -82102,16 +82102,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3890</v>
+        <v>3880</v>
       </c>
       <c r="B14" t="s">
-        <v>3891</v>
+        <v>4171</v>
       </c>
       <c r="D14" t="s">
-        <v>3892</v>
+        <v>3881</v>
       </c>
       <c r="F14" t="s">
-        <v>3893</v>
+        <v>3882</v>
       </c>
       <c r="H14" t="s">
         <v>57</v>
@@ -82128,7 +82128,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3894</v>
+        <v>3883</v>
       </c>
       <c r="H15" t="s">
         <v>866</v>
@@ -82139,16 +82139,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>3895</v>
+        <v>3884</v>
       </c>
       <c r="B16" t="s">
-        <v>3896</v>
+        <v>4172</v>
       </c>
       <c r="D16" t="s">
-        <v>3897</v>
+        <v>3885</v>
       </c>
       <c r="F16" t="s">
-        <v>3893</v>
+        <v>3882</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
@@ -82165,16 +82165,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3898</v>
+        <v>3886</v>
       </c>
       <c r="B17" t="s">
-        <v>3899</v>
+        <v>4173</v>
       </c>
       <c r="D17" t="s">
         <v>3088</v>
       </c>
       <c r="F17" t="s">
-        <v>3900</v>
+        <v>3887</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
@@ -82188,16 +82188,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>3901</v>
+        <v>3888</v>
       </c>
       <c r="B18" t="s">
-        <v>3902</v>
+        <v>4174</v>
       </c>
       <c r="D18" t="s">
-        <v>3903</v>
+        <v>3889</v>
       </c>
       <c r="F18" t="s">
-        <v>3900</v>
+        <v>3887</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
@@ -82211,13 +82211,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3904</v>
+        <v>3890</v>
       </c>
       <c r="B19" t="s">
-        <v>3905</v>
+        <v>4175</v>
       </c>
       <c r="D19" t="s">
-        <v>3906</v>
+        <v>3891</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
@@ -82231,16 +82231,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3907</v>
+        <v>3892</v>
       </c>
       <c r="B20" t="s">
-        <v>3908</v>
+        <v>4176</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>3909</v>
+        <v>3893</v>
       </c>
       <c r="H20" t="s">
         <v>57</v>
@@ -82254,13 +82254,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>3910</v>
+        <v>3894</v>
       </c>
       <c r="B21" t="s">
-        <v>3911</v>
+        <v>4177</v>
       </c>
       <c r="D21" t="s">
-        <v>3912</v>
+        <v>3895</v>
       </c>
       <c r="H21" t="s">
         <v>57</v>
@@ -82274,7 +82274,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3913</v>
+        <v>3896</v>
       </c>
       <c r="H22" t="s">
         <v>866</v>
@@ -82285,16 +82285,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>3914</v>
+        <v>3897</v>
       </c>
       <c r="B23" t="s">
-        <v>3915</v>
+        <v>4178</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>3916</v>
+        <v>3898</v>
       </c>
       <c r="H23" t="s">
         <v>42</v>
@@ -82308,10 +82308,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>3917</v>
+        <v>3899</v>
       </c>
       <c r="B24" t="s">
-        <v>3918</v>
+        <v>4179</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
@@ -82325,10 +82325,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>3919</v>
+        <v>3900</v>
       </c>
       <c r="B25" t="s">
-        <v>3920</v>
+        <v>4180</v>
       </c>
       <c r="H25" t="s">
         <v>57</v>
@@ -82342,16 +82342,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3921</v>
+        <v>3901</v>
       </c>
       <c r="B26" t="s">
-        <v>3922</v>
+        <v>4181</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>3923</v>
+        <v>3902</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -82365,10 +82365,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3924</v>
+        <v>3903</v>
       </c>
       <c r="B27" t="s">
-        <v>3925</v>
+        <v>4182</v>
       </c>
       <c r="H27" t="s">
         <v>866</v>
@@ -82382,10 +82382,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>3926</v>
+        <v>3904</v>
       </c>
       <c r="B28" t="s">
-        <v>3927</v>
+        <v>4183</v>
       </c>
       <c r="H28" t="s">
         <v>866</v>
@@ -82399,10 +82399,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>3928</v>
+        <v>3905</v>
       </c>
       <c r="B29" t="s">
-        <v>3929</v>
+        <v>4184</v>
       </c>
       <c r="D29" t="s">
         <v>455</v>
@@ -82419,13 +82419,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3930</v>
+        <v>3906</v>
       </c>
       <c r="B30" t="s">
-        <v>3931</v>
+        <v>4185</v>
       </c>
       <c r="D30" t="s">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
@@ -82439,13 +82439,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>3933</v>
+        <v>3908</v>
       </c>
       <c r="B31" t="s">
-        <v>3934</v>
+        <v>4186</v>
       </c>
       <c r="D31" t="s">
-        <v>3935</v>
+        <v>3909</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
@@ -82459,13 +82459,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>3936</v>
+        <v>3910</v>
       </c>
       <c r="B32" t="s">
-        <v>3937</v>
+        <v>4187</v>
       </c>
       <c r="D32" t="s">
-        <v>3938</v>
+        <v>3911</v>
       </c>
       <c r="H32" t="s">
         <v>866</v>
@@ -82479,13 +82479,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>3939</v>
+        <v>3912</v>
       </c>
       <c r="B33" t="s">
-        <v>3940</v>
+        <v>4188</v>
       </c>
       <c r="D33" t="s">
-        <v>3938</v>
+        <v>3911</v>
       </c>
       <c r="H33" t="s">
         <v>866</v>
@@ -82499,13 +82499,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>3941</v>
+        <v>3913</v>
       </c>
       <c r="B34" t="s">
-        <v>3942</v>
+        <v>4189</v>
       </c>
       <c r="D34" t="s">
-        <v>3938</v>
+        <v>3911</v>
       </c>
       <c r="H34" t="s">
         <v>866</v>
@@ -82519,13 +82519,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>3943</v>
+        <v>3914</v>
       </c>
       <c r="B35" t="s">
-        <v>3944</v>
+        <v>4190</v>
       </c>
       <c r="D35" t="s">
-        <v>3938</v>
+        <v>3911</v>
       </c>
       <c r="H35" t="s">
         <v>866</v>
@@ -82539,7 +82539,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>3945</v>
+        <v>3915</v>
       </c>
       <c r="H36" t="s">
         <v>866</v>
@@ -82550,16 +82550,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>3946</v>
+        <v>3916</v>
       </c>
       <c r="B37" t="s">
-        <v>3947</v>
+        <v>4191</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>3948</v>
+        <v>3917</v>
       </c>
       <c r="H37" t="s">
         <v>42</v>
@@ -82573,16 +82573,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>3949</v>
+        <v>3918</v>
       </c>
       <c r="B38" t="s">
-        <v>3950</v>
+        <v>4192</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>3951</v>
+        <v>3919</v>
       </c>
       <c r="H38" t="s">
         <v>57</v>
@@ -82596,13 +82596,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>3952</v>
+        <v>3920</v>
       </c>
       <c r="B39" t="s">
-        <v>3953</v>
+        <v>4193</v>
       </c>
       <c r="D39" t="s">
-        <v>3954</v>
+        <v>3921</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
@@ -82616,13 +82616,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>3955</v>
+        <v>3922</v>
       </c>
       <c r="B40" t="s">
-        <v>3956</v>
+        <v>4194</v>
       </c>
       <c r="D40" t="s">
-        <v>3957</v>
+        <v>3923</v>
       </c>
       <c r="H40" t="s">
         <v>866</v>
@@ -82636,13 +82636,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>3958</v>
+        <v>3924</v>
       </c>
       <c r="B41" t="s">
-        <v>3959</v>
+        <v>4195</v>
       </c>
       <c r="D41" t="s">
-        <v>3960</v>
+        <v>3925</v>
       </c>
       <c r="H41" t="s">
         <v>57</v>
@@ -82656,13 +82656,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>3961</v>
+        <v>3926</v>
       </c>
       <c r="B42" t="s">
-        <v>3962</v>
+        <v>4196</v>
       </c>
       <c r="D42" t="s">
-        <v>3963</v>
+        <v>3927</v>
       </c>
       <c r="H42" t="s">
         <v>57</v>
@@ -82676,16 +82676,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>3964</v>
+        <v>3928</v>
       </c>
       <c r="B43" t="s">
-        <v>3965</v>
+        <v>4197</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>3966</v>
+        <v>3929</v>
       </c>
       <c r="H43" t="s">
         <v>57</v>
@@ -82702,7 +82702,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>3967</v>
+        <v>3930</v>
       </c>
       <c r="H44" t="s">
         <v>866</v>
@@ -82713,16 +82713,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3968</v>
+        <v>3931</v>
       </c>
       <c r="B45" t="s">
-        <v>3969</v>
+        <v>4198</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>3970</v>
+        <v>3932</v>
       </c>
       <c r="H45" t="s">
         <v>57</v>
@@ -82736,16 +82736,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>3971</v>
+        <v>3933</v>
       </c>
       <c r="B46" t="s">
-        <v>3972</v>
+        <v>4199</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>3973</v>
+        <v>3934</v>
       </c>
       <c r="H46" t="s">
         <v>57</v>
@@ -82759,7 +82759,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>3974</v>
+        <v>3935</v>
       </c>
       <c r="H47" t="s">
         <v>866</v>
@@ -82770,13 +82770,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>3975</v>
+        <v>3936</v>
       </c>
       <c r="B48" t="s">
-        <v>3976</v>
+        <v>4200</v>
       </c>
       <c r="D48" t="s">
-        <v>3977</v>
+        <v>3937</v>
       </c>
       <c r="H48" t="s">
         <v>42</v>
@@ -82790,16 +82790,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>3978</v>
+        <v>3938</v>
       </c>
       <c r="B49" t="s">
-        <v>3979</v>
+        <v>4201</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>3980</v>
+        <v>3939</v>
       </c>
       <c r="H49" t="s">
         <v>42</v>
@@ -82813,16 +82813,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>3981</v>
+        <v>3940</v>
       </c>
       <c r="B50" t="s">
-        <v>3982</v>
+        <v>4202</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>3983</v>
+        <v>3941</v>
       </c>
       <c r="H50" t="s">
         <v>42</v>
@@ -82836,16 +82836,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>3984</v>
+        <v>3942</v>
       </c>
       <c r="B51" t="s">
-        <v>3985</v>
+        <v>4203</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>3986</v>
+        <v>3943</v>
       </c>
       <c r="H51" t="s">
         <v>57</v>
@@ -82859,16 +82859,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>3987</v>
+        <v>3944</v>
       </c>
       <c r="B52" t="s">
-        <v>3988</v>
+        <v>4204</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>3989</v>
+        <v>3945</v>
       </c>
       <c r="H52" t="s">
         <v>57</v>
@@ -82882,13 +82882,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>3990</v>
+        <v>3946</v>
       </c>
       <c r="B53" t="s">
-        <v>3991</v>
+        <v>4205</v>
       </c>
       <c r="D53" t="s">
-        <v>3992</v>
+        <v>3947</v>
       </c>
       <c r="H53" t="s">
         <v>42</v>
@@ -82902,16 +82902,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>3993</v>
+        <v>3948</v>
       </c>
       <c r="B54" t="s">
-        <v>3994</v>
+        <v>4206</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>3995</v>
+        <v>3949</v>
       </c>
       <c r="H54" t="s">
         <v>42</v>
@@ -82925,16 +82925,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>3996</v>
+        <v>3950</v>
       </c>
       <c r="B55" t="s">
-        <v>3997</v>
+        <v>4207</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>3998</v>
+        <v>3951</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
@@ -82951,16 +82951,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>3999</v>
+        <v>3952</v>
       </c>
       <c r="B56" t="s">
-        <v>4000</v>
+        <v>4208</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>4001</v>
+        <v>3953</v>
       </c>
       <c r="H56" t="s">
         <v>57</v>
@@ -82974,16 +82974,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>4002</v>
+        <v>3954</v>
       </c>
       <c r="B57" t="s">
-        <v>4003</v>
+        <v>4209</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>4004</v>
+        <v>3955</v>
       </c>
       <c r="H57" t="s">
         <v>57</v>
@@ -82997,10 +82997,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>4005</v>
+        <v>3956</v>
       </c>
       <c r="B58" t="s">
-        <v>4006</v>
+        <v>4210</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -83017,16 +83017,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>4007</v>
+        <v>3957</v>
       </c>
       <c r="B59" t="s">
-        <v>4008</v>
+        <v>4211</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>4009</v>
+        <v>3958</v>
       </c>
       <c r="H59" t="s">
         <v>231</v>
@@ -83040,16 +83040,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>4010</v>
+        <v>3959</v>
       </c>
       <c r="B60" t="s">
-        <v>4011</v>
+        <v>4212</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>4012</v>
+        <v>3960</v>
       </c>
       <c r="F60" t="s">
         <v>37</v>
@@ -83066,16 +83066,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>4013</v>
+        <v>3961</v>
       </c>
       <c r="B61" t="s">
-        <v>4014</v>
+        <v>4213</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>4015</v>
+        <v>3962</v>
       </c>
       <c r="F61" t="s">
         <v>37</v>
@@ -83095,16 +83095,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>4016</v>
+        <v>3963</v>
       </c>
       <c r="B62" t="s">
-        <v>4017</v>
+        <v>4214</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>4018</v>
+        <v>3964</v>
       </c>
       <c r="H62" t="s">
         <v>42</v>
@@ -83118,16 +83118,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>4019</v>
+        <v>3965</v>
       </c>
       <c r="B63" t="s">
-        <v>4020</v>
+        <v>4215</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>4021</v>
+        <v>3966</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
@@ -83144,16 +83144,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>4022</v>
+        <v>3967</v>
       </c>
       <c r="B64" t="s">
-        <v>4023</v>
+        <v>4216</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>4024</v>
+        <v>3968</v>
       </c>
       <c r="H64" t="s">
         <v>42</v>
@@ -83170,16 +83170,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>4025</v>
+        <v>3969</v>
       </c>
       <c r="B65" t="s">
-        <v>4026</v>
+        <v>4217</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>4027</v>
+        <v>3970</v>
       </c>
       <c r="H65" t="s">
         <v>42</v>
@@ -83196,19 +83196,19 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>4028</v>
+        <v>3971</v>
       </c>
       <c r="B66" t="s">
-        <v>4029</v>
+        <v>4218</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>4030</v>
+        <v>3972</v>
       </c>
       <c r="F66" t="s">
-        <v>4031</v>
+        <v>3973</v>
       </c>
       <c r="H66" t="s">
         <v>57</v>
@@ -83225,16 +83225,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>4032</v>
+        <v>3974</v>
       </c>
       <c r="B67" t="s">
-        <v>4033</v>
+        <v>4219</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>4034</v>
+        <v>3975</v>
       </c>
       <c r="H67" t="s">
         <v>42</v>
@@ -83248,16 +83248,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4035</v>
+        <v>3976</v>
       </c>
       <c r="B68" t="s">
-        <v>4036</v>
+        <v>4220</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>4037</v>
+        <v>3977</v>
       </c>
       <c r="H68" t="s">
         <v>57</v>
@@ -83274,16 +83274,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4038</v>
+        <v>3978</v>
       </c>
       <c r="B69" t="s">
-        <v>4039</v>
+        <v>4221</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>4040</v>
+        <v>3979</v>
       </c>
       <c r="H69" t="s">
         <v>57</v>
@@ -83300,16 +83300,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4041</v>
+        <v>3980</v>
       </c>
       <c r="B70" t="s">
-        <v>4042</v>
+        <v>4222</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>4043</v>
+        <v>3981</v>
       </c>
       <c r="H70" t="s">
         <v>57</v>
@@ -83326,16 +83326,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4044</v>
+        <v>3982</v>
       </c>
       <c r="B71" t="s">
-        <v>4045</v>
+        <v>4223</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>4046</v>
+        <v>3983</v>
       </c>
       <c r="H71" t="s">
         <v>57</v>
@@ -83352,16 +83352,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>4047</v>
+        <v>3984</v>
       </c>
       <c r="B72" t="s">
-        <v>4048</v>
+        <v>4224</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>4049</v>
+        <v>3985</v>
       </c>
       <c r="H72" t="s">
         <v>57</v>
@@ -83378,16 +83378,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4050</v>
+        <v>3986</v>
       </c>
       <c r="B73" t="s">
-        <v>4051</v>
+        <v>4225</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>4052</v>
+        <v>3987</v>
       </c>
       <c r="H73" t="s">
         <v>57</v>
@@ -83404,7 +83404,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4053</v>
+        <v>3988</v>
       </c>
       <c r="H74" t="s">
         <v>866</v>
@@ -83415,16 +83415,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4054</v>
+        <v>3989</v>
       </c>
       <c r="B75" t="s">
-        <v>4055</v>
+        <v>4226</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>4056</v>
+        <v>3990</v>
       </c>
       <c r="H75" t="s">
         <v>42</v>
@@ -83438,16 +83438,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>4057</v>
+        <v>3991</v>
       </c>
       <c r="B76" t="s">
-        <v>4058</v>
+        <v>4227</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>4059</v>
+        <v>3992</v>
       </c>
       <c r="H76" t="s">
         <v>42</v>
@@ -83464,13 +83464,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>4060</v>
+        <v>3993</v>
       </c>
       <c r="B77" t="s">
-        <v>4061</v>
+        <v>4228</v>
       </c>
       <c r="D77" t="s">
-        <v>4062</v>
+        <v>3994</v>
       </c>
       <c r="H77" t="s">
         <v>57</v>
@@ -83484,13 +83484,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>4063</v>
+        <v>3995</v>
       </c>
       <c r="B78" t="s">
-        <v>4064</v>
+        <v>4229</v>
       </c>
       <c r="D78" t="s">
-        <v>4065</v>
+        <v>3996</v>
       </c>
       <c r="H78" t="s">
         <v>57</v>
@@ -83504,13 +83504,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4066</v>
+        <v>3997</v>
       </c>
       <c r="B79" t="s">
-        <v>4067</v>
+        <v>4230</v>
       </c>
       <c r="D79" t="s">
-        <v>4068</v>
+        <v>3998</v>
       </c>
       <c r="H79" t="s">
         <v>57</v>
@@ -83524,13 +83524,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>4069</v>
+        <v>3999</v>
       </c>
       <c r="B80" t="s">
-        <v>4070</v>
+        <v>4231</v>
       </c>
       <c r="D80" t="s">
-        <v>4071</v>
+        <v>4000</v>
       </c>
       <c r="H80" t="s">
         <v>57</v>
@@ -83547,16 +83547,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>4072</v>
+        <v>4001</v>
       </c>
       <c r="B81" t="s">
-        <v>4073</v>
+        <v>4232</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>4074</v>
+        <v>4002</v>
       </c>
       <c r="H81" t="s">
         <v>42</v>
@@ -83570,7 +83570,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>4075</v>
+        <v>4003</v>
       </c>
       <c r="H82" t="s">
         <v>866</v>
@@ -83581,16 +83581,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4076</v>
+        <v>4004</v>
       </c>
       <c r="B83" t="s">
-        <v>4077</v>
+        <v>4233</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>4078</v>
+        <v>4005</v>
       </c>
       <c r="H83" t="s">
         <v>57</v>
@@ -83604,16 +83604,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>4079</v>
+        <v>4006</v>
       </c>
       <c r="B84" t="s">
-        <v>4080</v>
+        <v>4234</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>4081</v>
+        <v>4007</v>
       </c>
       <c r="H84" t="s">
         <v>57</v>
@@ -83627,16 +83627,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>4082</v>
+        <v>4008</v>
       </c>
       <c r="B85" t="s">
-        <v>4083</v>
+        <v>4235</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>4084</v>
+        <v>4009</v>
       </c>
       <c r="H85" t="s">
         <v>42</v>
@@ -83650,16 +83650,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4085</v>
+        <v>4010</v>
       </c>
       <c r="B86" t="s">
-        <v>4086</v>
+        <v>4236</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>4087</v>
+        <v>4011</v>
       </c>
       <c r="H86" t="s">
         <v>57</v>
@@ -83673,16 +83673,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>4088</v>
+        <v>4012</v>
       </c>
       <c r="B87" t="s">
-        <v>4089</v>
+        <v>4237</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>4090</v>
+        <v>4013</v>
       </c>
       <c r="H87" t="s">
         <v>57</v>
@@ -83699,10 +83699,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>4091</v>
+        <v>4014</v>
       </c>
       <c r="B88" t="s">
-        <v>4092</v>
+        <v>4238</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -83719,10 +83719,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>4093</v>
+        <v>4015</v>
       </c>
       <c r="B89" t="s">
-        <v>4094</v>
+        <v>4239</v>
       </c>
       <c r="H89" t="s">
         <v>57</v>
@@ -83736,10 +83736,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>4095</v>
+        <v>4016</v>
       </c>
       <c r="B90" t="s">
-        <v>4096</v>
+        <v>4240</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -83756,10 +83756,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>4097</v>
+        <v>4017</v>
       </c>
       <c r="B91" t="s">
-        <v>4098</v>
+        <v>4241</v>
       </c>
       <c r="H91" t="s">
         <v>57</v>
@@ -83773,10 +83773,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>4099</v>
+        <v>4018</v>
       </c>
       <c r="B92" t="s">
-        <v>4100</v>
+        <v>4242</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -83796,10 +83796,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4101</v>
+        <v>4019</v>
       </c>
       <c r="B93" t="s">
-        <v>4102</v>
+        <v>4243</v>
       </c>
       <c r="H93" t="s">
         <v>57</v>
@@ -83813,10 +83813,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>4103</v>
+        <v>4020</v>
       </c>
       <c r="B94" t="s">
-        <v>4104</v>
+        <v>4244</v>
       </c>
       <c r="H94" t="s">
         <v>57</v>
@@ -83830,10 +83830,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>4105</v>
+        <v>4021</v>
       </c>
       <c r="B95" t="s">
-        <v>4106</v>
+        <v>4245</v>
       </c>
       <c r="H95" t="s">
         <v>57</v>
@@ -83847,10 +83847,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>4107</v>
+        <v>4022</v>
       </c>
       <c r="B96" t="s">
-        <v>4108</v>
+        <v>4246</v>
       </c>
       <c r="H96" t="s">
         <v>57</v>
@@ -83864,10 +83864,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>4109</v>
+        <v>4023</v>
       </c>
       <c r="B97" t="s">
-        <v>4110</v>
+        <v>4247</v>
       </c>
       <c r="H97" t="s">
         <v>57</v>
@@ -83881,13 +83881,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>4111</v>
+        <v>4024</v>
       </c>
       <c r="B98" t="s">
-        <v>4112</v>
+        <v>4248</v>
       </c>
       <c r="D98" t="s">
-        <v>4113</v>
+        <v>4025</v>
       </c>
       <c r="H98" t="s">
         <v>57</v>
@@ -83901,16 +83901,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>4114</v>
+        <v>4026</v>
       </c>
       <c r="B99" t="s">
-        <v>4115</v>
+        <v>4249</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>4116</v>
+        <v>4027</v>
       </c>
       <c r="H99" t="s">
         <v>42</v>
@@ -83924,7 +83924,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>4117</v>
+        <v>4028</v>
       </c>
       <c r="H100" t="s">
         <v>866</v>
@@ -83935,16 +83935,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>4118</v>
+        <v>4029</v>
       </c>
       <c r="B101" t="s">
-        <v>4119</v>
+        <v>4250</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>4120</v>
+        <v>4030</v>
       </c>
       <c r="H101" t="s">
         <v>57</v>
@@ -83961,16 +83961,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>4121</v>
+        <v>4031</v>
       </c>
       <c r="B102" t="s">
-        <v>4122</v>
+        <v>4251</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>4123</v>
+        <v>4032</v>
       </c>
       <c r="H102" t="s">
         <v>42</v>
@@ -83984,16 +83984,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>4124</v>
+        <v>4033</v>
       </c>
       <c r="B103" t="s">
-        <v>4125</v>
+        <v>4252</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>4126</v>
+        <v>4034</v>
       </c>
       <c r="H103" t="s">
         <v>42</v>
@@ -84007,16 +84007,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>4127</v>
+        <v>4035</v>
       </c>
       <c r="B104" t="s">
-        <v>4128</v>
+        <v>4253</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>4129</v>
+        <v>4036</v>
       </c>
       <c r="H104" t="s">
         <v>42</v>
@@ -84030,16 +84030,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>4130</v>
+        <v>4037</v>
       </c>
       <c r="B105" t="s">
-        <v>4131</v>
+        <v>4254</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>4132</v>
+        <v>4038</v>
       </c>
       <c r="H105" t="s">
         <v>42</v>
@@ -84053,7 +84053,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>4133</v>
+        <v>4039</v>
       </c>
       <c r="H106" t="s">
         <v>866</v>
@@ -84064,16 +84064,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>4134</v>
+        <v>4040</v>
       </c>
       <c r="B107" t="s">
-        <v>4135</v>
+        <v>4255</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>4136</v>
+        <v>4041</v>
       </c>
       <c r="H107" t="s">
         <v>57</v>
@@ -84090,10 +84090,10 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>4137</v>
+        <v>4042</v>
       </c>
       <c r="B108" t="s">
-        <v>4138</v>
+        <v>4256</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -84113,10 +84113,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>4139</v>
+        <v>4043</v>
       </c>
       <c r="B109" t="s">
-        <v>4140</v>
+        <v>4257</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -84136,10 +84136,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>4141</v>
+        <v>4044</v>
       </c>
       <c r="B110" t="s">
-        <v>4142</v>
+        <v>4258</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -84159,10 +84159,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>4143</v>
+        <v>4045</v>
       </c>
       <c r="B111" t="s">
-        <v>4144</v>
+        <v>4259</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -84182,10 +84182,10 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>4145</v>
+        <v>4046</v>
       </c>
       <c r="B112" t="s">
-        <v>4146</v>
+        <v>4260</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -84205,10 +84205,10 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>4147</v>
+        <v>4047</v>
       </c>
       <c r="B113" t="s">
-        <v>4148</v>
+        <v>4261</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -84228,10 +84228,10 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>4149</v>
+        <v>4048</v>
       </c>
       <c r="B114" t="s">
-        <v>4150</v>
+        <v>4262</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -84251,10 +84251,10 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>4151</v>
+        <v>4049</v>
       </c>
       <c r="B115" t="s">
-        <v>4152</v>
+        <v>4263</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -84274,10 +84274,10 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>4153</v>
+        <v>4050</v>
       </c>
       <c r="B116" t="s">
-        <v>4154</v>
+        <v>4264</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -84297,10 +84297,10 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>4155</v>
+        <v>4051</v>
       </c>
       <c r="B117" t="s">
-        <v>4156</v>
+        <v>4265</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -84320,10 +84320,10 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>4157</v>
+        <v>4052</v>
       </c>
       <c r="B118" t="s">
-        <v>4158</v>
+        <v>4266</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -84343,10 +84343,10 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>4159</v>
+        <v>4053</v>
       </c>
       <c r="B119" t="s">
-        <v>4160</v>
+        <v>4267</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -84366,16 +84366,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>4161</v>
+        <v>4054</v>
       </c>
       <c r="B120" t="s">
-        <v>4162</v>
+        <v>4268</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>4163</v>
+        <v>4055</v>
       </c>
       <c r="H120" t="s">
         <v>57</v>
@@ -84392,16 +84392,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>4164</v>
+        <v>4056</v>
       </c>
       <c r="B121" t="s">
-        <v>4165</v>
+        <v>4269</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>4166</v>
+        <v>4057</v>
       </c>
       <c r="H121" t="s">
         <v>57</v>
@@ -84418,16 +84418,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>4167</v>
+        <v>4058</v>
       </c>
       <c r="B122" t="s">
-        <v>4168</v>
+        <v>4270</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>4169</v>
+        <v>4059</v>
       </c>
       <c r="H122" t="s">
         <v>57</v>
@@ -84444,16 +84444,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>4170</v>
+        <v>4060</v>
       </c>
       <c r="B123" t="s">
-        <v>4171</v>
+        <v>4271</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>4172</v>
+        <v>4061</v>
       </c>
       <c r="H123" t="s">
         <v>42</v>
@@ -84470,10 +84470,10 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>4173</v>
+        <v>4062</v>
       </c>
       <c r="B124" t="s">
-        <v>4174</v>
+        <v>4272</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -84493,10 +84493,10 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>4175</v>
+        <v>4063</v>
       </c>
       <c r="B125" t="s">
-        <v>4176</v>
+        <v>4273</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -84516,10 +84516,10 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>4177</v>
+        <v>4064</v>
       </c>
       <c r="B126" t="s">
-        <v>4178</v>
+        <v>4274</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -84539,10 +84539,10 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>4179</v>
+        <v>4065</v>
       </c>
       <c r="B127" t="s">
-        <v>4180</v>
+        <v>4275</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -84562,10 +84562,10 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>4181</v>
+        <v>4066</v>
       </c>
       <c r="B128" t="s">
-        <v>4182</v>
+        <v>4276</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -84585,10 +84585,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>4183</v>
+        <v>4067</v>
       </c>
       <c r="B129" t="s">
-        <v>4184</v>
+        <v>4277</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -84608,7 +84608,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>4185</v>
+        <v>4068</v>
       </c>
       <c r="H130" t="s">
         <v>866</v>
@@ -84619,16 +84619,16 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>4186</v>
+        <v>4069</v>
       </c>
       <c r="B131" t="s">
-        <v>4187</v>
+        <v>4278</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>4188</v>
+        <v>4070</v>
       </c>
       <c r="H131" t="s">
         <v>42</v>
@@ -84645,16 +84645,16 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>4189</v>
+        <v>4071</v>
       </c>
       <c r="B132" t="s">
-        <v>4190</v>
+        <v>4279</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>4191</v>
+        <v>4072</v>
       </c>
       <c r="H132" t="s">
         <v>42</v>
@@ -84668,16 +84668,16 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>4192</v>
+        <v>4073</v>
       </c>
       <c r="B133" t="s">
-        <v>4193</v>
+        <v>4280</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>4194</v>
+        <v>4074</v>
       </c>
       <c r="H133" t="s">
         <v>42</v>
@@ -84694,16 +84694,16 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>4195</v>
+        <v>4075</v>
       </c>
       <c r="B134" t="s">
-        <v>4196</v>
+        <v>4281</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>4197</v>
+        <v>4076</v>
       </c>
       <c r="H134" t="s">
         <v>42</v>
@@ -84717,16 +84717,16 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>4198</v>
+        <v>4077</v>
       </c>
       <c r="B135" t="s">
-        <v>4199</v>
+        <v>4282</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>4200</v>
+        <v>4078</v>
       </c>
       <c r="H135" t="s">
         <v>57</v>
@@ -84743,16 +84743,16 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>4201</v>
+        <v>4079</v>
       </c>
       <c r="B136" t="s">
-        <v>4202</v>
+        <v>4283</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>4203</v>
+        <v>4080</v>
       </c>
       <c r="H136" t="s">
         <v>57</v>
@@ -84769,16 +84769,16 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>4204</v>
+        <v>4081</v>
       </c>
       <c r="B137" t="s">
-        <v>4205</v>
+        <v>4284</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>4206</v>
+        <v>4082</v>
       </c>
       <c r="H137" t="s">
         <v>57</v>
@@ -84792,16 +84792,16 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>4207</v>
+        <v>4083</v>
       </c>
       <c r="B138" t="s">
-        <v>4208</v>
+        <v>4285</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>4209</v>
+        <v>4084</v>
       </c>
       <c r="H138" t="s">
         <v>42</v>
@@ -84818,16 +84818,16 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>4210</v>
+        <v>4085</v>
       </c>
       <c r="B139" t="s">
-        <v>4211</v>
+        <v>4286</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>4212</v>
+        <v>4086</v>
       </c>
       <c r="H139" t="s">
         <v>42</v>
@@ -84841,13 +84841,13 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>4213</v>
+        <v>4087</v>
       </c>
       <c r="B140" t="s">
-        <v>4214</v>
+        <v>4287</v>
       </c>
       <c r="D140" t="s">
-        <v>4215</v>
+        <v>4088</v>
       </c>
       <c r="H140" t="s">
         <v>42</v>
@@ -84864,13 +84864,13 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>4216</v>
+        <v>4089</v>
       </c>
       <c r="B141" t="s">
-        <v>4217</v>
+        <v>4288</v>
       </c>
       <c r="D141" t="s">
-        <v>4218</v>
+        <v>4090</v>
       </c>
       <c r="H141" t="s">
         <v>42</v>
@@ -84887,10 +84887,10 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>4219</v>
+        <v>4091</v>
       </c>
       <c r="B142" t="s">
-        <v>4220</v>
+        <v>4289</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -84907,10 +84907,10 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>4221</v>
+        <v>4092</v>
       </c>
       <c r="B143" t="s">
-        <v>4222</v>
+        <v>4290</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -84927,10 +84927,10 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>4223</v>
+        <v>4093</v>
       </c>
       <c r="B144" t="s">
-        <v>4224</v>
+        <v>4291</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -84947,10 +84947,10 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>4225</v>
+        <v>4094</v>
       </c>
       <c r="B145" t="s">
-        <v>4226</v>
+        <v>4292</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -84967,10 +84967,10 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>4227</v>
+        <v>4095</v>
       </c>
       <c r="B146" t="s">
-        <v>4228</v>
+        <v>4293</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -84987,10 +84987,10 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>4229</v>
+        <v>4096</v>
       </c>
       <c r="B147" t="s">
-        <v>4230</v>
+        <v>4294</v>
       </c>
       <c r="H147" t="s">
         <v>57</v>
@@ -85004,10 +85004,10 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>4231</v>
+        <v>4097</v>
       </c>
       <c r="B148" t="s">
-        <v>4232</v>
+        <v>4295</v>
       </c>
       <c r="H148" t="s">
         <v>42</v>
@@ -85024,16 +85024,16 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>4233</v>
+        <v>4098</v>
       </c>
       <c r="B149" t="s">
-        <v>4234</v>
+        <v>4296</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>4235</v>
+        <v>4099</v>
       </c>
       <c r="H149" t="s">
         <v>57</v>
@@ -85047,16 +85047,16 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>4236</v>
+        <v>4100</v>
       </c>
       <c r="B150" t="s">
-        <v>4237</v>
+        <v>4297</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>4238</v>
+        <v>4101</v>
       </c>
       <c r="H150" t="s">
         <v>57</v>
@@ -85070,10 +85070,10 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>4239</v>
+        <v>4102</v>
       </c>
       <c r="B151" t="s">
-        <v>4240</v>
+        <v>4298</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -85090,16 +85090,16 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>4241</v>
+        <v>4103</v>
       </c>
       <c r="B152" t="s">
-        <v>4242</v>
+        <v>4299</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>4243</v>
+        <v>4104</v>
       </c>
       <c r="H152" t="s">
         <v>57</v>
@@ -85113,16 +85113,16 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>4244</v>
+        <v>4105</v>
       </c>
       <c r="B153" t="s">
-        <v>4245</v>
+        <v>4300</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>4246</v>
+        <v>4106</v>
       </c>
       <c r="H153" t="s">
         <v>57</v>
@@ -85136,7 +85136,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>4247</v>
+        <v>4107</v>
       </c>
       <c r="H154" t="s">
         <v>866</v>
@@ -85147,10 +85147,10 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>4248</v>
+        <v>4108</v>
       </c>
       <c r="B155" t="s">
-        <v>4249</v>
+        <v>4301</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -85167,10 +85167,10 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>4250</v>
+        <v>4109</v>
       </c>
       <c r="B156" t="s">
-        <v>4251</v>
+        <v>4302</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -85190,10 +85190,10 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>4252</v>
+        <v>4110</v>
       </c>
       <c r="B157" t="s">
-        <v>4253</v>
+        <v>4303</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -85210,10 +85210,10 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>4254</v>
+        <v>4111</v>
       </c>
       <c r="B158" t="s">
-        <v>4255</v>
+        <v>4304</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -85230,10 +85230,10 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>4256</v>
+        <v>4112</v>
       </c>
       <c r="B159" t="s">
-        <v>4257</v>
+        <v>4305</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -85250,10 +85250,10 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>4258</v>
+        <v>4113</v>
       </c>
       <c r="B160" t="s">
-        <v>4259</v>
+        <v>4306</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -85270,10 +85270,10 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>4260</v>
+        <v>4114</v>
       </c>
       <c r="B161" t="s">
-        <v>4261</v>
+        <v>4307</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -85290,10 +85290,10 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>4262</v>
+        <v>4115</v>
       </c>
       <c r="B162" t="s">
-        <v>4263</v>
+        <v>4308</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -85313,10 +85313,10 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>4264</v>
+        <v>4116</v>
       </c>
       <c r="B163" t="s">
-        <v>4265</v>
+        <v>4309</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -85336,10 +85336,10 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>4266</v>
+        <v>4117</v>
       </c>
       <c r="B164" t="s">
-        <v>4267</v>
+        <v>4310</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -85359,10 +85359,10 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>4268</v>
+        <v>4118</v>
       </c>
       <c r="B165" t="s">
-        <v>4269</v>
+        <v>4311</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -85385,16 +85385,16 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>4270</v>
+        <v>4119</v>
       </c>
       <c r="B166" t="s">
-        <v>4271</v>
+        <v>4312</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>4272</v>
+        <v>4120</v>
       </c>
       <c r="H166" t="s">
         <v>42</v>
@@ -85408,7 +85408,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>4273</v>
+        <v>4121</v>
       </c>
       <c r="H167" t="s">
         <v>866</v>
@@ -85419,10 +85419,10 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>4274</v>
+        <v>4122</v>
       </c>
       <c r="B168" t="s">
-        <v>4275</v>
+        <v>4313</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -85445,7 +85445,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>4276</v>
+        <v>4123</v>
       </c>
       <c r="H169" t="s">
         <v>866</v>
@@ -85456,10 +85456,10 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>4277</v>
+        <v>4124</v>
       </c>
       <c r="B170" t="s">
-        <v>4278</v>
+        <v>4314</v>
       </c>
       <c r="H170" t="s">
         <v>57</v>
@@ -85473,10 +85473,10 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>4279</v>
+        <v>4125</v>
       </c>
       <c r="B171" t="s">
-        <v>4280</v>
+        <v>4315</v>
       </c>
       <c r="H171" t="s">
         <v>57</v>
@@ -85490,10 +85490,10 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>4281</v>
+        <v>4126</v>
       </c>
       <c r="B172" t="s">
-        <v>4282</v>
+        <v>4316</v>
       </c>
       <c r="H172" t="s">
         <v>57</v>
@@ -85507,10 +85507,10 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>4283</v>
+        <v>4127</v>
       </c>
       <c r="B173" t="s">
-        <v>4284</v>
+        <v>4317</v>
       </c>
       <c r="H173" t="s">
         <v>57</v>
@@ -85524,10 +85524,10 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>4285</v>
+        <v>4128</v>
       </c>
       <c r="B174" t="s">
-        <v>4286</v>
+        <v>4318</v>
       </c>
       <c r="H174" t="s">
         <v>57</v>
@@ -85541,10 +85541,10 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>4287</v>
+        <v>4129</v>
       </c>
       <c r="B175" t="s">
-        <v>4288</v>
+        <v>4319</v>
       </c>
       <c r="H175" t="s">
         <v>57</v>
@@ -85558,10 +85558,10 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>4289</v>
+        <v>4130</v>
       </c>
       <c r="B176" t="s">
-        <v>4290</v>
+        <v>4320</v>
       </c>
       <c r="H176" t="s">
         <v>57</v>
@@ -85575,10 +85575,10 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>4291</v>
+        <v>4131</v>
       </c>
       <c r="B177" t="s">
-        <v>4292</v>
+        <v>4321</v>
       </c>
       <c r="H177" t="s">
         <v>57</v>
@@ -85592,10 +85592,10 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>4293</v>
+        <v>4132</v>
       </c>
       <c r="B178" t="s">
-        <v>4294</v>
+        <v>4322</v>
       </c>
       <c r="H178" t="s">
         <v>57</v>
@@ -85609,10 +85609,10 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>4295</v>
+        <v>4133</v>
       </c>
       <c r="B179" t="s">
-        <v>4296</v>
+        <v>4323</v>
       </c>
       <c r="H179" t="s">
         <v>57</v>
@@ -85626,10 +85626,10 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>4297</v>
+        <v>4134</v>
       </c>
       <c r="B180" t="s">
-        <v>4298</v>
+        <v>4324</v>
       </c>
       <c r="H180" t="s">
         <v>57</v>
@@ -85643,10 +85643,10 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>4299</v>
+        <v>4135</v>
       </c>
       <c r="B181" t="s">
-        <v>4300</v>
+        <v>4325</v>
       </c>
       <c r="H181" t="s">
         <v>57</v>
@@ -85660,10 +85660,10 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>4301</v>
+        <v>4136</v>
       </c>
       <c r="B182" t="s">
-        <v>4302</v>
+        <v>4326</v>
       </c>
       <c r="H182" t="s">
         <v>57</v>
@@ -85677,10 +85677,10 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>4303</v>
+        <v>4137</v>
       </c>
       <c r="B183" t="s">
-        <v>4304</v>
+        <v>4327</v>
       </c>
       <c r="H183" t="s">
         <v>57</v>
@@ -85694,10 +85694,10 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>4305</v>
+        <v>4138</v>
       </c>
       <c r="B184" t="s">
-        <v>4306</v>
+        <v>4328</v>
       </c>
       <c r="H184" t="s">
         <v>57</v>
@@ -85711,10 +85711,10 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>4307</v>
+        <v>4139</v>
       </c>
       <c r="B185" t="s">
-        <v>4308</v>
+        <v>4329</v>
       </c>
       <c r="H185" t="s">
         <v>57</v>
@@ -85728,10 +85728,10 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>4309</v>
+        <v>4140</v>
       </c>
       <c r="B186" t="s">
-        <v>4310</v>
+        <v>4330</v>
       </c>
       <c r="H186" t="s">
         <v>57</v>
@@ -85745,10 +85745,10 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>4311</v>
+        <v>4141</v>
       </c>
       <c r="B187" t="s">
-        <v>4312</v>
+        <v>4331</v>
       </c>
       <c r="H187" t="s">
         <v>57</v>
@@ -85762,10 +85762,10 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>4313</v>
+        <v>4142</v>
       </c>
       <c r="B188" t="s">
-        <v>4314</v>
+        <v>4332</v>
       </c>
       <c r="H188" t="s">
         <v>57</v>
@@ -85779,10 +85779,10 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>4315</v>
+        <v>4143</v>
       </c>
       <c r="B189" t="s">
-        <v>4316</v>
+        <v>4333</v>
       </c>
       <c r="H189" t="s">
         <v>57</v>
@@ -85796,7 +85796,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>4317</v>
+        <v>4144</v>
       </c>
       <c r="H190" t="s">
         <v>866</v>
@@ -85807,16 +85807,16 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>4318</v>
+        <v>4145</v>
       </c>
       <c r="B191" t="s">
-        <v>4319</v>
+        <v>4334</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>4320</v>
+        <v>4146</v>
       </c>
       <c r="H191" t="s">
         <v>42</v>
@@ -85830,16 +85830,16 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>4321</v>
+        <v>4147</v>
       </c>
       <c r="B192" t="s">
-        <v>4322</v>
+        <v>4335</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>4323</v>
+        <v>4148</v>
       </c>
       <c r="H192" t="s">
         <v>42</v>
@@ -85853,19 +85853,19 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>4324</v>
+        <v>4149</v>
       </c>
       <c r="B193" t="s">
-        <v>4325</v>
+        <v>4336</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>4326</v>
+        <v>4150</v>
       </c>
       <c r="F193" t="s">
-        <v>4327</v>
+        <v>4151</v>
       </c>
       <c r="H193" t="s">
         <v>42</v>
@@ -85882,16 +85882,16 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>4328</v>
+        <v>4152</v>
       </c>
       <c r="B194" t="s">
-        <v>4329</v>
+        <v>4337</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>4330</v>
+        <v>4153</v>
       </c>
       <c r="F194" t="s">
         <v>37</v>
@@ -85911,16 +85911,16 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>4331</v>
+        <v>4154</v>
       </c>
       <c r="B195" t="s">
-        <v>4332</v>
+        <v>4338</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>4333</v>
+        <v>4155</v>
       </c>
       <c r="F195" t="s">
         <v>68</v>
@@ -85940,16 +85940,16 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>4334</v>
+        <v>4156</v>
       </c>
       <c r="B196" t="s">
-        <v>4335</v>
+        <v>4339</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>4336</v>
+        <v>4157</v>
       </c>
       <c r="F196" t="s">
         <v>68</v>
@@ -85969,16 +85969,16 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>4337</v>
+        <v>4158</v>
       </c>
       <c r="B197" t="s">
-        <v>4338</v>
+        <v>4340</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>4339</v>
+        <v>4159</v>
       </c>
       <c r="H197" t="s">
         <v>42</v>
@@ -86004,8 +86004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -86050,7 +86050,7 @@
         <v>31</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>4340</v>
+        <v>4160</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>549</v>
@@ -86075,10 +86075,10 @@
         <v>3857</v>
       </c>
       <c r="B3" t="s">
+        <v>4161</v>
+      </c>
+      <c r="D3" t="s">
         <v>3858</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3859</v>
       </c>
       <c r="H3" t="s">
         <v>42</v>
@@ -86092,13 +86092,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D4" t="s">
         <v>3860</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3861</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3862</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
@@ -86112,13 +86112,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
       <c r="B5" t="s">
-        <v>3870</v>
+        <v>4165</v>
       </c>
       <c r="D5" t="s">
-        <v>3871</v>
+        <v>3866</v>
       </c>
       <c r="H5" t="s">
         <v>866</v>
@@ -86132,16 +86132,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3872</v>
+        <v>3867</v>
       </c>
       <c r="B6" t="s">
-        <v>3873</v>
+        <v>4166</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>3874</v>
+        <v>3868</v>
       </c>
       <c r="H6" t="s">
         <v>866</v>
@@ -86155,13 +86155,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3875</v>
+        <v>3869</v>
       </c>
       <c r="B7" t="s">
-        <v>3876</v>
+        <v>4167</v>
       </c>
       <c r="D7" t="s">
-        <v>3877</v>
+        <v>3870</v>
       </c>
       <c r="H7" t="s">
         <v>866</v>
@@ -86175,7 +86175,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3878</v>
+        <v>3871</v>
       </c>
       <c r="H8" t="s">
         <v>866</v>
@@ -86186,16 +86186,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3879</v>
+        <v>3872</v>
       </c>
       <c r="B9" t="s">
-        <v>3880</v>
+        <v>4168</v>
       </c>
       <c r="D9" t="s">
-        <v>3881</v>
+        <v>3873</v>
       </c>
       <c r="F9" t="s">
-        <v>3882</v>
+        <v>3874</v>
       </c>
       <c r="H9" t="s">
         <v>42</v>
@@ -86212,13 +86212,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>3883</v>
+        <v>3875</v>
       </c>
       <c r="B10" t="s">
-        <v>3884</v>
+        <v>4169</v>
       </c>
       <c r="D10" t="s">
-        <v>3885</v>
+        <v>3876</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -86238,16 +86238,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3886</v>
+        <v>3877</v>
       </c>
       <c r="B11" t="s">
-        <v>3887</v>
+        <v>4170</v>
       </c>
       <c r="D11" t="s">
-        <v>3888</v>
+        <v>3878</v>
       </c>
       <c r="F11" t="s">
-        <v>3889</v>
+        <v>3879</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -86264,16 +86264,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3890</v>
+        <v>3880</v>
       </c>
       <c r="B12" t="s">
-        <v>3891</v>
+        <v>4171</v>
       </c>
       <c r="D12" t="s">
-        <v>3892</v>
+        <v>3881</v>
       </c>
       <c r="F12" t="s">
-        <v>3893</v>
+        <v>3882</v>
       </c>
       <c r="H12" t="s">
         <v>57</v>
@@ -86290,7 +86290,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3894</v>
+        <v>3883</v>
       </c>
       <c r="H13" t="s">
         <v>866</v>
@@ -86301,16 +86301,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3895</v>
+        <v>3884</v>
       </c>
       <c r="B14" t="s">
-        <v>3896</v>
+        <v>4172</v>
       </c>
       <c r="D14" t="s">
-        <v>3897</v>
+        <v>3885</v>
       </c>
       <c r="F14" t="s">
-        <v>3893</v>
+        <v>3882</v>
       </c>
       <c r="H14" t="s">
         <v>57</v>
@@ -86327,16 +86327,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3898</v>
+        <v>3886</v>
       </c>
       <c r="B15" t="s">
-        <v>3899</v>
+        <v>4173</v>
       </c>
       <c r="D15" t="s">
         <v>3088</v>
       </c>
       <c r="F15" t="s">
-        <v>3900</v>
+        <v>3887</v>
       </c>
       <c r="H15" t="s">
         <v>57</v>
@@ -86350,16 +86350,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>3901</v>
+        <v>3888</v>
       </c>
       <c r="B16" t="s">
-        <v>3902</v>
+        <v>4174</v>
       </c>
       <c r="D16" t="s">
-        <v>3903</v>
+        <v>3889</v>
       </c>
       <c r="F16" t="s">
-        <v>3900</v>
+        <v>3887</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
@@ -86373,13 +86373,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3904</v>
+        <v>3890</v>
       </c>
       <c r="B17" t="s">
-        <v>3905</v>
+        <v>4175</v>
       </c>
       <c r="D17" t="s">
-        <v>3906</v>
+        <v>3891</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
@@ -86393,16 +86393,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>3907</v>
+        <v>3892</v>
       </c>
       <c r="B18" t="s">
-        <v>3908</v>
+        <v>4176</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>3909</v>
+        <v>3893</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
@@ -86416,13 +86416,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3910</v>
+        <v>3894</v>
       </c>
       <c r="B19" t="s">
-        <v>3911</v>
+        <v>4177</v>
       </c>
       <c r="D19" t="s">
-        <v>3912</v>
+        <v>3895</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
@@ -86436,7 +86436,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>3913</v>
+        <v>3896</v>
       </c>
       <c r="H20" t="s">
         <v>866</v>
@@ -86447,16 +86447,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>3914</v>
+        <v>3897</v>
       </c>
       <c r="B21" t="s">
-        <v>3915</v>
+        <v>4178</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>3916</v>
+        <v>3898</v>
       </c>
       <c r="H21" t="s">
         <v>42</v>
@@ -86470,10 +86470,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3917</v>
+        <v>3899</v>
       </c>
       <c r="B22" t="s">
-        <v>3918</v>
+        <v>4179</v>
       </c>
       <c r="H22" t="s">
         <v>57</v>
@@ -86487,10 +86487,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>3919</v>
+        <v>3900</v>
       </c>
       <c r="B23" t="s">
-        <v>3920</v>
+        <v>4180</v>
       </c>
       <c r="H23" t="s">
         <v>57</v>
@@ -86504,16 +86504,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>3921</v>
+        <v>3901</v>
       </c>
       <c r="B24" t="s">
-        <v>3922</v>
+        <v>4181</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>3923</v>
+        <v>3902</v>
       </c>
       <c r="H24" t="s">
         <v>42</v>
@@ -86527,10 +86527,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>3924</v>
+        <v>3903</v>
       </c>
       <c r="B25" t="s">
-        <v>3925</v>
+        <v>4182</v>
       </c>
       <c r="H25" t="s">
         <v>866</v>
@@ -86544,10 +86544,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3926</v>
+        <v>3904</v>
       </c>
       <c r="B26" t="s">
-        <v>3927</v>
+        <v>4183</v>
       </c>
       <c r="H26" t="s">
         <v>866</v>
@@ -86561,10 +86561,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3928</v>
+        <v>3905</v>
       </c>
       <c r="B27" t="s">
-        <v>3929</v>
+        <v>4184</v>
       </c>
       <c r="D27" t="s">
         <v>455</v>
@@ -86581,13 +86581,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>3930</v>
+        <v>3906</v>
       </c>
       <c r="B28" t="s">
-        <v>3931</v>
+        <v>4185</v>
       </c>
       <c r="D28" t="s">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="H28" t="s">
         <v>42</v>
@@ -86601,13 +86601,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>3933</v>
+        <v>3908</v>
       </c>
       <c r="B29" t="s">
-        <v>3934</v>
+        <v>4186</v>
       </c>
       <c r="D29" t="s">
-        <v>3935</v>
+        <v>3909</v>
       </c>
       <c r="H29" t="s">
         <v>42</v>
@@ -86621,13 +86621,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3936</v>
+        <v>3910</v>
       </c>
       <c r="B30" t="s">
-        <v>3937</v>
+        <v>4187</v>
       </c>
       <c r="D30" t="s">
-        <v>3938</v>
+        <v>3911</v>
       </c>
       <c r="H30" t="s">
         <v>866</v>
@@ -86641,13 +86641,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>3939</v>
+        <v>3912</v>
       </c>
       <c r="B31" t="s">
-        <v>3940</v>
+        <v>4188</v>
       </c>
       <c r="D31" t="s">
-        <v>3938</v>
+        <v>3911</v>
       </c>
       <c r="H31" t="s">
         <v>866</v>
@@ -86661,13 +86661,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>3941</v>
+        <v>3913</v>
       </c>
       <c r="B32" t="s">
-        <v>3942</v>
+        <v>4189</v>
       </c>
       <c r="D32" t="s">
-        <v>3938</v>
+        <v>3911</v>
       </c>
       <c r="H32" t="s">
         <v>866</v>
@@ -86681,13 +86681,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>3943</v>
+        <v>3914</v>
       </c>
       <c r="B33" t="s">
-        <v>3944</v>
+        <v>4190</v>
       </c>
       <c r="D33" t="s">
-        <v>3938</v>
+        <v>3911</v>
       </c>
       <c r="H33" t="s">
         <v>866</v>
@@ -86701,7 +86701,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>3945</v>
+        <v>3915</v>
       </c>
       <c r="H34" t="s">
         <v>866</v>
@@ -86712,16 +86712,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>3946</v>
+        <v>3916</v>
       </c>
       <c r="B35" t="s">
-        <v>3947</v>
+        <v>4191</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>3948</v>
+        <v>3917</v>
       </c>
       <c r="H35" t="s">
         <v>42</v>
@@ -86735,16 +86735,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>3949</v>
+        <v>3918</v>
       </c>
       <c r="B36" t="s">
-        <v>3950</v>
+        <v>4192</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>3951</v>
+        <v>3919</v>
       </c>
       <c r="H36" t="s">
         <v>57</v>
@@ -86758,13 +86758,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>3952</v>
+        <v>3920</v>
       </c>
       <c r="B37" t="s">
-        <v>3953</v>
+        <v>4193</v>
       </c>
       <c r="D37" t="s">
-        <v>3954</v>
+        <v>3921</v>
       </c>
       <c r="H37" t="s">
         <v>57</v>
@@ -86778,13 +86778,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>3955</v>
+        <v>3922</v>
       </c>
       <c r="B38" t="s">
-        <v>3956</v>
+        <v>4194</v>
       </c>
       <c r="D38" t="s">
-        <v>3957</v>
+        <v>3923</v>
       </c>
       <c r="H38" t="s">
         <v>866</v>
@@ -86798,13 +86798,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>3958</v>
+        <v>3924</v>
       </c>
       <c r="B39" t="s">
-        <v>3959</v>
+        <v>4195</v>
       </c>
       <c r="D39" t="s">
-        <v>3960</v>
+        <v>3925</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
@@ -86818,13 +86818,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>3961</v>
+        <v>3926</v>
       </c>
       <c r="B40" t="s">
-        <v>3962</v>
+        <v>4196</v>
       </c>
       <c r="D40" t="s">
-        <v>3963</v>
+        <v>3927</v>
       </c>
       <c r="H40" t="s">
         <v>57</v>
@@ -86838,16 +86838,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>3964</v>
+        <v>3928</v>
       </c>
       <c r="B41" t="s">
-        <v>3965</v>
+        <v>4197</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>3966</v>
+        <v>3929</v>
       </c>
       <c r="H41" t="s">
         <v>57</v>
@@ -86864,7 +86864,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>3967</v>
+        <v>3930</v>
       </c>
       <c r="H42" t="s">
         <v>866</v>
@@ -86875,16 +86875,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>3968</v>
+        <v>3931</v>
       </c>
       <c r="B43" t="s">
-        <v>3969</v>
+        <v>4198</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>3970</v>
+        <v>3932</v>
       </c>
       <c r="H43" t="s">
         <v>57</v>
@@ -86898,16 +86898,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>3971</v>
+        <v>3933</v>
       </c>
       <c r="B44" t="s">
-        <v>3972</v>
+        <v>4199</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>3973</v>
+        <v>3934</v>
       </c>
       <c r="H44" t="s">
         <v>57</v>
@@ -86921,7 +86921,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3974</v>
+        <v>3935</v>
       </c>
       <c r="H45" t="s">
         <v>866</v>
@@ -86932,13 +86932,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>3975</v>
+        <v>3936</v>
       </c>
       <c r="B46" t="s">
-        <v>3976</v>
+        <v>4200</v>
       </c>
       <c r="D46" t="s">
-        <v>3977</v>
+        <v>3937</v>
       </c>
       <c r="H46" t="s">
         <v>42</v>
@@ -86952,16 +86952,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>3978</v>
+        <v>3938</v>
       </c>
       <c r="B47" t="s">
-        <v>3979</v>
+        <v>4201</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>3980</v>
+        <v>3939</v>
       </c>
       <c r="H47" t="s">
         <v>42</v>
@@ -86975,16 +86975,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>3981</v>
+        <v>3940</v>
       </c>
       <c r="B48" t="s">
-        <v>3982</v>
+        <v>4202</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>3983</v>
+        <v>3941</v>
       </c>
       <c r="H48" t="s">
         <v>42</v>
@@ -86998,16 +86998,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>3984</v>
+        <v>3942</v>
       </c>
       <c r="B49" t="s">
-        <v>3985</v>
+        <v>4203</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>3986</v>
+        <v>3943</v>
       </c>
       <c r="H49" t="s">
         <v>57</v>
@@ -87021,16 +87021,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>3987</v>
+        <v>3944</v>
       </c>
       <c r="B50" t="s">
-        <v>3988</v>
+        <v>4204</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>3989</v>
+        <v>3945</v>
       </c>
       <c r="H50" t="s">
         <v>57</v>
@@ -87044,13 +87044,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>3990</v>
+        <v>3946</v>
       </c>
       <c r="B51" t="s">
-        <v>3991</v>
+        <v>4205</v>
       </c>
       <c r="D51" t="s">
-        <v>3992</v>
+        <v>3947</v>
       </c>
       <c r="H51" t="s">
         <v>42</v>
@@ -87064,16 +87064,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>3993</v>
+        <v>3948</v>
       </c>
       <c r="B52" t="s">
-        <v>3994</v>
+        <v>4206</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>3995</v>
+        <v>3949</v>
       </c>
       <c r="H52" t="s">
         <v>42</v>
@@ -87087,16 +87087,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>3996</v>
+        <v>3950</v>
       </c>
       <c r="B53" t="s">
-        <v>3997</v>
+        <v>4207</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>3998</v>
+        <v>3951</v>
       </c>
       <c r="H53" t="s">
         <v>42</v>
@@ -87113,16 +87113,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>3999</v>
+        <v>3952</v>
       </c>
       <c r="B54" t="s">
-        <v>4000</v>
+        <v>4208</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>4001</v>
+        <v>3953</v>
       </c>
       <c r="H54" t="s">
         <v>57</v>
@@ -87136,16 +87136,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>4002</v>
+        <v>3954</v>
       </c>
       <c r="B55" t="s">
-        <v>4003</v>
+        <v>4209</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>4004</v>
+        <v>3955</v>
       </c>
       <c r="H55" t="s">
         <v>57</v>
@@ -87159,10 +87159,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>4005</v>
+        <v>3956</v>
       </c>
       <c r="B56" t="s">
-        <v>4006</v>
+        <v>4210</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -87179,16 +87179,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>4007</v>
+        <v>3957</v>
       </c>
       <c r="B57" t="s">
-        <v>4008</v>
+        <v>4211</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>4009</v>
+        <v>3958</v>
       </c>
       <c r="H57" t="s">
         <v>231</v>
@@ -87202,16 +87202,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>4010</v>
+        <v>3959</v>
       </c>
       <c r="B58" t="s">
-        <v>4011</v>
+        <v>4212</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>4012</v>
+        <v>3960</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -87228,16 +87228,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>4013</v>
+        <v>3961</v>
       </c>
       <c r="B59" t="s">
-        <v>4014</v>
+        <v>4213</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>4015</v>
+        <v>3962</v>
       </c>
       <c r="F59" t="s">
         <v>37</v>
@@ -87257,16 +87257,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>4016</v>
+        <v>3963</v>
       </c>
       <c r="B60" t="s">
-        <v>4017</v>
+        <v>4214</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>4018</v>
+        <v>3964</v>
       </c>
       <c r="H60" t="s">
         <v>42</v>
@@ -87280,16 +87280,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>4019</v>
+        <v>3965</v>
       </c>
       <c r="B61" t="s">
-        <v>4020</v>
+        <v>4215</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>4021</v>
+        <v>3966</v>
       </c>
       <c r="H61" t="s">
         <v>42</v>
@@ -87306,16 +87306,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>4022</v>
+        <v>3967</v>
       </c>
       <c r="B62" t="s">
-        <v>4023</v>
+        <v>4216</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>4024</v>
+        <v>3968</v>
       </c>
       <c r="H62" t="s">
         <v>42</v>
@@ -87332,16 +87332,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>4025</v>
+        <v>3969</v>
       </c>
       <c r="B63" t="s">
-        <v>4026</v>
+        <v>4217</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>4027</v>
+        <v>3970</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
@@ -87358,19 +87358,19 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>4028</v>
+        <v>3971</v>
       </c>
       <c r="B64" t="s">
-        <v>4029</v>
+        <v>4218</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>4030</v>
+        <v>3972</v>
       </c>
       <c r="F64" t="s">
-        <v>4031</v>
+        <v>3973</v>
       </c>
       <c r="H64" t="s">
         <v>57</v>
@@ -87387,16 +87387,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>4032</v>
+        <v>3974</v>
       </c>
       <c r="B65" t="s">
-        <v>4033</v>
+        <v>4219</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>4034</v>
+        <v>3975</v>
       </c>
       <c r="H65" t="s">
         <v>42</v>
@@ -87410,16 +87410,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>4035</v>
+        <v>3976</v>
       </c>
       <c r="B66" t="s">
-        <v>4036</v>
+        <v>4220</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>4037</v>
+        <v>3977</v>
       </c>
       <c r="H66" t="s">
         <v>57</v>
@@ -87436,16 +87436,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>4038</v>
+        <v>3978</v>
       </c>
       <c r="B67" t="s">
-        <v>4039</v>
+        <v>4221</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>4040</v>
+        <v>3979</v>
       </c>
       <c r="H67" t="s">
         <v>57</v>
@@ -87462,16 +87462,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4041</v>
+        <v>3980</v>
       </c>
       <c r="B68" t="s">
-        <v>4042</v>
+        <v>4222</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>4043</v>
+        <v>3981</v>
       </c>
       <c r="H68" t="s">
         <v>57</v>
@@ -87488,16 +87488,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4044</v>
+        <v>3982</v>
       </c>
       <c r="B69" t="s">
-        <v>4045</v>
+        <v>4223</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>4046</v>
+        <v>3983</v>
       </c>
       <c r="H69" t="s">
         <v>57</v>
@@ -87514,16 +87514,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4047</v>
+        <v>3984</v>
       </c>
       <c r="B70" t="s">
-        <v>4048</v>
+        <v>4224</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>4049</v>
+        <v>3985</v>
       </c>
       <c r="H70" t="s">
         <v>57</v>
@@ -87540,16 +87540,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4050</v>
+        <v>3986</v>
       </c>
       <c r="B71" t="s">
-        <v>4051</v>
+        <v>4225</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>4052</v>
+        <v>3987</v>
       </c>
       <c r="H71" t="s">
         <v>57</v>
@@ -87566,7 +87566,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>4075</v>
+        <v>4003</v>
       </c>
       <c r="H72" t="s">
         <v>866</v>
@@ -87577,16 +87577,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4076</v>
+        <v>4004</v>
       </c>
       <c r="B73" t="s">
-        <v>4077</v>
+        <v>4233</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>4078</v>
+        <v>4005</v>
       </c>
       <c r="H73" t="s">
         <v>57</v>
@@ -87600,16 +87600,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4079</v>
+        <v>4006</v>
       </c>
       <c r="B74" t="s">
-        <v>4080</v>
+        <v>4234</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>4081</v>
+        <v>4007</v>
       </c>
       <c r="H74" t="s">
         <v>57</v>
@@ -87623,16 +87623,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4082</v>
+        <v>4008</v>
       </c>
       <c r="B75" t="s">
-        <v>4083</v>
+        <v>4235</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>4084</v>
+        <v>4009</v>
       </c>
       <c r="H75" t="s">
         <v>42</v>
@@ -87646,16 +87646,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>4085</v>
+        <v>4010</v>
       </c>
       <c r="B76" t="s">
-        <v>4086</v>
+        <v>4236</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>4087</v>
+        <v>4011</v>
       </c>
       <c r="H76" t="s">
         <v>57</v>
@@ -87669,16 +87669,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>4088</v>
+        <v>4012</v>
       </c>
       <c r="B77" t="s">
-        <v>4089</v>
+        <v>4237</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>4090</v>
+        <v>4013</v>
       </c>
       <c r="H77" t="s">
         <v>57</v>
@@ -87695,10 +87695,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>4091</v>
+        <v>4014</v>
       </c>
       <c r="B78" t="s">
-        <v>4092</v>
+        <v>4238</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -87715,10 +87715,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4093</v>
+        <v>4015</v>
       </c>
       <c r="B79" t="s">
-        <v>4094</v>
+        <v>4239</v>
       </c>
       <c r="H79" t="s">
         <v>57</v>
@@ -87732,10 +87732,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>4095</v>
+        <v>4016</v>
       </c>
       <c r="B80" t="s">
-        <v>4096</v>
+        <v>4240</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -87752,10 +87752,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>4097</v>
+        <v>4017</v>
       </c>
       <c r="B81" t="s">
-        <v>4098</v>
+        <v>4241</v>
       </c>
       <c r="H81" t="s">
         <v>57</v>
@@ -87769,10 +87769,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>4099</v>
+        <v>4018</v>
       </c>
       <c r="B82" t="s">
-        <v>4100</v>
+        <v>4242</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -87792,10 +87792,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4101</v>
+        <v>4019</v>
       </c>
       <c r="B83" t="s">
-        <v>4102</v>
+        <v>4243</v>
       </c>
       <c r="H83" t="s">
         <v>57</v>
@@ -87809,10 +87809,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>4103</v>
+        <v>4020</v>
       </c>
       <c r="B84" t="s">
-        <v>4104</v>
+        <v>4244</v>
       </c>
       <c r="H84" t="s">
         <v>57</v>
@@ -87826,10 +87826,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>4105</v>
+        <v>4021</v>
       </c>
       <c r="B85" t="s">
-        <v>4106</v>
+        <v>4245</v>
       </c>
       <c r="H85" t="s">
         <v>57</v>
@@ -87843,10 +87843,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4107</v>
+        <v>4022</v>
       </c>
       <c r="B86" t="s">
-        <v>4108</v>
+        <v>4246</v>
       </c>
       <c r="H86" t="s">
         <v>57</v>
@@ -87860,10 +87860,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>4109</v>
+        <v>4023</v>
       </c>
       <c r="B87" t="s">
-        <v>4110</v>
+        <v>4247</v>
       </c>
       <c r="H87" t="s">
         <v>57</v>
@@ -87877,7 +87877,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>4117</v>
+        <v>4028</v>
       </c>
       <c r="H88" t="s">
         <v>866</v>
@@ -87888,16 +87888,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>4118</v>
+        <v>4029</v>
       </c>
       <c r="B89" t="s">
-        <v>4119</v>
+        <v>4250</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>4120</v>
+        <v>4030</v>
       </c>
       <c r="H89" t="s">
         <v>57</v>
@@ -87914,16 +87914,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>4121</v>
+        <v>4031</v>
       </c>
       <c r="B90" t="s">
-        <v>4122</v>
+        <v>4251</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>4123</v>
+        <v>4032</v>
       </c>
       <c r="H90" t="s">
         <v>42</v>
@@ -87937,7 +87937,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>4133</v>
+        <v>4039</v>
       </c>
       <c r="H91" t="s">
         <v>866</v>
@@ -87948,16 +87948,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>4134</v>
+        <v>4040</v>
       </c>
       <c r="B92" t="s">
-        <v>4135</v>
+        <v>4255</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>4136</v>
+        <v>4041</v>
       </c>
       <c r="H92" t="s">
         <v>57</v>
@@ -87974,10 +87974,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4137</v>
+        <v>4042</v>
       </c>
       <c r="B93" t="s">
-        <v>4138</v>
+        <v>4256</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -87997,10 +87997,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>4139</v>
+        <v>4043</v>
       </c>
       <c r="B94" t="s">
-        <v>4140</v>
+        <v>4257</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -88020,10 +88020,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>4141</v>
+        <v>4044</v>
       </c>
       <c r="B95" t="s">
-        <v>4142</v>
+        <v>4258</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -88043,10 +88043,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>4143</v>
+        <v>4045</v>
       </c>
       <c r="B96" t="s">
-        <v>4144</v>
+        <v>4259</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -88066,10 +88066,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>4145</v>
+        <v>4046</v>
       </c>
       <c r="B97" t="s">
-        <v>4146</v>
+        <v>4260</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -88089,10 +88089,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>4147</v>
+        <v>4047</v>
       </c>
       <c r="B98" t="s">
-        <v>4148</v>
+        <v>4261</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -88112,10 +88112,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>4149</v>
+        <v>4048</v>
       </c>
       <c r="B99" t="s">
-        <v>4150</v>
+        <v>4262</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -88135,10 +88135,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>4151</v>
+        <v>4049</v>
       </c>
       <c r="B100" t="s">
-        <v>4152</v>
+        <v>4263</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -88158,10 +88158,10 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>4153</v>
+        <v>4050</v>
       </c>
       <c r="B101" t="s">
-        <v>4154</v>
+        <v>4264</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -88181,10 +88181,10 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>4155</v>
+        <v>4051</v>
       </c>
       <c r="B102" t="s">
-        <v>4156</v>
+        <v>4265</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -88204,10 +88204,10 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>4157</v>
+        <v>4052</v>
       </c>
       <c r="B103" t="s">
-        <v>4158</v>
+        <v>4266</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -88227,10 +88227,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>4159</v>
+        <v>4053</v>
       </c>
       <c r="B104" t="s">
-        <v>4160</v>
+        <v>4267</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -88250,16 +88250,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>4161</v>
+        <v>4054</v>
       </c>
       <c r="B105" t="s">
-        <v>4162</v>
+        <v>4268</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>4163</v>
+        <v>4055</v>
       </c>
       <c r="H105" t="s">
         <v>57</v>
@@ -88276,16 +88276,16 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>4164</v>
+        <v>4056</v>
       </c>
       <c r="B106" t="s">
-        <v>4165</v>
+        <v>4269</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>4166</v>
+        <v>4057</v>
       </c>
       <c r="H106" t="s">
         <v>57</v>
@@ -88302,16 +88302,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>4167</v>
+        <v>4058</v>
       </c>
       <c r="B107" t="s">
-        <v>4168</v>
+        <v>4270</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>4169</v>
+        <v>4059</v>
       </c>
       <c r="H107" t="s">
         <v>57</v>
@@ -88328,16 +88328,16 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>4170</v>
+        <v>4060</v>
       </c>
       <c r="B108" t="s">
-        <v>4171</v>
+        <v>4271</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>4172</v>
+        <v>4061</v>
       </c>
       <c r="H108" t="s">
         <v>42</v>
@@ -88354,10 +88354,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>4173</v>
+        <v>4062</v>
       </c>
       <c r="B109" t="s">
-        <v>4174</v>
+        <v>4272</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -88377,10 +88377,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>4175</v>
+        <v>4063</v>
       </c>
       <c r="B110" t="s">
-        <v>4176</v>
+        <v>4273</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -88400,10 +88400,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>4177</v>
+        <v>4064</v>
       </c>
       <c r="B111" t="s">
-        <v>4178</v>
+        <v>4274</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -88423,10 +88423,10 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>4179</v>
+        <v>4065</v>
       </c>
       <c r="B112" t="s">
-        <v>4180</v>
+        <v>4275</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -88446,10 +88446,10 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>4181</v>
+        <v>4066</v>
       </c>
       <c r="B113" t="s">
-        <v>4182</v>
+        <v>4276</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -88469,10 +88469,10 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>4183</v>
+        <v>4067</v>
       </c>
       <c r="B114" t="s">
-        <v>4184</v>
+        <v>4277</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -88492,7 +88492,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>4185</v>
+        <v>4068</v>
       </c>
       <c r="H115" t="s">
         <v>866</v>
@@ -88503,16 +88503,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>4186</v>
+        <v>4069</v>
       </c>
       <c r="B116" t="s">
-        <v>4187</v>
+        <v>4278</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>4188</v>
+        <v>4070</v>
       </c>
       <c r="H116" t="s">
         <v>42</v>
@@ -88529,16 +88529,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>4189</v>
+        <v>4071</v>
       </c>
       <c r="B117" t="s">
-        <v>4190</v>
+        <v>4279</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>4191</v>
+        <v>4072</v>
       </c>
       <c r="H117" t="s">
         <v>42</v>
@@ -88552,16 +88552,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>4192</v>
+        <v>4073</v>
       </c>
       <c r="B118" t="s">
-        <v>4193</v>
+        <v>4280</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>4194</v>
+        <v>4074</v>
       </c>
       <c r="H118" t="s">
         <v>42</v>
@@ -88578,16 +88578,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>4195</v>
+        <v>4075</v>
       </c>
       <c r="B119" t="s">
-        <v>4196</v>
+        <v>4281</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>4197</v>
+        <v>4076</v>
       </c>
       <c r="H119" t="s">
         <v>42</v>
@@ -88601,16 +88601,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>4198</v>
+        <v>4077</v>
       </c>
       <c r="B120" t="s">
-        <v>4199</v>
+        <v>4282</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>4200</v>
+        <v>4078</v>
       </c>
       <c r="H120" t="s">
         <v>57</v>
@@ -88627,16 +88627,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>4201</v>
+        <v>4079</v>
       </c>
       <c r="B121" t="s">
-        <v>4202</v>
+        <v>4283</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>4203</v>
+        <v>4080</v>
       </c>
       <c r="H121" t="s">
         <v>57</v>
@@ -88653,16 +88653,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>4204</v>
+        <v>4081</v>
       </c>
       <c r="B122" t="s">
-        <v>4205</v>
+        <v>4284</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>4206</v>
+        <v>4082</v>
       </c>
       <c r="H122" t="s">
         <v>57</v>
@@ -88676,16 +88676,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>4207</v>
+        <v>4083</v>
       </c>
       <c r="B123" t="s">
-        <v>4208</v>
+        <v>4285</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>4209</v>
+        <v>4084</v>
       </c>
       <c r="H123" t="s">
         <v>42</v>
@@ -88702,16 +88702,16 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>4210</v>
+        <v>4085</v>
       </c>
       <c r="B124" t="s">
-        <v>4211</v>
+        <v>4286</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>4212</v>
+        <v>4086</v>
       </c>
       <c r="H124" t="s">
         <v>42</v>
@@ -88725,13 +88725,13 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>4213</v>
+        <v>4087</v>
       </c>
       <c r="B125" t="s">
-        <v>4214</v>
+        <v>4287</v>
       </c>
       <c r="D125" t="s">
-        <v>4215</v>
+        <v>4088</v>
       </c>
       <c r="H125" t="s">
         <v>42</v>
@@ -88748,13 +88748,13 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>4216</v>
+        <v>4089</v>
       </c>
       <c r="B126" t="s">
-        <v>4217</v>
+        <v>4288</v>
       </c>
       <c r="D126" t="s">
-        <v>4218</v>
+        <v>4090</v>
       </c>
       <c r="H126" t="s">
         <v>42</v>
@@ -88771,10 +88771,10 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>4219</v>
+        <v>4091</v>
       </c>
       <c r="B127" t="s">
-        <v>4220</v>
+        <v>4289</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -88791,10 +88791,10 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>4221</v>
+        <v>4092</v>
       </c>
       <c r="B128" t="s">
-        <v>4222</v>
+        <v>4290</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -88811,10 +88811,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>4223</v>
+        <v>4093</v>
       </c>
       <c r="B129" t="s">
-        <v>4224</v>
+        <v>4291</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -88831,10 +88831,10 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>4225</v>
+        <v>4094</v>
       </c>
       <c r="B130" t="s">
-        <v>4226</v>
+        <v>4292</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -88851,10 +88851,10 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>4227</v>
+        <v>4095</v>
       </c>
       <c r="B131" t="s">
-        <v>4228</v>
+        <v>4293</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -88871,10 +88871,10 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>4229</v>
+        <v>4096</v>
       </c>
       <c r="B132" t="s">
-        <v>4230</v>
+        <v>4294</v>
       </c>
       <c r="H132" t="s">
         <v>57</v>
@@ -88888,10 +88888,10 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>4231</v>
+        <v>4097</v>
       </c>
       <c r="B133" t="s">
-        <v>4232</v>
+        <v>4295</v>
       </c>
       <c r="H133" t="s">
         <v>42</v>
@@ -88908,7 +88908,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>4247</v>
+        <v>4107</v>
       </c>
       <c r="H134" t="s">
         <v>866</v>
@@ -88919,10 +88919,10 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>4248</v>
+        <v>4108</v>
       </c>
       <c r="B135" t="s">
-        <v>4249</v>
+        <v>4301</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -88939,10 +88939,10 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>4250</v>
+        <v>4109</v>
       </c>
       <c r="B136" t="s">
-        <v>4251</v>
+        <v>4302</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -88962,10 +88962,10 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>4252</v>
+        <v>4110</v>
       </c>
       <c r="B137" t="s">
-        <v>4253</v>
+        <v>4303</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -88982,10 +88982,10 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>4254</v>
+        <v>4111</v>
       </c>
       <c r="B138" t="s">
-        <v>4255</v>
+        <v>4304</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -89002,10 +89002,10 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>4256</v>
+        <v>4112</v>
       </c>
       <c r="B139" t="s">
-        <v>4257</v>
+        <v>4305</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -89022,10 +89022,10 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>4258</v>
+        <v>4113</v>
       </c>
       <c r="B140" t="s">
-        <v>4259</v>
+        <v>4306</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -89042,10 +89042,10 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>4260</v>
+        <v>4114</v>
       </c>
       <c r="B141" t="s">
-        <v>4261</v>
+        <v>4307</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -89062,10 +89062,10 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>4262</v>
+        <v>4115</v>
       </c>
       <c r="B142" t="s">
-        <v>4263</v>
+        <v>4308</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -89085,10 +89085,10 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>4264</v>
+        <v>4116</v>
       </c>
       <c r="B143" t="s">
-        <v>4265</v>
+        <v>4309</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -89108,10 +89108,10 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>4266</v>
+        <v>4117</v>
       </c>
       <c r="B144" t="s">
-        <v>4267</v>
+        <v>4310</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -89131,10 +89131,10 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>4268</v>
+        <v>4118</v>
       </c>
       <c r="B145" t="s">
-        <v>4269</v>
+        <v>4311</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -89157,16 +89157,16 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>4270</v>
+        <v>4119</v>
       </c>
       <c r="B146" t="s">
-        <v>4271</v>
+        <v>4312</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>4272</v>
+        <v>4120</v>
       </c>
       <c r="H146" t="s">
         <v>42</v>
@@ -89180,7 +89180,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>4273</v>
+        <v>4121</v>
       </c>
       <c r="H147" t="s">
         <v>866</v>
@@ -89191,10 +89191,10 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>4274</v>
+        <v>4122</v>
       </c>
       <c r="B148" t="s">
-        <v>4275</v>
+        <v>4313</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -89217,7 +89217,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>4276</v>
+        <v>4123</v>
       </c>
       <c r="H149" t="s">
         <v>866</v>
@@ -89228,10 +89228,10 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>4277</v>
+        <v>4124</v>
       </c>
       <c r="B150" t="s">
-        <v>4278</v>
+        <v>4314</v>
       </c>
       <c r="H150" t="s">
         <v>57</v>
@@ -89245,10 +89245,10 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>4279</v>
+        <v>4125</v>
       </c>
       <c r="B151" t="s">
-        <v>4280</v>
+        <v>4315</v>
       </c>
       <c r="H151" t="s">
         <v>57</v>
@@ -89262,10 +89262,10 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>4281</v>
+        <v>4126</v>
       </c>
       <c r="B152" t="s">
-        <v>4282</v>
+        <v>4316</v>
       </c>
       <c r="H152" t="s">
         <v>57</v>
@@ -89279,10 +89279,10 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>4283</v>
+        <v>4127</v>
       </c>
       <c r="B153" t="s">
-        <v>4284</v>
+        <v>4317</v>
       </c>
       <c r="H153" t="s">
         <v>57</v>
@@ -89296,10 +89296,10 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>4285</v>
+        <v>4128</v>
       </c>
       <c r="B154" t="s">
-        <v>4286</v>
+        <v>4318</v>
       </c>
       <c r="H154" t="s">
         <v>57</v>
@@ -89313,10 +89313,10 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>4287</v>
+        <v>4129</v>
       </c>
       <c r="B155" t="s">
-        <v>4288</v>
+        <v>4319</v>
       </c>
       <c r="H155" t="s">
         <v>57</v>
@@ -89330,10 +89330,10 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>4289</v>
+        <v>4130</v>
       </c>
       <c r="B156" t="s">
-        <v>4290</v>
+        <v>4320</v>
       </c>
       <c r="H156" t="s">
         <v>57</v>
@@ -89347,10 +89347,10 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>4291</v>
+        <v>4131</v>
       </c>
       <c r="B157" t="s">
-        <v>4292</v>
+        <v>4321</v>
       </c>
       <c r="H157" t="s">
         <v>57</v>
@@ -89364,10 +89364,10 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>4293</v>
+        <v>4132</v>
       </c>
       <c r="B158" t="s">
-        <v>4294</v>
+        <v>4322</v>
       </c>
       <c r="H158" t="s">
         <v>57</v>
@@ -89381,10 +89381,10 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>4295</v>
+        <v>4133</v>
       </c>
       <c r="B159" t="s">
-        <v>4296</v>
+        <v>4323</v>
       </c>
       <c r="H159" t="s">
         <v>57</v>
@@ -89398,10 +89398,10 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>4297</v>
+        <v>4134</v>
       </c>
       <c r="B160" t="s">
-        <v>4298</v>
+        <v>4324</v>
       </c>
       <c r="H160" t="s">
         <v>57</v>
@@ -89415,10 +89415,10 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>4299</v>
+        <v>4135</v>
       </c>
       <c r="B161" t="s">
-        <v>4300</v>
+        <v>4325</v>
       </c>
       <c r="H161" t="s">
         <v>57</v>
@@ -89432,10 +89432,10 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>4301</v>
+        <v>4136</v>
       </c>
       <c r="B162" t="s">
-        <v>4302</v>
+        <v>4326</v>
       </c>
       <c r="H162" t="s">
         <v>57</v>
@@ -89449,10 +89449,10 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>4303</v>
+        <v>4137</v>
       </c>
       <c r="B163" t="s">
-        <v>4304</v>
+        <v>4327</v>
       </c>
       <c r="H163" t="s">
         <v>57</v>
@@ -89466,10 +89466,10 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>4305</v>
+        <v>4138</v>
       </c>
       <c r="B164" t="s">
-        <v>4306</v>
+        <v>4328</v>
       </c>
       <c r="H164" t="s">
         <v>57</v>
@@ -89483,10 +89483,10 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>4307</v>
+        <v>4139</v>
       </c>
       <c r="B165" t="s">
-        <v>4308</v>
+        <v>4329</v>
       </c>
       <c r="H165" t="s">
         <v>57</v>
@@ -89500,10 +89500,10 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>4309</v>
+        <v>4140</v>
       </c>
       <c r="B166" t="s">
-        <v>4310</v>
+        <v>4330</v>
       </c>
       <c r="H166" t="s">
         <v>57</v>
@@ -89517,10 +89517,10 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>4311</v>
+        <v>4141</v>
       </c>
       <c r="B167" t="s">
-        <v>4312</v>
+        <v>4331</v>
       </c>
       <c r="H167" t="s">
         <v>57</v>
@@ -89534,10 +89534,10 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>4313</v>
+        <v>4142</v>
       </c>
       <c r="B168" t="s">
-        <v>4314</v>
+        <v>4332</v>
       </c>
       <c r="H168" t="s">
         <v>57</v>
@@ -89551,10 +89551,10 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>4315</v>
+        <v>4143</v>
       </c>
       <c r="B169" t="s">
-        <v>4316</v>
+        <v>4333</v>
       </c>
       <c r="H169" t="s">
         <v>57</v>
@@ -89568,7 +89568,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>4317</v>
+        <v>4144</v>
       </c>
       <c r="H170" t="s">
         <v>866</v>
@@ -89579,16 +89579,16 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>4318</v>
+        <v>4145</v>
       </c>
       <c r="B171" t="s">
-        <v>4319</v>
+        <v>4334</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>4320</v>
+        <v>4146</v>
       </c>
       <c r="H171" t="s">
         <v>42</v>
@@ -89602,16 +89602,16 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>4321</v>
+        <v>4147</v>
       </c>
       <c r="B172" t="s">
-        <v>4322</v>
+        <v>4335</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>4323</v>
+        <v>4148</v>
       </c>
       <c r="H172" t="s">
         <v>42</v>
@@ -89625,19 +89625,19 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>4324</v>
+        <v>4149</v>
       </c>
       <c r="B173" t="s">
-        <v>4325</v>
+        <v>4336</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>4326</v>
+        <v>4150</v>
       </c>
       <c r="F173" t="s">
-        <v>4327</v>
+        <v>4151</v>
       </c>
       <c r="H173" t="s">
         <v>42</v>
@@ -89654,16 +89654,16 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>4328</v>
+        <v>4152</v>
       </c>
       <c r="B174" t="s">
-        <v>4329</v>
+        <v>4337</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>4330</v>
+        <v>4153</v>
       </c>
       <c r="F174" t="s">
         <v>37</v>
@@ -89683,16 +89683,16 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>4331</v>
+        <v>4154</v>
       </c>
       <c r="B175" t="s">
-        <v>4332</v>
+        <v>4338</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>4333</v>
+        <v>4155</v>
       </c>
       <c r="F175" t="s">
         <v>68</v>
@@ -89712,16 +89712,16 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>4334</v>
+        <v>4156</v>
       </c>
       <c r="B176" t="s">
-        <v>4335</v>
+        <v>4339</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>4336</v>
+        <v>4157</v>
       </c>
       <c r="F176" t="s">
         <v>68</v>
@@ -89741,16 +89741,16 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>4337</v>
+        <v>4158</v>
       </c>
       <c r="B177" t="s">
-        <v>4338</v>
+        <v>4340</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>4339</v>
+        <v>4159</v>
       </c>
       <c r="H177" t="s">
         <v>42</v>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B9B972-16AC-47B1-936B-65034B0EAC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC0FB1A-EBB1-4576-9419-41CCEE55BB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8916" tabRatio="500" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7044" yWindow="816" windowWidth="17280" windowHeight="8916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19486" uniqueCount="4341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19492" uniqueCount="4346">
   <si>
     <t>name</t>
   </si>
@@ -13066,13 +13066,28 @@
   </si>
   <si>
     <t>0x01fa</t>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00, 0x01, 0x59, 0x2B, 0x03</t>
+  </si>
+  <si>
+    <t>0x40, 0x10, 0x18, 0x04</t>
+  </si>
+  <si>
+    <t>0x40, 0x5F, 0xFF, 0x00</t>
+  </si>
+  <si>
+    <t>0x40, 0x20, 0x02, 0x04</t>
+  </si>
+  <si>
+    <t>0x40, 0x10, 0x08, 0x00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -13132,6 +13147,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -13642,8 +13663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13652,7 +13673,7 @@
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -13698,6 +13719,9 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>4345</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -13712,6 +13736,9 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>4344</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -13726,6 +13753,9 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>4343</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13740,6 +13770,9 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" t="s">
+        <v>4342</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -13754,6 +13787,9 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
+      <c r="E6" t="s">
+        <v>4341</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -13768,8 +13804,12 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
+      <c r="E7" t="s">
+        <v>4341</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -16580,7 +16620,7 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18433,8 +18473,8 @@
   <dimension ref="A1:M891"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B313" sqref="B313"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45858,8 +45898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M1240"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A183" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -81796,8 +81836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -86004,8 +86044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC0FB1A-EBB1-4576-9419-41CCEE55BB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66350AA-00CC-4323-A118-210D2949413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7044" yWindow="816" windowWidth="17280" windowHeight="8916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13664,7 +13664,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13750,7 +13750,7 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66350AA-00CC-4323-A118-210D2949413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F864D28-CD6E-4BD0-B023-16BEE1339708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7044" yWindow="816" windowWidth="17280" windowHeight="8916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3132" yWindow="756" windowWidth="17280" windowHeight="8916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -13068,19 +13068,19 @@
     <t>0x01fa</t>
   </si>
   <si>
-    <t>0x00, 0x00, 0x00, 0x00, 0x01, 0x59, 0x2B, 0x03</t>
-  </si>
-  <si>
     <t>0x40, 0x10, 0x18, 0x04</t>
   </si>
   <si>
-    <t>0x40, 0x5F, 0xFF, 0x00</t>
-  </si>
-  <si>
-    <t>0x40, 0x20, 0x02, 0x04</t>
-  </si>
-  <si>
     <t>0x40, 0x10, 0x08, 0x00</t>
+  </si>
+  <si>
+    <t>0x40, 0xFF, 0x5F, 0x00</t>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00, 0x59, 0x01, 0x2B, 0x03</t>
+  </si>
+  <si>
+    <t>0x40, 0x02, 0x20, 0x04</t>
   </si>
 </sst>
 </file>
@@ -13664,7 +13664,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13720,7 +13720,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>4345</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -13737,7 +13737,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -13771,7 +13771,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -13788,7 +13788,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>4341</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -13805,7 +13805,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>4341</v>
+        <v>4344</v>
       </c>
     </row>
   </sheetData>
@@ -17598,7 +17598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F864D28-CD6E-4BD0-B023-16BEE1339708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9868B5F6-8417-467F-B70A-71D5E887B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3132" yWindow="756" windowWidth="17280" windowHeight="8916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F864D28-CD6E-4BD0-B023-16BEE1339708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17210B0-6320-4710-B5AF-E911C73D2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3132" yWindow="756" windowWidth="17280" windowHeight="8916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19492" uniqueCount="4346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19496" uniqueCount="4348">
   <si>
     <t>name</t>
   </si>
@@ -13081,6 +13081,12 @@
   </si>
   <si>
     <t>0x40, 0x02, 0x20, 0x04</t>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x2B, 0x03</t>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00, 0x2a, 0x00, 0x2B, 0x03</t>
   </si>
 </sst>
 </file>
@@ -13664,7 +13670,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13673,9 +13679,7 @@
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="41.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
@@ -13790,6 +13794,12 @@
       <c r="E6" t="s">
         <v>4344</v>
       </c>
+      <c r="F6" t="s">
+        <v>4347</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4346</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -13806,6 +13816,12 @@
       </c>
       <c r="E7" t="s">
         <v>4344</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4347</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4346</v>
       </c>
     </row>
   </sheetData>
@@ -16619,8 +16635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A50" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -81836,7 +81852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
@@ -86044,7 +86060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17210B0-6320-4710-B5AF-E911C73D2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AF97C0-E14A-43BE-A80F-90703FC11F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="756" windowWidth="17280" windowHeight="8916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3828" yWindow="1452" windowWidth="17280" windowHeight="8916" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1BF46F33-80A9-44CC-9E7B-F99367050B46}</author>
+    <author>tc={1F586E14-F2BE-4090-8215-450A5A247A05}</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1BF46F33-80A9-44CC-9E7B-F99367050B46}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    вообщето это версия прошивки</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{1F586E14-F2BE-4090-8215-450A5A247A05}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    вообще то это версия сборки</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19496" uniqueCount="4348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19505" uniqueCount="4355">
   <si>
     <t>name</t>
   </si>
@@ -13087,6 +13114,27 @@
   </si>
   <si>
     <t>0x00, 0x00, 0x00, 0x00, 0x2a, 0x00, 0x2B, 0x03</t>
+  </si>
+  <si>
+    <t>errors_list</t>
+  </si>
+  <si>
+    <t>{0x000001: 'Защита от снижения напряжения в ЗПТ', 0x000002: 'Защита от повышения напряжения в ЗПТ', 0x000004: 'Фазный сверхток', 0x000008: 'Сверхток в обмотке возбуждения', 0x000010: 'Сверхток в звене постоянного тока', 0x000020: 'Защита драйверов трёхфазного моста', 0x000040: 'Защита драйверов регулятора тока обмотки возбуждения', 0x000080: 'Температурная защита силовых ключей', 0x000100: 'Температурная защита преобразователя', 0x000200: 'Температурная защита двигателя', 0x000400: 'Температурная защита обмотки возбуждения', 0x000800: 'Потеря соединения по CAN-шине', 0x001000: 'Ошибка передачи данных по CAN-шине', 0x002000: 'Программная ошибка', 0x004000: 'Аппаратная ошибка', 0x008000: 'Отказ датчика фазного тока', 0x010000: 'Отказ датчика тока возбуждения', 0x020000: 'Отказ датчика тока звена постоянного тока', 0x040000: 'Аварийный останов', 0x080000: 'Ошибка включения контакторов', 0x100000: 'Ошибка ДПР', }</t>
+  </si>
+  <si>
+    <t>0x40, 0xFF, 0x5F, 0x01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x40, 0x00, 0x20, 0x02 </t>
+  </si>
+  <si>
+    <t>0x20, 0x02, 0x20, 0x05</t>
+  </si>
+  <si>
+    <t>5, 0, 0, 0, 0xF4, 0x01, 0x2B, 0x10</t>
+  </si>
+  <si>
+    <t>{0x1: 'авария модуля', 0x4: 'авария датчика положения/калибровки', 0x80: 'перегрев силового радиатора', 0x200: 'перенапряжение Udc', 0x400: 'понижение напряжения Udc', 0x2000: 'длительная токовая перегрузка', 0x4000: 'неправильная полярность DC-мотора'}</t>
   </si>
 </sst>
 </file>
@@ -13368,6 +13416,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Timofey Inozemtsev" id="{ED98C396-03A4-461F-8003-53CD8A798176}" userId="S::timofey.inozemtsev@evocargo.com::1f298891-f693-448d-a6ac-2dd1a04f4746" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13665,12 +13719,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E4" dT="2022-08-22T18:41:04.23" personId="{ED98C396-03A4-461F-8003-53CD8A798176}" id="{1BF46F33-80A9-44CC-9E7B-F99367050B46}">
+    <text>вообщето это версия прошивки</text>
+  </threadedComment>
+  <threadedComment ref="F4" dT="2022-08-22T18:40:41.25" personId="{ED98C396-03A4-461F-8003-53CD8A798176}" id="{1F586E14-F2BE-4090-8215-450A5A247A05}">
+    <text>вообще то это версия сборки</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView topLeftCell="I1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13680,11 +13745,12 @@
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13709,8 +13775,11 @@
       <c r="H1" t="s">
         <v>3854</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -13727,7 +13796,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -13744,7 +13813,7 @@
         <v>4345</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -13760,8 +13829,20 @@
       <c r="E4" t="s">
         <v>4343</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>4350</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4351</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4352</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -13778,7 +13859,7 @@
         <v>4341</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -13800,8 +13881,14 @@
       <c r="G6" t="s">
         <v>4346</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>4353</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -13822,6 +13909,12 @@
       </c>
       <c r="G7" t="s">
         <v>4346</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4353</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4354</v>
       </c>
     </row>
   </sheetData>
@@ -13832,6 +13925,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16635,8 +16729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18488,9 +18582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M891"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L609" sqref="L609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AF97C0-E14A-43BE-A80F-90703FC11F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F0086-AC53-46A8-8C18-D44929065347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3828" yWindow="1452" windowWidth="17280" windowHeight="8916" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19505" uniqueCount="4355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19509" uniqueCount="4359">
   <si>
     <t>name</t>
   </si>
@@ -13135,6 +13135,18 @@
   </si>
   <si>
     <t>{0x1: 'авария модуля', 0x4: 'авария датчика положения/калибровки', 0x80: 'перегрев силового радиатора', 0x200: 'перенапряжение Udc', 0x400: 'понижение напряжения Udc', 0x2000: 'длительная токовая перегрузка', 0x4000: 'неправильная полярность DC-мотора'}</t>
+  </si>
+  <si>
+    <t>{0x1: 'Критическая ошибка ПСТЭД', 0x2: 'Критическая ошибка передней рулевой рейки', 0x4: 'Критическая ошибка задней рулевой рейки', 0x8: 'Критическая ошибка сервопривода 1 тормозной системы', 0x10: 'Критическая ошибка сервопривода 2 тормозной системы', 0x20: 'Сработала кнопка аварийной остановки', 0x40: 'NO_RUN_PSTED    ', 0x80: 'U_DC_SENSOR     ', 0x100: 'U_DC_SENSOR_LOW ', 0x200: 'U_DC_SENSOR_HIGH', 0x400: 'Нет связи с ПСТЭД', 0x800: 'Нет связи с передней рулевой рейкой', 0x1000: 'Нет связи с задней рулевой рейкой', 0x2000: 'Нет связи с БКУ', 0x4000: 'Нет связи с сервоприводом 2 тормозной системы', 0x8000: 'Нет связи с сервоприводом 1 тормозной системы', 0x10000: 'Ошибка загрузки сохраненных параметров из EEPROM', 0x20000: 'Фоновый цикл вызывается слишком редко', 0x40000: 'Прерывание 80кГц выходит за пределы своего бюджета времени', 0x80000: 'Прерывание 10кГц выходит за пределы своего бюджета времени', 0x100000: 'Прерывание 1кГц выходит за пределы своего бюджета времени', 0x200000: 'Ошибка входа 1 PPM (Управление по радиоканалу)', 0x400000: 'Ошибка входа 2 PPM (Управление по радиоканалу)', 0x800000: 'Ошибка входа 3 PPM (Управление по радиоканалу)', 0x1000000: 'Ошибка входа 4 PPM (Управление по радиоканалу)', 0x2000000: 'Ошибка управления по радиоканалу', 0x4000000: 'Ошибка бортового зарядного устройства', 0x8000000: 'Нет свзи с бортовым зарядным устройством', 0x10000000: 'Сработал датчик уровня тормозной жидкости', 0x20000000: 'Сработал датчик уровня охлаждающей жидкости', 0x40000000: 'BMS Fault'}</t>
+  </si>
+  <si>
+    <t>0x40, 0x0d, 0x5b, 0x03; 0x40, 0x0d, 0x5b, 0x04; 0x40, 0x0d, 0x5b, 0x05; 0x40, 0x0d, 0x5b, 0x06</t>
+  </si>
+  <si>
+    <t>0x20, 0x0d, 0x5b, 0x02</t>
+  </si>
+  <si>
+    <t>{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', 33028: 'PSTED   Phys limits', 33029: 'PSTED   Contactor fault', 33030: 'PSTED   Software and config', 33031: 'PSTED   Precharge fault', 33034: 'PSTED   Other errors', 35072: 'POWER MANAGEMENT   Mass relay pin', 35073: 'POWER MANAGEMENT   BKU turnoff pin'}</t>
   </si>
 </sst>
 </file>
@@ -13734,8 +13746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13795,6 +13807,9 @@
       <c r="E2" t="s">
         <v>4342</v>
       </c>
+      <c r="I2" t="s">
+        <v>4358</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -13811,6 +13826,15 @@
       </c>
       <c r="E3" t="s">
         <v>4345</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4356</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4357</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4355</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -14812,7 +14836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
@@ -18582,9 +18606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M891"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L609" sqref="L609"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B498" sqref="B498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F0086-AC53-46A8-8C18-D44929065347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9AC4F0-E60E-4BEA-88C3-8ED565024E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4524" yWindow="2148" windowWidth="17280" windowHeight="8916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19509" uniqueCount="4359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19510" uniqueCount="4360">
   <si>
     <t>name</t>
   </si>
@@ -13147,6 +13147,9 @@
   </si>
   <si>
     <t>{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', 33028: 'PSTED   Phys limits', 33029: 'PSTED   Contactor fault', 33030: 'PSTED   Software and config', 33031: 'PSTED   Precharge fault', 33034: 'PSTED   Other errors', 35072: 'POWER MANAGEMENT   Mass relay pin', 35073: 'POWER MANAGEMENT   BKU turnoff pin'}</t>
+  </si>
+  <si>
+    <t>0x40, 0x15, 0x21, 0x01</t>
   </si>
 </sst>
 </file>
@@ -13746,8 +13749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13806,6 +13809,9 @@
       </c>
       <c r="E2" t="s">
         <v>4342</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4359</v>
       </c>
       <c r="I2" t="s">
         <v>4358</v>
@@ -14836,7 +14842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A137" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9AC4F0-E60E-4BEA-88C3-8ED565024E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095EF4BB-BD70-4086-BB89-56C2254C568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4524" yWindow="2148" windowWidth="17280" windowHeight="8916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19510" uniqueCount="4360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19512" uniqueCount="4362">
   <si>
     <t>name</t>
   </si>
@@ -13122,9 +13122,6 @@
     <t>{0x000001: 'Защита от снижения напряжения в ЗПТ', 0x000002: 'Защита от повышения напряжения в ЗПТ', 0x000004: 'Фазный сверхток', 0x000008: 'Сверхток в обмотке возбуждения', 0x000010: 'Сверхток в звене постоянного тока', 0x000020: 'Защита драйверов трёхфазного моста', 0x000040: 'Защита драйверов регулятора тока обмотки возбуждения', 0x000080: 'Температурная защита силовых ключей', 0x000100: 'Температурная защита преобразователя', 0x000200: 'Температурная защита двигателя', 0x000400: 'Температурная защита обмотки возбуждения', 0x000800: 'Потеря соединения по CAN-шине', 0x001000: 'Ошибка передачи данных по CAN-шине', 0x002000: 'Программная ошибка', 0x004000: 'Аппаратная ошибка', 0x008000: 'Отказ датчика фазного тока', 0x010000: 'Отказ датчика тока возбуждения', 0x020000: 'Отказ датчика тока звена постоянного тока', 0x040000: 'Аварийный останов', 0x080000: 'Ошибка включения контакторов', 0x100000: 'Ошибка ДПР', }</t>
   </si>
   <si>
-    <t>0x40, 0xFF, 0x5F, 0x01</t>
-  </si>
-  <si>
     <t xml:space="preserve">0x40, 0x00, 0x20, 0x02 </t>
   </si>
   <si>
@@ -13150,6 +13147,15 @@
   </si>
   <si>
     <t>0x40, 0x15, 0x21, 0x01</t>
+  </si>
+  <si>
+    <t>0x40, 0x01, 0x27, 0x0e</t>
+  </si>
+  <si>
+    <t>0x40, 0x08, 0x10, 0x00</t>
+  </si>
+  <si>
+    <t>0x40, 0x10, 0x08, 0x01</t>
   </si>
 </sst>
 </file>
@@ -13750,7 +13756,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13810,11 +13816,14 @@
       <c r="E2" t="s">
         <v>4342</v>
       </c>
+      <c r="F2" t="s">
+        <v>4361</v>
+      </c>
       <c r="G2" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="I2" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -13833,14 +13842,17 @@
       <c r="E3" t="s">
         <v>4345</v>
       </c>
+      <c r="F3" t="s">
+        <v>4359</v>
+      </c>
       <c r="G3" t="s">
+        <v>4355</v>
+      </c>
+      <c r="H3" t="s">
         <v>4356</v>
       </c>
-      <c r="H3" t="s">
-        <v>4357</v>
-      </c>
       <c r="I3" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -13857,16 +13869,16 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>4360</v>
+      </c>
+      <c r="F4" t="s">
         <v>4343</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4350</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>4351</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4352</v>
       </c>
       <c r="I4" t="s">
         <v>4349</v>
@@ -13912,10 +13924,10 @@
         <v>4346</v>
       </c>
       <c r="H6" t="s">
+        <v>4352</v>
+      </c>
+      <c r="I6" t="s">
         <v>4353</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4354</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -13941,10 +13953,10 @@
         <v>4346</v>
       </c>
       <c r="H7" t="s">
+        <v>4352</v>
+      </c>
+      <c r="I7" t="s">
         <v>4353</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4354</v>
       </c>
     </row>
   </sheetData>
@@ -16759,8 +16771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17738,7 +17750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -18613,8 +18625,8 @@
   <dimension ref="A1:M891"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B498" sqref="B498"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3755F2C-8212-4F8A-8780-D2991EE6765E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFAE0C1-BB61-43A6-B310-CFF1E3006F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Инвертор_Цикл+ ПСТЭД" sheetId="7" r:id="rId7"/>
     <sheet name="Рулевая_перед_Томск Все парамет" sheetId="8" r:id="rId8"/>
     <sheet name="Рулевая_зад_Томск Все параметры" sheetId="9" r:id="rId9"/>
+    <sheet name=" ТАБ" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19522" uniqueCount="4371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19642" uniqueCount="4434">
   <si>
     <t>name</t>
   </si>
@@ -13220,12 +13221,201 @@
   <si>
     <t xml:space="preserve">0x40, 0x10, 0x0A, 0x00 </t>
   </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %</t>
+  </si>
+  <si>
+    <t>0x420007</t>
+  </si>
+  <si>
+    <t>DOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah</t>
+  </si>
+  <si>
+    <t>SOH</t>
+  </si>
+  <si>
+    <t>Balancing efficiency</t>
+  </si>
+  <si>
+    <t>Maximum capacity</t>
+  </si>
+  <si>
+    <t>Effective capacity</t>
+  </si>
+  <si>
+    <t>Coulomb counter</t>
+  </si>
+  <si>
+    <t>Logic count</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Logic tmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> °C</t>
+  </si>
+  <si>
+    <t>number Logic tmin</t>
+  </si>
+  <si>
+    <t>Logic tmax</t>
+  </si>
+  <si>
+    <t>number Logic tmax</t>
+  </si>
+  <si>
+    <t>Cell  tmin</t>
+  </si>
+  <si>
+    <t>Cell  tmin number module</t>
+  </si>
+  <si>
+    <t>Cell  tmin number</t>
+  </si>
+  <si>
+    <t>Cell tmax</t>
+  </si>
+  <si>
+    <t>Cell tmax number module</t>
+  </si>
+  <si>
+    <t>Cell tmax number</t>
+  </si>
+  <si>
+    <t>Cell Umin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V</t>
+  </si>
+  <si>
+    <t>Cell Umin number module</t>
+  </si>
+  <si>
+    <t>Cell Umin number</t>
+  </si>
+  <si>
+    <t>Cell Umax</t>
+  </si>
+  <si>
+    <t>Cell Umax number module</t>
+  </si>
+  <si>
+    <t>Cell Umax number</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hm</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A</t>
+  </si>
+  <si>
+    <t>0x407009</t>
+  </si>
+  <si>
+    <t>0x407008</t>
+  </si>
+  <si>
+    <t>0x407007</t>
+  </si>
+  <si>
+    <t>0x250001</t>
+  </si>
+  <si>
+    <t>0x407006</t>
+  </si>
+  <si>
+    <t>0x40703A</t>
+  </si>
+  <si>
+    <t>0x40703B</t>
+  </si>
+  <si>
+    <t>0x407002</t>
+  </si>
+  <si>
+    <t>0x407003</t>
+  </si>
+  <si>
+    <t>0x40700A</t>
+  </si>
+  <si>
+    <t>0x40700B</t>
+  </si>
+  <si>
+    <t>0x40700C</t>
+  </si>
+  <si>
+    <t>0x40700D</t>
+  </si>
+  <si>
+    <t>0x40700F</t>
+  </si>
+  <si>
+    <t>0x407010</t>
+  </si>
+  <si>
+    <t>0x407011</t>
+  </si>
+  <si>
+    <t>0x407012</t>
+  </si>
+  <si>
+    <t>0x407013</t>
+  </si>
+  <si>
+    <t>0x407014</t>
+  </si>
+  <si>
+    <t>0x407015</t>
+  </si>
+  <si>
+    <t>0x407016</t>
+  </si>
+  <si>
+    <t>0x407017</t>
+  </si>
+  <si>
+    <t>0x407018</t>
+  </si>
+  <si>
+    <t>0x407019</t>
+  </si>
+  <si>
+    <t>0x40701A</t>
+  </si>
+  <si>
+    <t>0x407004</t>
+  </si>
+  <si>
+    <t>0x407005</t>
+  </si>
+  <si>
+    <t>0x401400</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -13293,6 +13483,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -13369,7 +13580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13418,6 +13629,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -13804,7 +14028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -14047,6 +14271,635 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB4526C-A2A7-41E4-AC12-8D51D841E190}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>3881</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>3880</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>4372</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4406</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>4375</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="K4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>4372</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="K5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>4372</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="K6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>4375</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="K7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>4375</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="K8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>4411</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="K9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>4375</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="K10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>4384</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="K13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25" t="s">
+        <v>4384</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="K15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>4384</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="K17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="K19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
+        <v>4384</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="K21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4424</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25" t="s">
+        <v>4395</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="K24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="K25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25" t="s">
+        <v>4395</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="K27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="K28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25" t="s">
+        <v>4395</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="K29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25" t="s">
+        <v>4403</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="K30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25" t="s">
+        <v>4405</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="K31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17823,7 +18676,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46121,8 +46974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M1240"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -86266,8 +87119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tables/table_for_params_new_VMU1.xlsx
+++ b/Tables/table_for_params_new_VMU1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2250DC49-DAF4-4E24-9FB8-3AEA6B5B3F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCC2473-B09A-4B99-82CA-E28D41A69A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -87,8 +87,96 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4496EE62-48CD-4CB3-BBE2-D1752C543DCA}</author>
+    <author>tc={A715004E-154C-474E-AC5C-F9611925FFBC}</author>
+    <author>tc={3051716B-49F7-49E3-B922-F67DB4ECF114}</author>
+    <author>tc={B4AAAA8B-39BE-47D0-B03A-BF20C63C4D46}</author>
+    <author>tc={7015FE99-0435-429F-9B9F-5553E9B8638B}</author>
+    <author>tc={5718AF7E-DC8B-4B4C-99D1-B7866A710FD4}</author>
+    <author>tc={24EFD64F-B614-4BAD-B762-A12E23E97485}</author>
+    <author>tc={39C4B1EE-0761-4EC1-9C7C-CCC45508B59C}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4496EE62-48CD-4CB3-BBE2-D1752C543DCA}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    индекс+сабиндекс в HEX</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{A715004E-154C-474E-AC5C-F9611925FFBC}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Очень полезное поле описание на русском, зачем нужен этот параметр</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{3051716B-49F7-49E3-B922-F67DB4ECF114}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Коэф , на который делится значение, полученное из КАН
+parametr = value/ scale - scaleB</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{B4AAAA8B-39BE-47D0-B03A-BF20C63C4D46}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    смещение в минус значения полученного из КАН
+parametr = value/ scale - scaleB</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{7015FE99-0435-429F-9B9F-5553E9B8638B}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    фигня какя-то , остатки РТКОНА, можно использовать это поле по своему усмотрению</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{5718AF7E-DC8B-4B4C-99D1-B7866A710FD4}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    фигня какя-то , остатки РТКОНА, можно использовать это поле по своему усмотрению</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="6" shapeId="0" xr:uid="{24EFD64F-B614-4BAD-B762-A12E23E97485}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Скакой частотой следует опрашивать параметр
+1 - каждый цикл(часто изменяемый параметр, типа тока или угла поворота)
+1000 - опрос раз в 1000 циклов(что-то некритичное, типа номера блока или серийника)
+например, для медленно меняющейся температуры стоит выбрать цифру 50-200</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="7" shapeId="0" xr:uid="{39C4B1EE-0761-4EC1-9C7C-CCC45508B59C}">
+      <text>
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
+    Степень десятки, на которую делится значение из КАН
+parametr = value / (10 ^ degree)
+можно не использовать</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20822" uniqueCount="4598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20906" uniqueCount="4604">
   <si>
     <t>name</t>
   </si>
@@ -13902,12 +13990,30 @@
   <si>
     <t>0x21600f</t>
   </si>
+  <si>
+    <t>мВ</t>
+  </si>
+  <si>
+    <t>мкс</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>мбар</t>
+  </si>
+  <si>
+    <t>об.мин</t>
+  </si>
+  <si>
+    <t>м/с</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -13997,6 +14103,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -14072,7 +14184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -14136,6 +14248,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -14219,6 +14332,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Timofey Inozemtsev" id="{4CDA4321-2837-4C2F-90EC-3775E3473EDB}" userId="S::timofey.inozemtsev@evocargo.com::1f298891-f693-448d-a6ac-2dd1a04f4746" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14516,12 +14635,48 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2022-09-09T13:00:52.26" personId="{4CDA4321-2837-4C2F-90EC-3775E3473EDB}" id="{4496EE62-48CD-4CB3-BBE2-D1752C543DCA}">
+    <text>индекс+сабиндекс в HEX</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2022-09-09T13:01:41.53" personId="{4CDA4321-2837-4C2F-90EC-3775E3473EDB}" id="{A715004E-154C-474E-AC5C-F9611925FFBC}">
+    <text>Очень полезное поле описание на русском, зачем нужен этот параметр</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2022-09-09T13:05:59.20" personId="{4CDA4321-2837-4C2F-90EC-3775E3473EDB}" id="{3051716B-49F7-49E3-B922-F67DB4ECF114}">
+    <text>Коэф , на который делится значение, полученное из КАН
+parametr = value/ scale - scaleB</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2022-09-09T12:54:11.47" personId="{4CDA4321-2837-4C2F-90EC-3775E3473EDB}" id="{B4AAAA8B-39BE-47D0-B03A-BF20C63C4D46}">
+    <text>смещение в минус значения полученного из КАН
+parametr = value/ scale - scaleB</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2022-09-09T12:55:43.66" personId="{4CDA4321-2837-4C2F-90EC-3775E3473EDB}" id="{7015FE99-0435-429F-9B9F-5553E9B8638B}">
+    <text>фигня какя-то , остатки РТКОНА, можно использовать это поле по своему усмотрению</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2022-09-09T12:55:54.63" personId="{4CDA4321-2837-4C2F-90EC-3775E3473EDB}" id="{5718AF7E-DC8B-4B4C-99D1-B7866A710FD4}">
+    <text>фигня какя-то , остатки РТКОНА, можно использовать это поле по своему усмотрению</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2022-09-09T12:56:21.73" personId="{4CDA4321-2837-4C2F-90EC-3775E3473EDB}" id="{24EFD64F-B614-4BAD-B762-A12E23E97485}">
+    <text>Скакой частотой следует опрашивать параметр
+1 - каждый цикл(часто изменяемый параметр, типа тока или угла поворота)
+1000 - опрос раз в 1000 циклов(что-то некритичное, типа номера блока или серийника)
+например, для медленно меняющейся температуры стоит выбрать цифру 50-200</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2022-09-09T13:08:55.35" personId="{4CDA4321-2837-4C2F-90EC-3775E3473EDB}" id="{39C4B1EE-0761-4EC1-9C7C-CCC45508B59C}">
+    <text>Степень десятки, на которую делится значение из КАН
+parametr = value / (10 ^ degree)
+можно не использовать</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15383,26 +15538,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AA167" sqref="AA167"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M217" sqref="M217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.21875" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.109375" bestFit="1" customWidth="1"/>
@@ -15410,40 +15565,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="29" t="s">
         <v>570</v>
       </c>
       <c r="M1" t="s">
@@ -15466,7 +15621,7 @@
       <c r="K2" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -15516,6 +15671,9 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
       <c r="K7" t="s">
         <v>85</v>
       </c>
@@ -15565,6 +15723,12 @@
       <c r="B12" t="s">
         <v>318</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="K12" t="s">
         <v>4428</v>
       </c>
@@ -15576,6 +15740,12 @@
       <c r="B13" t="s">
         <v>312</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
       <c r="K13" t="s">
         <v>4428</v>
       </c>
@@ -15587,6 +15757,16 @@
       <c r="B14" t="s">
         <v>316</v>
       </c>
+      <c r="E14">
+        <f>1/0.0030518509475997</f>
+        <v>327.67000000000206</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
       <c r="K14" t="s">
         <v>4433</v>
       </c>
@@ -15598,6 +15778,16 @@
       <c r="B15" t="s">
         <v>314</v>
       </c>
+      <c r="E15">
+        <f>1/0.196078431372549</f>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
       <c r="K15" t="s">
         <v>4428</v>
       </c>
@@ -15612,6 +15802,9 @@
       <c r="E16">
         <v>10</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="G16" t="s">
         <v>76</v>
       </c>
@@ -15626,6 +15819,12 @@
       <c r="B17" t="s">
         <v>184</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="K17" t="s">
         <v>4428</v>
       </c>
@@ -15637,6 +15836,16 @@
       <c r="B18" t="s">
         <v>4436</v>
       </c>
+      <c r="E18">
+        <f>1/0.010986663411359</f>
+        <v>91.01944444444436</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
       <c r="K18" t="s">
         <v>4433</v>
       </c>
@@ -15648,6 +15857,15 @@
       <c r="B19" t="s">
         <v>4438</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
       <c r="K19" t="s">
         <v>85</v>
       </c>
@@ -15664,6 +15882,12 @@
       <c r="B21" t="s">
         <v>328</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
       <c r="K21" t="s">
         <v>253</v>
       </c>
@@ -15676,7 +15900,11 @@
         <v>64</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <f>1/0.78740157480315</f>
+        <v>1.2699999999999994</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
@@ -15693,7 +15921,11 @@
         <v>68</v>
       </c>
       <c r="E23">
-        <v>4.0958750000000004</v>
+        <f>1/0.244148075807977</f>
+        <v>4.0958750000000093</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
@@ -15710,7 +15942,11 @@
         <v>72</v>
       </c>
       <c r="E24">
-        <v>0.19538461538461538</v>
+        <f>1/5.11811023622047</f>
+        <v>0.19538461538461549</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>73</v>
@@ -15727,7 +15963,11 @@
         <v>322</v>
       </c>
       <c r="E25">
-        <v>0.15740740740740741</v>
+        <f>1/1.18110236220472</f>
+        <v>0.84666666666666979</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
@@ -15743,6 +15983,16 @@
       <c r="B26" t="s">
         <v>75</v>
       </c>
+      <c r="E26">
+        <f>1/6.35294117647058</f>
+        <v>0.15740740740740761</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
       <c r="K26" t="s">
         <v>4428</v>
       </c>
@@ -15754,6 +16004,15 @@
       <c r="B27" t="s">
         <v>320</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
       <c r="K27" t="s">
         <v>4428</v>
       </c>
@@ -15765,6 +16024,9 @@
       <c r="B28" t="s">
         <v>79</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="F28">
         <v>40</v>
       </c>
@@ -15782,6 +16044,15 @@
       <c r="B29" t="s">
         <v>303</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
       <c r="K29" t="s">
         <v>4428</v>
       </c>
@@ -15793,6 +16064,9 @@
       <c r="B30" t="s">
         <v>4558</v>
       </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
       <c r="F30">
         <v>40</v>
       </c>
@@ -15810,6 +16084,15 @@
       <c r="B31" t="s">
         <v>82</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
       <c r="K31" t="s">
         <v>4428</v>
       </c>
@@ -15821,6 +16104,12 @@
       <c r="B32" t="s">
         <v>4559</v>
       </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
       <c r="K32" t="s">
         <v>253</v>
       </c>
@@ -15832,6 +16121,12 @@
       <c r="B33" t="s">
         <v>4560</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
       <c r="K33" t="s">
         <v>253</v>
       </c>
@@ -15843,6 +16138,12 @@
       <c r="B34" t="s">
         <v>4561</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
       <c r="K34" t="s">
         <v>85</v>
       </c>
@@ -15854,6 +16155,12 @@
       <c r="B35" t="s">
         <v>4562</v>
       </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
       <c r="K35" t="s">
         <v>85</v>
       </c>
@@ -15868,6 +16175,16 @@
       <c r="C36">
         <v>1</v>
       </c>
+      <c r="E36">
+        <f>1/0.0030518509475997</f>
+        <v>327.67000000000206</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
       <c r="K36" t="s">
         <v>4433</v>
       </c>
@@ -15887,6 +16204,12 @@
       <c r="C38">
         <v>1</v>
       </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
       <c r="K38" t="s">
         <v>4428</v>
       </c>
@@ -15901,6 +16224,16 @@
       <c r="C39">
         <v>1</v>
       </c>
+      <c r="E39">
+        <f>1/0.0015259021896696</f>
+        <v>655.35000000001821</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>65</v>
+      </c>
       <c r="K39" t="s">
         <v>85</v>
       </c>
@@ -15915,6 +16248,15 @@
       <c r="C40">
         <v>1</v>
       </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>118</v>
+      </c>
       <c r="K40" t="s">
         <v>85</v>
       </c>
@@ -15929,6 +16271,15 @@
       <c r="C41">
         <v>1</v>
       </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>118</v>
+      </c>
       <c r="K41" t="s">
         <v>85</v>
       </c>
@@ -15943,6 +16294,12 @@
       <c r="C42">
         <v>1</v>
       </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
       <c r="K42" t="s">
         <v>4428</v>
       </c>
@@ -15957,6 +16314,15 @@
       <c r="C43">
         <v>1</v>
       </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>73</v>
+      </c>
       <c r="K43" t="s">
         <v>85</v>
       </c>
@@ -15971,6 +16337,13 @@
       <c r="C44">
         <v>1</v>
       </c>
+      <c r="E44">
+        <f>1/0.000015259021896696</f>
+        <v>65535.000000001804</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
       <c r="K44" t="s">
         <v>85</v>
       </c>
@@ -15985,6 +16358,16 @@
       <c r="C45">
         <v>1</v>
       </c>
+      <c r="E45">
+        <f>1/0.010986663411359</f>
+        <v>91.01944444444436</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
       <c r="K45" t="s">
         <v>4433</v>
       </c>
@@ -15999,6 +16382,15 @@
       <c r="C46">
         <v>1</v>
       </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
       <c r="K46" t="s">
         <v>85</v>
       </c>
@@ -16018,6 +16410,12 @@
       <c r="C48">
         <v>1</v>
       </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
       <c r="K48" t="s">
         <v>4433</v>
       </c>
@@ -16032,6 +16430,12 @@
       <c r="C49">
         <v>1</v>
       </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
       <c r="K49" t="s">
         <v>4433</v>
       </c>
@@ -16046,6 +16450,15 @@
       <c r="C50">
         <v>1</v>
       </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>118</v>
+      </c>
       <c r="K50" t="s">
         <v>85</v>
       </c>
@@ -16060,6 +16473,12 @@
       <c r="C51">
         <v>1</v>
       </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
       <c r="K51" t="s">
         <v>4428</v>
       </c>
@@ -16076,6 +16495,12 @@
       <c r="B53" t="s">
         <v>338</v>
       </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
       <c r="K53" t="s">
         <v>253</v>
       </c>
@@ -16087,6 +16512,12 @@
       <c r="B54" t="s">
         <v>342</v>
       </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
       <c r="K54" t="s">
         <v>253</v>
       </c>
@@ -16098,6 +16529,12 @@
       <c r="B55" t="s">
         <v>370</v>
       </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
       <c r="K55" t="s">
         <v>4433</v>
       </c>
@@ -16109,6 +16546,12 @@
       <c r="B56" t="s">
         <v>89</v>
       </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
       <c r="K56" t="s">
         <v>4433</v>
       </c>
@@ -16120,6 +16563,12 @@
       <c r="B57" t="s">
         <v>384</v>
       </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
       <c r="K57" t="s">
         <v>4428</v>
       </c>
@@ -16131,6 +16580,12 @@
       <c r="B58" t="s">
         <v>380</v>
       </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
       <c r="K58" t="s">
         <v>4428</v>
       </c>
@@ -16145,6 +16600,12 @@
       <c r="C59">
         <v>1</v>
       </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
       <c r="K59" t="s">
         <v>4433</v>
       </c>
@@ -16159,6 +16620,12 @@
       <c r="C60">
         <v>1</v>
       </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
       <c r="K60" t="s">
         <v>4433</v>
       </c>
@@ -16173,6 +16640,12 @@
       <c r="C61">
         <v>1</v>
       </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
       <c r="K61" t="s">
         <v>4433</v>
       </c>
@@ -16187,6 +16660,12 @@
       <c r="C62">
         <v>1</v>
       </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
       <c r="K62" t="s">
         <v>77</v>
       </c>
@@ -16198,6 +16677,12 @@
       <c r="B63" t="s">
         <v>4564</v>
       </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
       <c r="K63" t="s">
         <v>77</v>
       </c>
@@ -16209,6 +16694,12 @@
       <c r="B64" t="s">
         <v>93</v>
       </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
       <c r="G64" t="s">
         <v>94</v>
       </c>
@@ -16223,6 +16714,15 @@
       <c r="B65" t="s">
         <v>4565</v>
       </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
       <c r="K65" t="s">
         <v>77</v>
       </c>
@@ -16234,6 +16734,15 @@
       <c r="B66" t="s">
         <v>4566</v>
       </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>80</v>
+      </c>
       <c r="K66" t="s">
         <v>77</v>
       </c>
@@ -16250,6 +16759,12 @@
       <c r="B68" t="s">
         <v>340</v>
       </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
       <c r="K68" t="s">
         <v>253</v>
       </c>
@@ -16261,6 +16776,12 @@
       <c r="B69" t="s">
         <v>344</v>
       </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
       <c r="K69" t="s">
         <v>253</v>
       </c>
@@ -16272,6 +16793,12 @@
       <c r="B70" t="s">
         <v>372</v>
       </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
       <c r="K70" t="s">
         <v>4433</v>
       </c>
@@ -16283,6 +16810,12 @@
       <c r="B71" t="s">
         <v>91</v>
       </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
       <c r="K71" t="s">
         <v>4433</v>
       </c>
@@ -16294,6 +16827,12 @@
       <c r="B72" t="s">
         <v>386</v>
       </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
       <c r="K72" t="s">
         <v>4428</v>
       </c>
@@ -16305,6 +16844,12 @@
       <c r="B73" t="s">
         <v>382</v>
       </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
       <c r="K73" t="s">
         <v>4428</v>
       </c>
@@ -16319,6 +16864,12 @@
       <c r="C74">
         <v>1</v>
       </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
       <c r="K74" t="s">
         <v>4433</v>
       </c>
@@ -16333,6 +16884,12 @@
       <c r="C75">
         <v>1</v>
       </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
       <c r="K75" t="s">
         <v>4433</v>
       </c>
@@ -16347,6 +16904,12 @@
       <c r="C76">
         <v>1</v>
       </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
       <c r="K76" t="s">
         <v>4433</v>
       </c>
@@ -16361,6 +16924,12 @@
       <c r="C77">
         <v>1</v>
       </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
       <c r="K77" t="s">
         <v>77</v>
       </c>
@@ -16372,6 +16941,12 @@
       <c r="B78" t="s">
         <v>4568</v>
       </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
       <c r="K78" t="s">
         <v>77</v>
       </c>
@@ -16383,6 +16958,12 @@
       <c r="B79" t="s">
         <v>96</v>
       </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
       <c r="G79" t="s">
         <v>94</v>
       </c>
@@ -16397,6 +16978,15 @@
       <c r="B80" t="s">
         <v>4569</v>
       </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>80</v>
+      </c>
       <c r="K80" t="s">
         <v>77</v>
       </c>
@@ -16408,6 +16998,15 @@
       <c r="B81" t="s">
         <v>4570</v>
       </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
       <c r="K81" t="s">
         <v>77</v>
       </c>
@@ -16424,6 +17023,12 @@
       <c r="B83" t="s">
         <v>279</v>
       </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
       <c r="K83" t="s">
         <v>4428</v>
       </c>
@@ -16435,6 +17040,12 @@
       <c r="B84" t="s">
         <v>281</v>
       </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
       <c r="K84" t="s">
         <v>4428</v>
       </c>
@@ -16446,6 +17057,12 @@
       <c r="B85" t="s">
         <v>277</v>
       </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
       <c r="K85" t="s">
         <v>85</v>
       </c>
@@ -16457,6 +17074,12 @@
       <c r="B86" t="s">
         <v>283</v>
       </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
       <c r="K86" t="s">
         <v>85</v>
       </c>
@@ -16468,6 +17091,12 @@
       <c r="B87" t="s">
         <v>285</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
       <c r="K87" t="s">
         <v>85</v>
       </c>
@@ -16484,6 +17113,12 @@
       <c r="B89" t="s">
         <v>1172</v>
       </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
       <c r="K89" t="s">
         <v>4428</v>
       </c>
@@ -16498,6 +17133,15 @@
       <c r="C90">
         <v>1</v>
       </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>118</v>
+      </c>
       <c r="K90" t="s">
         <v>85</v>
       </c>
@@ -16512,6 +17156,15 @@
       <c r="C91">
         <v>1</v>
       </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>118</v>
+      </c>
       <c r="K91" t="s">
         <v>85</v>
       </c>
@@ -16528,6 +17181,12 @@
       <c r="B93" t="s">
         <v>255</v>
       </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
       <c r="K93" t="s">
         <v>85</v>
       </c>
@@ -16539,6 +17198,12 @@
       <c r="B94" t="s">
         <v>252</v>
       </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
       <c r="K94" t="s">
         <v>4428</v>
       </c>
@@ -16550,6 +17215,12 @@
       <c r="B95" t="s">
         <v>336</v>
       </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
       <c r="K95" t="s">
         <v>85</v>
       </c>
@@ -16561,6 +17232,12 @@
       <c r="B96" t="s">
         <v>192</v>
       </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
       <c r="K96" t="s">
         <v>4428</v>
       </c>
@@ -16575,6 +17252,15 @@
       <c r="C97">
         <v>1</v>
       </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>118</v>
+      </c>
       <c r="K97" t="s">
         <v>85</v>
       </c>
@@ -16594,6 +17280,15 @@
       <c r="C99">
         <v>1</v>
       </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>107</v>
+      </c>
       <c r="K99" t="s">
         <v>85</v>
       </c>
@@ -16608,6 +17303,15 @@
       <c r="C100">
         <v>1</v>
       </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>107</v>
+      </c>
       <c r="K100" t="s">
         <v>85</v>
       </c>
@@ -16622,6 +17326,15 @@
       <c r="C101">
         <v>1</v>
       </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>107</v>
+      </c>
       <c r="K101" t="s">
         <v>85</v>
       </c>
@@ -16636,6 +17349,15 @@
       <c r="C102">
         <v>1</v>
       </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>118</v>
+      </c>
       <c r="K102" t="s">
         <v>85</v>
       </c>
@@ -16650,6 +17372,15 @@
       <c r="C103">
         <v>1</v>
       </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>4598</v>
+      </c>
       <c r="K103" t="s">
         <v>85</v>
       </c>
@@ -16664,6 +17395,15 @@
       <c r="C104">
         <v>1</v>
       </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>4598</v>
+      </c>
       <c r="K104" t="s">
         <v>85</v>
       </c>
@@ -16678,6 +17418,15 @@
       <c r="C105">
         <v>1</v>
       </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>4598</v>
+      </c>
       <c r="K105" t="s">
         <v>85</v>
       </c>
@@ -16692,6 +17441,15 @@
       <c r="C106">
         <v>1</v>
       </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>4598</v>
+      </c>
       <c r="K106" t="s">
         <v>85</v>
       </c>
@@ -16706,6 +17464,12 @@
       <c r="C107">
         <v>1</v>
       </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
       <c r="K107" t="s">
         <v>85</v>
       </c>
@@ -16720,6 +17484,12 @@
       <c r="C108">
         <v>1</v>
       </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
       <c r="K108" t="s">
         <v>85</v>
       </c>
@@ -16734,6 +17504,12 @@
       <c r="C109">
         <v>1</v>
       </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
       <c r="K109" t="s">
         <v>85</v>
       </c>
@@ -16748,6 +17524,12 @@
       <c r="C110">
         <v>1</v>
       </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
       <c r="K110" t="s">
         <v>85</v>
       </c>
@@ -16762,6 +17544,12 @@
       <c r="C111">
         <v>1</v>
       </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
       <c r="K111" t="s">
         <v>4428</v>
       </c>
@@ -16776,6 +17564,12 @@
       <c r="C112">
         <v>1</v>
       </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
       <c r="K112" t="s">
         <v>4428</v>
       </c>
@@ -16790,6 +17584,12 @@
       <c r="C113">
         <v>1</v>
       </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
       <c r="K113" t="s">
         <v>4428</v>
       </c>
@@ -16804,6 +17604,15 @@
       <c r="C114">
         <v>1</v>
       </c>
+      <c r="E114">
+        <v>2.5</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>65</v>
+      </c>
       <c r="K114" t="s">
         <v>4428</v>
       </c>
@@ -16818,6 +17627,15 @@
       <c r="C115">
         <v>1</v>
       </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>107</v>
+      </c>
       <c r="K115" t="s">
         <v>85</v>
       </c>
@@ -16832,6 +17650,15 @@
       <c r="C116">
         <v>1</v>
       </c>
+      <c r="E116">
+        <v>2.5</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>65</v>
+      </c>
       <c r="K116" t="s">
         <v>4428</v>
       </c>
@@ -16846,6 +17673,12 @@
       <c r="C117">
         <v>1</v>
       </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
       <c r="K117" t="s">
         <v>4428</v>
       </c>
@@ -16860,6 +17693,12 @@
       <c r="C118">
         <v>1</v>
       </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
       <c r="K118" t="s">
         <v>4428</v>
       </c>
@@ -16874,6 +17713,15 @@
       <c r="C119">
         <v>1</v>
       </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>118</v>
+      </c>
       <c r="K119" t="s">
         <v>85</v>
       </c>
@@ -16888,6 +17736,15 @@
       <c r="C120">
         <v>1</v>
       </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>118</v>
+      </c>
       <c r="K120" t="s">
         <v>85</v>
       </c>
@@ -16902,6 +17759,12 @@
       <c r="C121">
         <v>1</v>
       </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
       <c r="K121" t="s">
         <v>4428</v>
       </c>
@@ -16921,6 +17784,12 @@
       <c r="C123">
         <v>1</v>
       </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
       <c r="K123" t="s">
         <v>4428</v>
       </c>
@@ -16933,10 +17802,13 @@
         <v>102</v>
       </c>
       <c r="E124">
-        <v>0.39215686274509803</v>
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="K124" t="s">
         <v>85</v>
@@ -16950,10 +17822,13 @@
         <v>104</v>
       </c>
       <c r="E125">
-        <v>0.39215686274509803</v>
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="K125" t="s">
         <v>85</v>
@@ -16966,6 +17841,12 @@
       <c r="B126" t="s">
         <v>224</v>
       </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
       <c r="K126" t="s">
         <v>4428</v>
       </c>
@@ -16977,6 +17858,15 @@
       <c r="B127" t="s">
         <v>198</v>
       </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>107</v>
+      </c>
       <c r="K127" t="s">
         <v>85</v>
       </c>
@@ -16991,6 +17881,12 @@
       <c r="C128">
         <v>1</v>
       </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
       <c r="K128" t="s">
         <v>4428</v>
       </c>
@@ -17005,6 +17901,12 @@
       <c r="C129">
         <v>1</v>
       </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
       <c r="K129" t="s">
         <v>85</v>
       </c>
@@ -17019,6 +17921,12 @@
       <c r="C130">
         <v>1</v>
       </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
       <c r="K130" t="s">
         <v>85</v>
       </c>
@@ -17033,6 +17941,12 @@
       <c r="C131">
         <v>1</v>
       </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
       <c r="K131" t="s">
         <v>85</v>
       </c>
@@ -17047,6 +17961,12 @@
       <c r="C132">
         <v>1</v>
       </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
       <c r="K132" t="s">
         <v>85</v>
       </c>
@@ -17058,6 +17978,12 @@
       <c r="B133" t="s">
         <v>4581</v>
       </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
       <c r="K133" t="s">
         <v>4428</v>
       </c>
@@ -17069,6 +17995,12 @@
       <c r="B134" t="s">
         <v>4582</v>
       </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
       <c r="K134" t="s">
         <v>4428</v>
       </c>
@@ -17080,6 +18012,12 @@
       <c r="B135" t="s">
         <v>4583</v>
       </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
       <c r="K135" t="s">
         <v>4428</v>
       </c>
@@ -17099,6 +18037,12 @@
       <c r="C137">
         <v>1</v>
       </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
       <c r="G137" t="s">
         <v>118</v>
       </c>
@@ -17116,6 +18060,12 @@
       <c r="C138">
         <v>1</v>
       </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
       <c r="G138" t="s">
         <v>118</v>
       </c>
@@ -17133,6 +18083,12 @@
       <c r="C139">
         <v>1</v>
       </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
       <c r="G139" t="s">
         <v>118</v>
       </c>
@@ -17150,6 +18106,12 @@
       <c r="C140">
         <v>1</v>
       </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
       <c r="G140" t="s">
         <v>118</v>
       </c>
@@ -17167,6 +18129,12 @@
       <c r="C141">
         <v>1</v>
       </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
       <c r="G141" t="s">
         <v>118</v>
       </c>
@@ -17184,8 +18152,14 @@
       <c r="C142">
         <v>1</v>
       </c>
+      <c r="E142">
+        <v>2.5</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
       <c r="G142" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="K142" t="s">
         <v>4428</v>
@@ -17201,8 +18175,14 @@
       <c r="C143">
         <v>1</v>
       </c>
+      <c r="E143">
+        <v>2.5</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
       <c r="G143" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="K143" t="s">
         <v>4428</v>
@@ -17218,8 +18198,14 @@
       <c r="C144">
         <v>1</v>
       </c>
+      <c r="E144">
+        <v>2.5</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
       <c r="G144" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="K144" t="s">
         <v>4428</v>
@@ -17235,8 +18221,14 @@
       <c r="C145">
         <v>1</v>
       </c>
+      <c r="E145">
+        <v>2.5</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
       <c r="G145" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="K145" t="s">
         <v>4428</v>
@@ -17252,8 +18244,14 @@
       <c r="C146">
         <v>1</v>
       </c>
+      <c r="E146">
+        <v>2.5</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
       <c r="G146" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="K146" t="s">
         <v>4428</v>
@@ -17271,6 +18269,12 @@
       <c r="B148" t="s">
         <v>178</v>
       </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
       <c r="K148" t="s">
         <v>4428</v>
       </c>
@@ -17285,6 +18289,15 @@
       <c r="C149">
         <v>1</v>
       </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>118</v>
+      </c>
       <c r="K149" t="s">
         <v>85</v>
       </c>
@@ -17299,6 +18312,15 @@
       <c r="C150">
         <v>1</v>
       </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>118</v>
+      </c>
       <c r="K150" t="s">
         <v>85</v>
       </c>
@@ -17313,6 +18335,15 @@
       <c r="C151">
         <v>1</v>
       </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>118</v>
+      </c>
       <c r="K151" t="s">
         <v>85</v>
       </c>
@@ -17324,6 +18355,15 @@
       <c r="B152" t="s">
         <v>4498</v>
       </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>4599</v>
+      </c>
       <c r="K152" t="s">
         <v>253</v>
       </c>
@@ -17335,6 +18375,15 @@
       <c r="B153" t="s">
         <v>4500</v>
       </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>4599</v>
+      </c>
       <c r="K153" t="s">
         <v>253</v>
       </c>
@@ -17349,6 +18398,12 @@
       <c r="C154">
         <v>1</v>
       </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
       <c r="K154" t="s">
         <v>253</v>
       </c>
@@ -17360,6 +18415,12 @@
       <c r="B155" t="s">
         <v>4502</v>
       </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
       <c r="K155" t="s">
         <v>4428</v>
       </c>
@@ -17371,6 +18432,12 @@
       <c r="B156" t="s">
         <v>4504</v>
       </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
       <c r="K156" t="s">
         <v>85</v>
       </c>
@@ -17382,6 +18449,12 @@
       <c r="B157" t="s">
         <v>4506</v>
       </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
       <c r="K157" t="s">
         <v>85</v>
       </c>
@@ -17393,6 +18466,12 @@
       <c r="B158" t="s">
         <v>4508</v>
       </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
       <c r="K158" t="s">
         <v>85</v>
       </c>
@@ -17404,6 +18483,12 @@
       <c r="B159" t="s">
         <v>4510</v>
       </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
       <c r="K159" t="s">
         <v>85</v>
       </c>
@@ -17415,6 +18500,12 @@
       <c r="B160" t="s">
         <v>4512</v>
       </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
       <c r="K160" t="s">
         <v>85</v>
       </c>
@@ -17426,6 +18517,12 @@
       <c r="B161" t="s">
         <v>4514</v>
       </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
       <c r="K161" t="s">
         <v>85</v>
       </c>
@@ -17437,6 +18534,12 @@
       <c r="B162" t="s">
         <v>4516</v>
       </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
       <c r="K162" t="s">
         <v>85</v>
       </c>
@@ -17448,6 +18551,12 @@
       <c r="B163" t="s">
         <v>4518</v>
       </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
       <c r="K163" t="s">
         <v>85</v>
       </c>
@@ -17459,6 +18568,12 @@
       <c r="B164" t="s">
         <v>4585</v>
       </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
       <c r="K164" t="s">
         <v>85</v>
       </c>
@@ -17470,6 +18585,12 @@
       <c r="B165" t="s">
         <v>4586</v>
       </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
       <c r="K165" t="s">
         <v>85</v>
       </c>
@@ -17486,6 +18607,12 @@
       <c r="B167" t="s">
         <v>392</v>
       </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
       <c r="K167" t="s">
         <v>4428</v>
       </c>
@@ -17497,6 +18624,15 @@
       <c r="B168" t="s">
         <v>150</v>
       </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>4600</v>
+      </c>
       <c r="K168" t="s">
         <v>4433</v>
       </c>
@@ -17508,6 +18644,15 @@
       <c r="B169" t="s">
         <v>152</v>
       </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>4600</v>
+      </c>
       <c r="K169" t="s">
         <v>4433</v>
       </c>
@@ -17519,6 +18664,15 @@
       <c r="B170" t="s">
         <v>154</v>
       </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>4600</v>
+      </c>
       <c r="K170" t="s">
         <v>4433</v>
       </c>
@@ -17530,6 +18684,15 @@
       <c r="B171" t="s">
         <v>156</v>
       </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>4600</v>
+      </c>
       <c r="K171" t="s">
         <v>4433</v>
       </c>
@@ -17541,6 +18704,15 @@
       <c r="B172" t="s">
         <v>158</v>
       </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>4601</v>
+      </c>
       <c r="K172" t="s">
         <v>85</v>
       </c>
@@ -17552,6 +18724,15 @@
       <c r="B173" t="s">
         <v>160</v>
       </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>4601</v>
+      </c>
       <c r="K173" t="s">
         <v>85</v>
       </c>
@@ -17563,6 +18744,15 @@
       <c r="B174" t="s">
         <v>162</v>
       </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>4601</v>
+      </c>
       <c r="K174" t="s">
         <v>85</v>
       </c>
@@ -17574,6 +18764,15 @@
       <c r="B175" t="s">
         <v>164</v>
       </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>4601</v>
+      </c>
       <c r="K175" t="s">
         <v>85</v>
       </c>
@@ -17585,6 +18784,12 @@
       <c r="B176" t="s">
         <v>4587</v>
       </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
       <c r="K176" t="s">
         <v>253</v>
       </c>
@@ -17604,6 +18809,15 @@
       <c r="C178">
         <v>1</v>
       </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>4601</v>
+      </c>
       <c r="K178" t="s">
         <v>85</v>
       </c>
@@ -17618,6 +18832,15 @@
       <c r="C179">
         <v>1</v>
       </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>4601</v>
+      </c>
       <c r="K179" t="s">
         <v>85</v>
       </c>
@@ -17632,6 +18855,15 @@
       <c r="C180">
         <v>1</v>
       </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>4600</v>
+      </c>
       <c r="K180" t="s">
         <v>85</v>
       </c>
@@ -17646,6 +18878,12 @@
       <c r="C181">
         <v>1</v>
       </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
       <c r="K181" t="s">
         <v>4428</v>
       </c>
@@ -17660,6 +18898,12 @@
       <c r="C182">
         <v>1</v>
       </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
       <c r="K182" t="s">
         <v>4428</v>
       </c>
@@ -17674,6 +18918,12 @@
       <c r="C183">
         <v>1</v>
       </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
       <c r="K183" t="s">
         <v>4428</v>
       </c>
@@ -17688,6 +18938,12 @@
       <c r="C184">
         <v>1</v>
       </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
       <c r="K184" t="s">
         <v>4428</v>
       </c>
@@ -17702,6 +18958,12 @@
       <c r="C185">
         <v>1</v>
       </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
       <c r="K185" t="s">
         <v>4428</v>
       </c>
@@ -17716,6 +18978,12 @@
       <c r="C186">
         <v>1</v>
       </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
       <c r="K186" t="s">
         <v>4428</v>
       </c>
@@ -17730,6 +18998,15 @@
       <c r="C187">
         <v>1</v>
       </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>4600</v>
+      </c>
       <c r="K187" t="s">
         <v>4433</v>
       </c>
@@ -17744,6 +19021,15 @@
       <c r="C188">
         <v>1</v>
       </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>4600</v>
+      </c>
       <c r="K188" t="s">
         <v>4433</v>
       </c>
@@ -17758,6 +19044,15 @@
       <c r="C189">
         <v>1</v>
       </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>4600</v>
+      </c>
       <c r="K189" t="s">
         <v>4433</v>
       </c>
@@ -17772,6 +19067,15 @@
       <c r="C190">
         <v>1</v>
       </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>4600</v>
+      </c>
       <c r="K190" t="s">
         <v>4433</v>
       </c>
@@ -17791,6 +19095,9 @@
       <c r="E192">
         <v>1000</v>
       </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
       <c r="G192" t="s">
         <v>76</v>
       </c>
@@ -17805,6 +19112,15 @@
       <c r="B193" t="s">
         <v>166</v>
       </c>
+      <c r="E193">
+        <v>1000</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193" t="s">
+        <v>76</v>
+      </c>
       <c r="K193" t="s">
         <v>85</v>
       </c>
@@ -17819,6 +19135,15 @@
       <c r="C194">
         <v>1</v>
       </c>
+      <c r="E194">
+        <v>1000</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>76</v>
+      </c>
       <c r="K194" t="s">
         <v>85</v>
       </c>
@@ -17833,6 +19158,15 @@
       <c r="C195">
         <v>1</v>
       </c>
+      <c r="E195">
+        <v>1000</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>76</v>
+      </c>
       <c r="K195" t="s">
         <v>85</v>
       </c>
@@ -17847,6 +19181,15 @@
       <c r="C196">
         <v>1</v>
       </c>
+      <c r="E196">
+        <v>1000</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>76</v>
+      </c>
       <c r="K196" t="s">
         <v>85</v>
       </c>
@@ -17861,6 +19204,15 @@
       <c r="C197">
         <v>1</v>
       </c>
+      <c r="E197">
+        <v>1000</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>76</v>
+      </c>
       <c r="K197" t="s">
         <v>85</v>
       </c>
@@ -17880,6 +19232,15 @@
       <c r="C199">
         <v>1</v>
       </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>118</v>
+      </c>
       <c r="K199" t="s">
         <v>85</v>
       </c>
@@ -17894,6 +19255,15 @@
       <c r="C200">
         <v>1</v>
       </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>118</v>
+      </c>
       <c r="K200" t="s">
         <v>85</v>
       </c>
@@ -17908,6 +19278,15 @@
       <c r="C201">
         <v>1</v>
       </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201" t="s">
+        <v>76</v>
+      </c>
       <c r="K201" t="s">
         <v>85</v>
       </c>
@@ -17922,6 +19301,15 @@
       <c r="C202">
         <v>1</v>
       </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202" t="s">
+        <v>118</v>
+      </c>
       <c r="K202" t="s">
         <v>85</v>
       </c>
@@ -17933,6 +19321,12 @@
       <c r="B203" t="s">
         <v>180</v>
       </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
       <c r="K203" t="s">
         <v>4428</v>
       </c>
@@ -17944,6 +19338,12 @@
       <c r="B204" t="s">
         <v>182</v>
       </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
       <c r="K204" t="s">
         <v>4428</v>
       </c>
@@ -17955,6 +19355,12 @@
       <c r="B205" t="s">
         <v>4525</v>
       </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
       <c r="K205" t="s">
         <v>253</v>
       </c>
@@ -17974,6 +19380,12 @@
       <c r="C207">
         <v>1</v>
       </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
       <c r="K207" t="s">
         <v>77</v>
       </c>
@@ -17985,6 +19397,12 @@
       <c r="B208" t="s">
         <v>295</v>
       </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
       <c r="K208" t="s">
         <v>77</v>
       </c>
@@ -18004,6 +19422,15 @@
       <c r="C210">
         <v>1</v>
       </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>118</v>
+      </c>
       <c r="K210" t="s">
         <v>85</v>
       </c>
@@ -18018,6 +19445,15 @@
       <c r="C211">
         <v>1</v>
       </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
+        <v>118</v>
+      </c>
       <c r="K211" t="s">
         <v>85</v>
       </c>
@@ -18034,8 +19470,14 @@
       <c r="B213" t="s">
         <v>275</v>
       </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
       <c r="K213" t="s">
-        <v>4533</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
@@ -18045,6 +19487,12 @@
       <c r="B214" t="s">
         <v>271</v>
       </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
       <c r="K214" t="s">
         <v>77</v>
       </c>
@@ -18056,6 +19504,12 @@
       <c r="B215" t="s">
         <v>273</v>
       </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
       <c r="K215" t="s">
         <v>77</v>
       </c>
@@ -18075,6 +19529,12 @@
       <c r="C217">
         <v>1</v>
       </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
       <c r="K217" t="s">
         <v>4428</v>
       </c>
@@ -18089,6 +19549,15 @@
       <c r="C218">
         <v>1</v>
       </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>4600</v>
+      </c>
       <c r="K218" t="s">
         <v>85</v>
       </c>
@@ -18103,6 +19572,16 @@
       <c r="C219">
         <v>1</v>
       </c>
+      <c r="E219">
+        <f>1/0.2441</f>
+        <v>4.0966816878328549</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219" t="s">
+        <v>4602</v>
+      </c>
       <c r="K219" t="s">
         <v>4433</v>
       </c>
@@ -18117,6 +19596,16 @@
       <c r="C220">
         <v>1</v>
       </c>
+      <c r="E220">
+        <f>1/0.2441</f>
+        <v>4.0966816878328549</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>69</v>
+      </c>
       <c r="K220" t="s">
         <v>4433</v>
       </c>
@@ -18131,6 +19620,12 @@
       <c r="C221">
         <v>1</v>
       </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
       <c r="K221" t="s">
         <v>85</v>
       </c>
@@ -18145,6 +19640,12 @@
       <c r="C222">
         <v>1</v>
       </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
       <c r="K222" t="s">
         <v>85</v>
       </c>
@@ -18159,6 +19660,12 @@
       <c r="C223">
         <v>1</v>
       </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
       <c r="K223" t="s">
         <v>4428</v>
       </c>
@@ -18173,6 +19680,12 @@
       <c r="C224">
         <v>1</v>
       </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
       <c r="K224" t="s">
         <v>4428</v>
       </c>
@@ -18187,6 +19700,12 @@
       <c r="C225">
         <v>1</v>
       </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
       <c r="K225" t="s">
         <v>4428</v>
       </c>
@@ -18201,6 +19720,12 @@
       <c r="C226">
         <v>1</v>
       </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
       <c r="K226" t="s">
         <v>4428</v>
       </c>
@@ -18215,6 +19740,12 @@
       <c r="C227">
         <v>1</v>
       </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
       <c r="K227" t="s">
         <v>4428</v>
       </c>
@@ -18226,6 +19757,15 @@
       <c r="B228" t="s">
         <v>4594</v>
       </c>
+      <c r="E228">
+        <v>100</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228" t="s">
+        <v>4603</v>
+      </c>
       <c r="K228" t="s">
         <v>4433</v>
       </c>
@@ -18237,6 +19777,16 @@
       <c r="B229" t="s">
         <v>4595</v>
       </c>
+      <c r="E229">
+        <f>1/0.002</f>
+        <v>500</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>2159</v>
+      </c>
       <c r="K229" t="s">
         <v>4433</v>
       </c>
@@ -18248,6 +19798,16 @@
       <c r="B230" t="s">
         <v>4596</v>
       </c>
+      <c r="E230">
+        <f t="shared" ref="E230:E232" si="0">1/0.002</f>
+        <v>500</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>2159</v>
+      </c>
       <c r="K230" t="s">
         <v>4433</v>
       </c>
@@ -18259,6 +19819,16 @@
       <c r="B231" t="s">
         <v>4597</v>
       </c>
+      <c r="E231">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
+        <v>2159</v>
+      </c>
       <c r="K231" t="s">
         <v>4433</v>
       </c>
@@ -18270,6 +19840,16 @@
       <c r="B232" t="s">
         <v>4535</v>
       </c>
+      <c r="E232">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
+        <v>2159</v>
+      </c>
       <c r="K232" t="s">
         <v>4433</v>
       </c>
@@ -18284,6 +19864,15 @@
       <c r="C233">
         <v>1</v>
       </c>
+      <c r="E233">
+        <v>100</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233" t="s">
+        <v>4603</v>
+      </c>
       <c r="K233" t="s">
         <v>4433</v>
       </c>
@@ -18303,6 +19892,15 @@
       <c r="C235">
         <v>1</v>
       </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235" t="s">
+        <v>80</v>
+      </c>
       <c r="K235" t="s">
         <v>77</v>
       </c>
@@ -18317,6 +19915,15 @@
       <c r="C236">
         <v>1</v>
       </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236" t="s">
+        <v>80</v>
+      </c>
       <c r="K236" t="s">
         <v>77</v>
       </c>
@@ -18331,6 +19938,15 @@
       <c r="C237">
         <v>1</v>
       </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237" t="s">
+        <v>80</v>
+      </c>
       <c r="K237" t="s">
         <v>77</v>
       </c>
@@ -18345,6 +19961,15 @@
       <c r="C238">
         <v>1</v>
       </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
+        <v>80</v>
+      </c>
       <c r="K238" t="s">
         <v>77</v>
       </c>
@@ -18359,6 +19984,15 @@
       <c r="C239">
         <v>1</v>
       </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>80</v>
+      </c>
       <c r="K239" t="s">
         <v>77</v>
       </c>
@@ -18373,6 +20007,15 @@
       <c r="C240">
         <v>1</v>
       </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>80</v>
+      </c>
       <c r="K240" t="s">
         <v>77</v>
       </c>
@@ -18387,6 +20030,12 @@
       <c r="C241">
         <v>1</v>
       </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
       <c r="K241" t="s">
         <v>77</v>
       </c>
@@ -18394,6 +20043,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18401,7 +20051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA242"/>
   <sheetViews>
-    <sheetView topLeftCell="D206" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3:AA242"/>
     </sheetView>
   </sheetViews>
